--- a/train.xlsx
+++ b/train.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,11 +496,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45690.84583333333</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45690.84583333333</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-02 20:57:03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-02-02 21:00:15</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0.9</v>
@@ -1054,6 +1054,1702 @@
         <v>9027.790000000001</v>
       </c>
       <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-03 17:50:41</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-02-03 17:53:34</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>256</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9316.41</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-03 17:57:24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:00:19</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>128</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>64</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>256</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8390.530000000001</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:00:49</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:03:46</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>144</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>256</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8173.37</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:04:15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:10:04</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>144</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>256</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8904.42</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:11:20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:14:16</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>144</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>256</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7977.17</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:14:51</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:20:35</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>144</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>256</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11973.08</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:23:02</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:28:46</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>144</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>80</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10186.92</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:29:17</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-02-03 18:32:13</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>144</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>80</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>256</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8462.889999999999</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:19:05</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:21:59</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>144</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>256</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9495.32</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:31:41</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:34:56</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>144</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>256</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7649.15</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:39:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:42:08</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>144</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>80</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>256</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8827.559999999999</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:43:49</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:46:46</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>144</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>256</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8642.290000000001</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:43:50</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:46:47</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>144</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>96</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>256</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7713.47</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:52:57</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:55:57</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>144</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>96</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>256</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8240.74</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-03 20:57:50</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:00:49</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>144</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>96</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>256</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10765.28</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:01:31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:04:27</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>144</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>96</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>256</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8081.29</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:04:52</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:07:52</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>144</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>96</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>256</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9040.280000000001</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:16:59</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:19:56</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>144</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>96</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>256</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9617.610000000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>加入新特征</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:21:01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:23:59</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>144</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>80</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>256</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7885.71</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:24:53</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:30:43</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>144</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>80</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>256</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10023.75</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:31:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-02-03 21:45:49</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>144</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>256</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10257.21</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:07:25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:10:23</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>144</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>80</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>256</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10404.84</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>只禁用基站数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:10:56</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:13:58</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>144</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>80</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>256</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9202.549999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>只禁用风速</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:14:46</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:17:45</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>144</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>80</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>256</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9253.530000000001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>禁用风速、基站数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:20:21</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:23:20</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>144</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>256</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8343.51</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:24:02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-02-03 23:26:55</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>144</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>80</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>256</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9918.469999999999</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-04 14:57:11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:00:10</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>144</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>80</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>256</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9355.440000000001</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:00:57</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:04:02</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>144</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>128</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10674.8</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:04:51</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:07:58</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>144</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>80</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>128</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9821.290000000001</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:08:31</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:11:36</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>144</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>64</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>128</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10079.68</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:15:13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:18:22</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>160</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>128</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10528.08</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:37:46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-02-04 15:41:59</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>144</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>80</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>128</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8636.34</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:05:55</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:10:05</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>144</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>80</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>128</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9408.15</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:10:41</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:14:56</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>144</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>80</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>128</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8800.700000000001</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:15:50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:20:00</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>128</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>80</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>128</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9529.129999999999</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:20:42</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:24:38</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>128</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>80</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>128</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8045.31</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:26:57</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:30:09</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>144</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>80</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>128</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9573.6</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:31:07</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:34:13</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>144</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>80</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>128</v>
+      </c>
+      <c r="K53" t="n">
+        <v>9979.59</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:34:35</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:37:43</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>144</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>80</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>128</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10763.55</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:38:13</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:41:27</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>144</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>80</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>128</v>
+      </c>
+      <c r="K55" t="n">
+        <v>8818.27</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:42:17</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:45:26</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>144</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G56" t="n">
+        <v>80</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>128</v>
+      </c>
+      <c r="K56" t="n">
+        <v>8809.27</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:47:14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:50:24</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>144</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G57" t="n">
+        <v>80</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>128</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8762.809999999999</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2751,6 +2751,326 @@
       </c>
       <c r="L57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-04 21:46:26</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-02-04 21:49:35</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>144</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G58" t="n">
+        <v>80</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>128</v>
+      </c>
+      <c r="K58" t="n">
+        <v>7651.39</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-04 21:54:21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-02-04 21:57:27</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>144</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G59" t="n">
+        <v>80</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>128</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9418.040000000001</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-04 21:57:50</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:00:56</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>144</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G60" t="n">
+        <v>80</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>128</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8483.51</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:02:18</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:05:24</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>144</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G61" t="n">
+        <v>80</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>128</v>
+      </c>
+      <c r="K61" t="n">
+        <v>10305.05</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:06:19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:09:24</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>144</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G62" t="n">
+        <v>80</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>128</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9689.139999999999</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:09:57</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:13:08</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>144</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G63" t="n">
+        <v>80</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>128</v>
+      </c>
+      <c r="K63" t="n">
+        <v>11390.08</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:13:43</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:17:34</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>144</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G64" t="n">
+        <v>80</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>128</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9010.469999999999</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:18:01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:21:40</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>144</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G65" t="n">
+        <v>80</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>128</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7734.95</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,6 +3071,606 @@
       </c>
       <c r="L65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:47:53</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:51:00</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>144</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G66" t="n">
+        <v>80</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>128</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9197.389999999999</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:55:10</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:58:19</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>144</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G67" t="n">
+        <v>80</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>128</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9091.16</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-02-04 23:12:28</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-02-04 23:15:37</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>144</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G68" t="n">
+        <v>80</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>128</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8555.280000000001</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-02-04 23:20:34</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-02-04 23:23:41</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>144</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G69" t="n">
+        <v>80</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>128</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8392.969999999999</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:36:58</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:40:07</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>144</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G70" t="n">
+        <v>80</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J70" t="n">
+        <v>128</v>
+      </c>
+      <c r="K70" t="n">
+        <v>8964.110000000001</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:40:27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:43:36</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>144</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G71" t="n">
+        <v>80</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J71" t="n">
+        <v>128</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8952.02</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:44:45</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:47:50</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>144</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G72" t="n">
+        <v>80</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J72" t="n">
+        <v>128</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8399.84</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:48:36</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:51:42</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>144</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G73" t="n">
+        <v>80</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J73" t="n">
+        <v>128</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8235.219999999999</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-02-05 13:34:54</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-02-05 13:38:10</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>144</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G74" t="n">
+        <v>80</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J74" t="n">
+        <v>128</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8872.139999999999</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-02-05 16:52:22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-02-05 16:55:52</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>144</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G75" t="n">
+        <v>80</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J75" t="n">
+        <v>128</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9254.99</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-02-05 16:56:18</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-02-05 16:59:49</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>128</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G76" t="n">
+        <v>80</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J76" t="n">
+        <v>128</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9472.790000000001</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-02-05 18:15:42</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-02-05 18:19:07</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>128</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G77" t="n">
+        <v>80</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>128</v>
+      </c>
+      <c r="K77" t="n">
+        <v>9775.51</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-02-05 18:20:14</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-02-05 18:23:27</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>128</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G78" t="n">
+        <v>80</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J78" t="n">
+        <v>128</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9315.799999999999</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:41:12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:44:40</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>128</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G79" t="n">
+        <v>80</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J79" t="n">
+        <v>128</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8695.950000000001</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-02-05 23:34:18</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-02-05 23:37:51</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>128</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G80" t="n">
+        <v>80</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J80" t="n">
+        <v>128</v>
+      </c>
+      <c r="K80" t="n">
+        <v>8470.27</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3671,6 +3671,246 @@
       </c>
       <c r="L80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-06 18:36:11</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-02-06 18:39:35</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>128</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G81" t="n">
+        <v>80</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J81" t="n">
+        <v>128</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9269.66</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-02-06 21:48:12</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-02-06 21:51:40</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>128</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G82" t="n">
+        <v>80</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J82" t="n">
+        <v>128</v>
+      </c>
+      <c r="K82" t="n">
+        <v>8270.9</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:31:20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:34:51</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>128</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G83" t="n">
+        <v>80</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J83" t="n">
+        <v>128</v>
+      </c>
+      <c r="K83" t="n">
+        <v>8464.389999999999</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:35:29</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:39:01</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>128</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G84" t="n">
+        <v>80</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J84" t="n">
+        <v>128</v>
+      </c>
+      <c r="K84" t="n">
+        <v>10100.99</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:39:40</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:42:54</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>128</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G85" t="n">
+        <v>80</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>128</v>
+      </c>
+      <c r="K85" t="n">
+        <v>10182.94</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:43:27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:46:48</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>128</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G86" t="n">
+        <v>80</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J86" t="n">
+        <v>128</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10724.72</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3911,6 +3911,1006 @@
       </c>
       <c r="L86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:43:02</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:46:06</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>144</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>80</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J87" t="n">
+        <v>128</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9276.33</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:46:35</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:49:37</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>144</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>80</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J88" t="n">
+        <v>128</v>
+      </c>
+      <c r="K88" t="n">
+        <v>8219.110000000001</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:55:07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:58:10</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>144</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>80</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J89" t="n">
+        <v>128</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7278.92</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:59:23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:02:24</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>144</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>80</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>128</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7305.13</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:03:03</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:06:05</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>128</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>80</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J91" t="n">
+        <v>128</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7286.45</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:06:52</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:09:42</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>128</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>80</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J92" t="n">
+        <v>256</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7211.75</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:10:06</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:15:45</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>128</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>80</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>256</v>
+      </c>
+      <c r="K93" t="n">
+        <v>7112.93</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:16:38</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:22:04</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>128</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>80</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>256</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7037.54</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:23:45</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:29:22</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>128</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>80</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J95" t="n">
+        <v>256</v>
+      </c>
+      <c r="K95" t="n">
+        <v>7200.69</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:32:22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:35:38</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>128</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>80</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J96" t="n">
+        <v>128</v>
+      </c>
+      <c r="K96" t="n">
+        <v>7398.42</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:36:12</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:39:32</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>128</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>80</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J97" t="n">
+        <v>128</v>
+      </c>
+      <c r="K97" t="n">
+        <v>8290.870000000001</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:40:15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:43:34</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>128</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>80</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>128</v>
+      </c>
+      <c r="K98" t="n">
+        <v>7193.34</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:22:20</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:25:37</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>128</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>80</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>128</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7181.96</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:26:16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:29:31</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>128</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>64</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>128</v>
+      </c>
+      <c r="K100" t="n">
+        <v>7181.39</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:30:02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-02-08 18:34:15</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>128</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G101" t="n">
+        <v>40</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J101" t="n">
+        <v>128</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7219.88</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-02-08 20:16:55</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-02-08 20:21:00</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>128</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>40</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J102" t="n">
+        <v>128</v>
+      </c>
+      <c r="K102" t="n">
+        <v>7413.71</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-02-08 20:53:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-02-08 20:56:37</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>64</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>32</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J103" t="n">
+        <v>64</v>
+      </c>
+      <c r="K103" t="n">
+        <v>7480.54</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-02-08 20:57:03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:01:06</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>64</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>32</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>32</v>
+      </c>
+      <c r="K104" t="n">
+        <v>7555.86</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:01:33</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:05:35</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>80</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>40</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>32</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7432.63</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:14:10</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:20:09</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>80</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G106" t="n">
+        <v>40</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>32</v>
+      </c>
+      <c r="K106" t="n">
+        <v>8986.190000000001</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:21:09</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:24:51</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>80</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>40</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J107" t="n">
+        <v>64</v>
+      </c>
+      <c r="K107" t="n">
+        <v>7433.11</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:25:28</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:29:04</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>80</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>40</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J108" t="n">
+        <v>64</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7410.13</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:29:32</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:32:43</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>80</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>40</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J109" t="n">
+        <v>128</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7548.96</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:33:16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:36:36</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>80</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>64</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J110" t="n">
+        <v>128</v>
+      </c>
+      <c r="K110" t="n">
+        <v>7190.54</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:37:09</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:40:27</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>100</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>64</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J111" t="n">
+        <v>128</v>
+      </c>
+      <c r="K111" t="n">
+        <v>7253.46</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4911,6 +4911,406 @@
       </c>
       <c r="L111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:47:09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:50:18</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>100</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>64</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J112" t="n">
+        <v>128</v>
+      </c>
+      <c r="K112" t="n">
+        <v>7385.4</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:52:14</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:55:20</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>100</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>50</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J113" t="n">
+        <v>128</v>
+      </c>
+      <c r="K113" t="n">
+        <v>7295.39</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:55:46</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:58:52</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>128</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>50</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>128</v>
+      </c>
+      <c r="K114" t="n">
+        <v>7264.31</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-02-09 15:59:26</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:02:44</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>100</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>64</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J115" t="n">
+        <v>128</v>
+      </c>
+      <c r="K115" t="n">
+        <v>7289.13</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:03:07</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:06:26</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>100</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>64</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J116" t="n">
+        <v>128</v>
+      </c>
+      <c r="K116" t="n">
+        <v>7456.98</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:06:49</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:10:19</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>128</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>64</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J117" t="n">
+        <v>128</v>
+      </c>
+      <c r="K117" t="n">
+        <v>7375.49</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:10:52</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:14:25</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>128</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G118" t="n">
+        <v>80</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J118" t="n">
+        <v>128</v>
+      </c>
+      <c r="K118" t="n">
+        <v>7184.42</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:14:51</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:18:16</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>144</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>80</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J119" t="n">
+        <v>128</v>
+      </c>
+      <c r="K119" t="n">
+        <v>7185.34</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:18:42</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:21:47</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>100</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>80</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J120" t="n">
+        <v>128</v>
+      </c>
+      <c r="K120" t="n">
+        <v>7264.42</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:22:15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-02-09 16:25:14</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>100</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>80</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J121" t="n">
+        <v>128</v>
+      </c>
+      <c r="K121" t="n">
+        <v>7168.22</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5311,6 +5311,686 @@
       </c>
       <c r="L121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:18:44</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:21:47</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>80</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J122" t="n">
+        <v>128</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7264.62</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:28:20</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:31:22</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>100</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>80</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J123" t="n">
+        <v>128</v>
+      </c>
+      <c r="K123" t="n">
+        <v>7517.55</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:38:17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:41:20</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>128</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>80</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J124" t="n">
+        <v>128</v>
+      </c>
+      <c r="K124" t="n">
+        <v>7649.88</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:43:44</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:46:48</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>144</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>80</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J125" t="n">
+        <v>128</v>
+      </c>
+      <c r="K125" t="n">
+        <v>7344.12</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:47:56</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:50:58</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>144</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>64</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J126" t="n">
+        <v>128</v>
+      </c>
+      <c r="K126" t="n">
+        <v>7045.45</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:51:34</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:54:37</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>144</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>64</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J127" t="n">
+        <v>128</v>
+      </c>
+      <c r="K127" t="n">
+        <v>7172.81</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:55:03</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:58:10</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>144</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G128" t="n">
+        <v>100</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>128</v>
+      </c>
+      <c r="K128" t="n">
+        <v>7157.6</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:59:46</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:03:19</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>256</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>128</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J129" t="n">
+        <v>128</v>
+      </c>
+      <c r="K129" t="n">
+        <v>7190.69</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:03:46</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:10:48</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>256</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>128</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J130" t="n">
+        <v>128</v>
+      </c>
+      <c r="K130" t="n">
+        <v>7165.23</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:11:18</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:17:20</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>128</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>80</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>128</v>
+      </c>
+      <c r="K131" t="n">
+        <v>7021.29</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:24:44</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:27:35</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>128</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G132" t="n">
+        <v>80</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>256</v>
+      </c>
+      <c r="K132" t="n">
+        <v>7129.77</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:28:06</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:31:37</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>128</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>80</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J133" t="n">
+        <v>64</v>
+      </c>
+      <c r="K133" t="n">
+        <v>7101.02</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:32:09</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:36:34</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>128</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G134" t="n">
+        <v>80</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J134" t="n">
+        <v>32</v>
+      </c>
+      <c r="K134" t="n">
+        <v>7264.27</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:37:35</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:40:38</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>144</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G135" t="n">
+        <v>80</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J135" t="n">
+        <v>128</v>
+      </c>
+      <c r="K135" t="n">
+        <v>7181.55</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:42:59</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:46:04</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>144</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>80</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J136" t="n">
+        <v>128</v>
+      </c>
+      <c r="K136" t="n">
+        <v>7105.14</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:46:28</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:49:32</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>144</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>80</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J137" t="n">
+        <v>128</v>
+      </c>
+      <c r="K137" t="n">
+        <v>7133.22</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:55:28</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:58:33</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>144</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>80</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J138" t="n">
+        <v>128</v>
+      </c>
+      <c r="K138" t="n">
+        <v>7135.06</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5991,6 +5991,606 @@
       </c>
       <c r="L138" t="inlineStr"/>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-02-13 15:42:01</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-02-13 15:46:18</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>144</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G139" t="n">
+        <v>80</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J139" t="n">
+        <v>128</v>
+      </c>
+      <c r="K139" t="n">
+        <v>7054.69</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-02-13 15:59:19</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-02-13 16:03:25</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>144</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>80</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J140" t="n">
+        <v>128</v>
+      </c>
+      <c r="K140" t="n">
+        <v>7212.99</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-02-13 16:04:01</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-02-13 16:08:07</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>144</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>80</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J141" t="n">
+        <v>128</v>
+      </c>
+      <c r="K141" t="n">
+        <v>7049.61</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-02-13 16:15:00</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-02-13 16:19:09</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>144</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>80</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J142" t="n">
+        <v>128</v>
+      </c>
+      <c r="K142" t="n">
+        <v>7130.96</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-02-13 17:04:00</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-02-13 17:07:05</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>144</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>80</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J143" t="n">
+        <v>128</v>
+      </c>
+      <c r="K143" t="n">
+        <v>7167.63</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-02-13 17:37:22</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-02-13 17:40:48</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>144</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G144" t="n">
+        <v>80</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J144" t="n">
+        <v>128</v>
+      </c>
+      <c r="K144" t="n">
+        <v>7083.37</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:18:17</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:21:32</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>144</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>80</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J145" t="n">
+        <v>128</v>
+      </c>
+      <c r="K145" t="n">
+        <v>6926.54</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:30:20</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:33:34</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>144</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>80</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J146" t="n">
+        <v>128</v>
+      </c>
+      <c r="K146" t="n">
+        <v>7201.37</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:33:57</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:37:22</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>144</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>96</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J147" t="n">
+        <v>128</v>
+      </c>
+      <c r="K147" t="n">
+        <v>7180.32</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:37:57</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:41:14</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>160</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G148" t="n">
+        <v>96</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J148" t="n">
+        <v>128</v>
+      </c>
+      <c r="K148" t="n">
+        <v>7256.47</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:41:45</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:45:02</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>144</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G149" t="n">
+        <v>96</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J149" t="n">
+        <v>128</v>
+      </c>
+      <c r="K149" t="n">
+        <v>6838.75</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:50:41</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-02-14 17:53:51</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>144</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>96</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J150" t="n">
+        <v>128</v>
+      </c>
+      <c r="K150" t="n">
+        <v>7278.29</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-02-14 18:02:35</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-02-14 18:05:54</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>144</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>96</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J151" t="n">
+        <v>128</v>
+      </c>
+      <c r="K151" t="n">
+        <v>7254.93</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-02-14 18:40:33</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-02-14 18:44:15</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>144</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>96</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J152" t="n">
+        <v>128</v>
+      </c>
+      <c r="K152" t="n">
+        <v>7123.93</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-02-14 18:59:22</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-02-14 19:03:15</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>144</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G153" t="n">
+        <v>96</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J153" t="n">
+        <v>128</v>
+      </c>
+      <c r="K153" t="n">
+        <v>7375.15</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6591,6 +6591,846 @@
       </c>
       <c r="L153" t="inlineStr"/>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-02-14 20:43:23</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-02-14 20:46:59</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>144</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>96</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J154" t="n">
+        <v>128</v>
+      </c>
+      <c r="K154" t="n">
+        <v>7309.98</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:24:48</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:28:21</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>144</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G155" t="n">
+        <v>96</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J155" t="n">
+        <v>128</v>
+      </c>
+      <c r="K155" t="n">
+        <v>7164.32</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:28:44</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:32:14</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>144</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>96</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J156" t="n">
+        <v>128</v>
+      </c>
+      <c r="K156" t="n">
+        <v>7134.79</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:32:58</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:36:28</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>144</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G157" t="n">
+        <v>96</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J157" t="n">
+        <v>128</v>
+      </c>
+      <c r="K157" t="n">
+        <v>7897.66</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:38:11</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:41:20</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>144</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G158" t="n">
+        <v>96</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J158" t="n">
+        <v>128</v>
+      </c>
+      <c r="K158" t="n">
+        <v>7059.08</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:43:39</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:46:45</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>144</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>96</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J159" t="n">
+        <v>128</v>
+      </c>
+      <c r="K159" t="n">
+        <v>7073.25</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:47:38</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:50:43</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>128</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>80</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J160" t="n">
+        <v>128</v>
+      </c>
+      <c r="K160" t="n">
+        <v>6896.23</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-02-15 14:59:14</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:02:17</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>128</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G161" t="n">
+        <v>80</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J161" t="n">
+        <v>128</v>
+      </c>
+      <c r="K161" t="n">
+        <v>7032.51</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:03:41</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:06:41</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>128</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G162" t="n">
+        <v>80</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J162" t="n">
+        <v>128</v>
+      </c>
+      <c r="K162" t="n">
+        <v>6967.56</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:07:32</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:10:34</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>144</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G163" t="n">
+        <v>80</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J163" t="n">
+        <v>128</v>
+      </c>
+      <c r="K163" t="n">
+        <v>6812.56</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:12:05</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:15:02</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>144</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G164" t="n">
+        <v>80</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J164" t="n">
+        <v>128</v>
+      </c>
+      <c r="K164" t="n">
+        <v>7084.84</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:15:45</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:21:43</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>144</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G165" t="n">
+        <v>80</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J165" t="n">
+        <v>128</v>
+      </c>
+      <c r="K165" t="n">
+        <v>8052.46</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:22:26</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:25:28</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>144</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>80</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J166" t="n">
+        <v>128</v>
+      </c>
+      <c r="K166" t="n">
+        <v>6655.5</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:26:46</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:29:49</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>144</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G167" t="n">
+        <v>80</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J167" t="n">
+        <v>128</v>
+      </c>
+      <c r="K167" t="n">
+        <v>7233.76</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:31:07</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:33:59</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>40</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>20</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J168" t="n">
+        <v>128</v>
+      </c>
+      <c r="K168" t="n">
+        <v>7636.15</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:34:35</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:37:28</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>80</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G169" t="n">
+        <v>40</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J169" t="n">
+        <v>128</v>
+      </c>
+      <c r="K169" t="n">
+        <v>7389.01</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:37:59</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:41:01</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>144</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>80</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J170" t="n">
+        <v>128</v>
+      </c>
+      <c r="K170" t="n">
+        <v>7314.63</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:44:10</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-02-15 15:47:14</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>144</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G171" t="n">
+        <v>80</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J171" t="n">
+        <v>128</v>
+      </c>
+      <c r="K171" t="n">
+        <v>7157.86</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:03:05</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:06:10</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>144</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>80</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J172" t="n">
+        <v>128</v>
+      </c>
+      <c r="K172" t="n">
+        <v>7277.03</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:22:57</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:23:47</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>144</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G173" t="n">
+        <v>80</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I173" t="n">
+        <v>500</v>
+      </c>
+      <c r="J173" t="n">
+        <v>128</v>
+      </c>
+      <c r="K173" t="n">
+        <v>7125.4</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:33:58</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-02-15 16:37:05</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>144</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G174" t="n">
+        <v>80</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J174" t="n">
+        <v>128</v>
+      </c>
+      <c r="K174" t="n">
+        <v>7033.62</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7431,6 +7431,86 @@
       </c>
       <c r="L174" t="inlineStr"/>
     </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-02-15 21:47:06</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-02-15 21:50:11</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>144</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>96</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J175" t="n">
+        <v>128</v>
+      </c>
+      <c r="K175" t="n">
+        <v>7383.6</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:59:02</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-02-15 23:02:22</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>144</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G176" t="n">
+        <v>80</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J176" t="n">
+        <v>128</v>
+      </c>
+      <c r="K176" t="n">
+        <v>7137.45</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>train_percentage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>time_steps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>d1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>d2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>epochs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rmse_lstm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -507,33 +512,36 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2" t="n">
         <v>40</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I2" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="n">
+        <v>128</v>
+      </c>
+      <c r="L2" t="n">
         <v>9371.43</v>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,33 +555,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>40</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I3" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J3" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="n">
+        <v>128</v>
+      </c>
+      <c r="L3" t="n">
         <v>9168.83</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,33 +598,36 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>64</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I4" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J4" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="n">
+        <v>128</v>
+      </c>
+      <c r="L4" t="n">
         <v>8096.08</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -627,33 +641,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="n">
+        <v>128</v>
+      </c>
+      <c r="L5" t="n">
         <v>8510.280000000001</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -667,33 +684,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>64</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I6" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J6" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="n">
+        <v>128</v>
+      </c>
+      <c r="L6" t="n">
         <v>9585.02</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -707,33 +727,36 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>64</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I7" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="n">
+        <v>128</v>
+      </c>
+      <c r="L7" t="n">
         <v>9047.379999999999</v>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,33 +770,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>64</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I8" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J8" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="n">
+        <v>128</v>
+      </c>
+      <c r="L8" t="n">
         <v>10707.58</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -787,33 +813,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>64</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I9" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J9" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="n">
+        <v>128</v>
+      </c>
+      <c r="L9" t="n">
         <v>8716.34</v>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -827,33 +856,36 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>64</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I10" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K10" t="n">
         <v>64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>10363.41</v>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -867,33 +899,36 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>64</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I11" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K11" t="n">
         <v>64</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>10243.98</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -907,33 +942,36 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>64</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I12" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K12" t="n">
         <v>256</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>8677.83</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -947,33 +985,36 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>64</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I13" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K13" t="n">
         <v>256</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>8428.879999999999</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -987,33 +1028,36 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>64</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I14" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K14" t="n">
         <v>256</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>8290.059999999999</v>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1027,33 +1071,36 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>64</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J15" t="n">
         <v>4000</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>256</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>9027.790000000001</v>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1067,33 +1114,36 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E16" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="n">
         <v>64</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I16" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K16" t="n">
         <v>256</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>9316.41</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1107,33 +1157,36 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E17" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>64</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I17" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K17" t="n">
         <v>256</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>8390.530000000001</v>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1147,33 +1200,36 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E18" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I18" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="n">
         <v>256</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>8173.37</v>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1187,33 +1243,36 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G19" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J19" t="n">
         <v>4000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>256</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>8904.42</v>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1227,33 +1286,36 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E20" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I20" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K20" t="n">
         <v>256</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>7977.17</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1267,33 +1329,36 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E21" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J21" t="n">
         <v>4000</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>256</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>11973.08</v>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1307,33 +1372,36 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E22" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G22" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J22" t="n">
         <v>4000</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>256</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>10186.92</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1347,33 +1415,36 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E23" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G23" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I23" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K23" t="n">
         <v>256</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>8462.889999999999</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1387,33 +1458,36 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I24" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K24" t="n">
         <v>256</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>9495.32</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1427,33 +1501,36 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G25" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I25" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K25" t="n">
         <v>256</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>7649.15</v>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1467,33 +1544,36 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E26" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I26" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K26" t="n">
         <v>256</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>8827.559999999999</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1507,33 +1587,36 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E27" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I27" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K27" t="n">
         <v>256</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>8642.290000000001</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1547,33 +1630,36 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E28" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>96</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I28" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K28" t="n">
         <v>256</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>7713.47</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1587,33 +1673,36 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E29" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>96</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I29" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K29" t="n">
         <v>256</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>8240.74</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1627,33 +1716,36 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E30" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>96</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I30" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K30" t="n">
         <v>256</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>10765.28</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1667,33 +1759,36 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E31" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>96</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I31" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K31" t="n">
         <v>256</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>8081.29</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1707,33 +1802,36 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>96</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I32" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K32" t="n">
         <v>256</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>9040.280000000001</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1747,33 +1845,36 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E33" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>96</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I33" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K33" t="n">
         <v>256</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>9617.610000000001</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>加入新特征</t>
         </is>
@@ -1791,33 +1892,36 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E34" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G34" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I34" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K34" t="n">
         <v>256</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>7885.71</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1831,33 +1935,36 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E35" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J35" t="n">
         <v>4000</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>256</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>10023.75</v>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1871,33 +1978,36 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E36" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J36" t="n">
         <v>8000</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>256</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>10257.21</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1911,33 +2021,36 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E37" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G37" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I37" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K37" t="n">
         <v>256</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>10404.84</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>只禁用基站数量</t>
         </is>
@@ -1955,33 +2068,36 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E38" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G38" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I38" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K38" t="n">
         <v>256</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>9202.549999999999</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>只禁用风速</t>
         </is>
@@ -1999,33 +2115,36 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E39" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G39" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I39" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K39" t="n">
         <v>256</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>9253.530000000001</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>禁用风速、基站数量</t>
         </is>
@@ -2043,33 +2162,36 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E40" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G40" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I40" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K40" t="n">
         <v>256</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>8343.51</v>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2083,33 +2205,36 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.8</v>
       </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
       <c r="E41" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I41" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K41" t="n">
         <v>256</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>9918.469999999999</v>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2123,33 +2248,36 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.8</v>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
       <c r="E42" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I42" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J42" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K42" t="n">
         <v>256</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>9355.440000000001</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2163,33 +2291,36 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.8</v>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
       <c r="E43" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G43" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I43" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J43" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K43" t="n">
+        <v>128</v>
+      </c>
+      <c r="L43" t="n">
         <v>10674.8</v>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2203,33 +2334,36 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.8</v>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
       <c r="E44" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G44" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I44" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J44" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K44" t="n">
+        <v>128</v>
+      </c>
+      <c r="L44" t="n">
         <v>9821.290000000001</v>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2243,33 +2377,36 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.8</v>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
       <c r="E45" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>64</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I45" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J45" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K45" t="n">
+        <v>128</v>
+      </c>
+      <c r="L45" t="n">
         <v>10079.68</v>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2283,33 +2420,36 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.8</v>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
       <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
         <v>160</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G46" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I46" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J46" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K46" t="n">
+        <v>128</v>
+      </c>
+      <c r="L46" t="n">
         <v>10528.08</v>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2323,33 +2463,36 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E47" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I47" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J47" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K47" t="n">
+        <v>128</v>
+      </c>
+      <c r="L47" t="n">
         <v>8636.34</v>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2363,33 +2506,36 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E48" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G48" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I48" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J48" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K48" t="n">
+        <v>128</v>
+      </c>
+      <c r="L48" t="n">
         <v>9408.15</v>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2403,33 +2549,36 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E49" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I49" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J49" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K49" t="n">
+        <v>128</v>
+      </c>
+      <c r="L49" t="n">
         <v>8800.700000000001</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2443,33 +2592,36 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E50" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G50" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I50" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J50" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K50" t="n">
+        <v>128</v>
+      </c>
+      <c r="L50" t="n">
         <v>9529.129999999999</v>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2483,33 +2635,36 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E51" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G51" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I51" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J51" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K51" t="n">
+        <v>128</v>
+      </c>
+      <c r="L51" t="n">
         <v>8045.31</v>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2523,33 +2678,36 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E52" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G52" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I52" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J52" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K52" t="n">
+        <v>128</v>
+      </c>
+      <c r="L52" t="n">
         <v>9573.6</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2563,33 +2721,36 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E53" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G53" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="I53" t="n">
-        <v>2000</v>
+        <v>0.4</v>
       </c>
       <c r="J53" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K53" t="n">
+        <v>128</v>
+      </c>
+      <c r="L53" t="n">
         <v>9979.59</v>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2603,33 +2764,36 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E54" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G54" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="I54" t="n">
-        <v>2000</v>
+        <v>0.4</v>
       </c>
       <c r="J54" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K54" t="n">
+        <v>128</v>
+      </c>
+      <c r="L54" t="n">
         <v>10763.55</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2643,33 +2807,36 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E55" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G55" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I55" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J55" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K55" t="n">
+        <v>128</v>
+      </c>
+      <c r="L55" t="n">
         <v>8818.27</v>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2683,33 +2850,36 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E56" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
+        <v>144</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.45</v>
       </c>
-      <c r="G56" t="n">
-        <v>80</v>
-      </c>
       <c r="H56" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I56" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J56" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K56" t="n">
+        <v>128</v>
+      </c>
+      <c r="L56" t="n">
         <v>8809.27</v>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2723,33 +2893,36 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E57" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
+        <v>144</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.45</v>
       </c>
-      <c r="G57" t="n">
-        <v>80</v>
-      </c>
       <c r="H57" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I57" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J57" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K57" t="n">
+        <v>128</v>
+      </c>
+      <c r="L57" t="n">
         <v>8762.809999999999</v>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2763,33 +2936,36 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E58" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
+        <v>144</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.45</v>
       </c>
-      <c r="G58" t="n">
-        <v>80</v>
-      </c>
       <c r="H58" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I58" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J58" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K58" t="n">
+        <v>128</v>
+      </c>
+      <c r="L58" t="n">
         <v>7651.39</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2803,33 +2979,36 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E59" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
+        <v>144</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.45</v>
       </c>
-      <c r="G59" t="n">
-        <v>80</v>
-      </c>
       <c r="H59" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I59" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J59" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K59" t="n">
+        <v>128</v>
+      </c>
+      <c r="L59" t="n">
         <v>9418.040000000001</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2843,33 +3022,36 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E60" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
+        <v>144</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.45</v>
       </c>
-      <c r="G60" t="n">
-        <v>80</v>
-      </c>
       <c r="H60" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I60" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J60" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K60" t="n">
+        <v>128</v>
+      </c>
+      <c r="L60" t="n">
         <v>8483.51</v>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2883,33 +3065,36 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.85</v>
       </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
       <c r="E61" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
+        <v>144</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.45</v>
       </c>
-      <c r="G61" t="n">
-        <v>80</v>
-      </c>
       <c r="H61" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I61" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J61" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K61" t="n">
+        <v>128</v>
+      </c>
+      <c r="L61" t="n">
         <v>10305.05</v>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2923,33 +3108,36 @@
         </is>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.85</v>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
       <c r="E62" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
+        <v>144</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.45</v>
       </c>
-      <c r="G62" t="n">
-        <v>80</v>
-      </c>
       <c r="H62" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I62" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J62" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K62" t="n">
+        <v>128</v>
+      </c>
+      <c r="L62" t="n">
         <v>9689.139999999999</v>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2963,33 +3151,36 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
         <v>0.8</v>
       </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
       <c r="E63" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
+        <v>144</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.45</v>
       </c>
-      <c r="G63" t="n">
-        <v>80</v>
-      </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I63" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J63" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K63" t="n">
+        <v>128</v>
+      </c>
+      <c r="L63" t="n">
         <v>11390.08</v>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3003,33 +3194,36 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E64" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
+        <v>144</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.45</v>
       </c>
-      <c r="G64" t="n">
-        <v>80</v>
-      </c>
       <c r="H64" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I64" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J64" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K64" t="n">
+        <v>128</v>
+      </c>
+      <c r="L64" t="n">
         <v>9010.469999999999</v>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3043,33 +3237,36 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E65" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
+        <v>144</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.45</v>
       </c>
-      <c r="G65" t="n">
-        <v>80</v>
-      </c>
       <c r="H65" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I65" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J65" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K65" t="n">
+        <v>128</v>
+      </c>
+      <c r="L65" t="n">
         <v>7734.95</v>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3083,33 +3280,36 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E66" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
+        <v>144</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.45</v>
       </c>
-      <c r="G66" t="n">
-        <v>80</v>
-      </c>
       <c r="H66" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I66" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J66" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K66" t="n">
+        <v>128</v>
+      </c>
+      <c r="L66" t="n">
         <v>9197.389999999999</v>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3123,33 +3323,36 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E67" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
+        <v>144</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.45</v>
       </c>
-      <c r="G67" t="n">
-        <v>80</v>
-      </c>
       <c r="H67" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I67" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J67" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K67" t="n">
+        <v>128</v>
+      </c>
+      <c r="L67" t="n">
         <v>9091.16</v>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3163,33 +3366,36 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E68" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
+        <v>144</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.45</v>
       </c>
-      <c r="G68" t="n">
-        <v>80</v>
-      </c>
       <c r="H68" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I68" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J68" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K68" t="n">
+        <v>128</v>
+      </c>
+      <c r="L68" t="n">
         <v>8555.280000000001</v>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3203,33 +3409,36 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E69" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
+        <v>144</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.45</v>
       </c>
-      <c r="G69" t="n">
-        <v>80</v>
-      </c>
       <c r="H69" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I69" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J69" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K69" t="n">
+        <v>128</v>
+      </c>
+      <c r="L69" t="n">
         <v>8392.969999999999</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3243,33 +3452,36 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E70" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
+        <v>144</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.45</v>
       </c>
-      <c r="G70" t="n">
-        <v>80</v>
-      </c>
       <c r="H70" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I70" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J70" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K70" t="n">
+        <v>128</v>
+      </c>
+      <c r="L70" t="n">
         <v>8964.110000000001</v>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3283,33 +3495,36 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E71" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
+        <v>144</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.45</v>
       </c>
-      <c r="G71" t="n">
-        <v>80</v>
-      </c>
       <c r="H71" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I71" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J71" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K71" t="n">
+        <v>128</v>
+      </c>
+      <c r="L71" t="n">
         <v>8952.02</v>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3323,33 +3538,36 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E72" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
+        <v>144</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.45</v>
       </c>
-      <c r="G72" t="n">
-        <v>80</v>
-      </c>
       <c r="H72" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I72" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J72" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K72" t="n">
+        <v>128</v>
+      </c>
+      <c r="L72" t="n">
         <v>8399.84</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3363,33 +3581,36 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E73" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
+        <v>144</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.45</v>
       </c>
-      <c r="G73" t="n">
-        <v>80</v>
-      </c>
       <c r="H73" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I73" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J73" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K73" t="n">
+        <v>128</v>
+      </c>
+      <c r="L73" t="n">
         <v>8235.219999999999</v>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3403,33 +3624,36 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E74" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
+        <v>144</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.45</v>
       </c>
-      <c r="G74" t="n">
-        <v>80</v>
-      </c>
       <c r="H74" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I74" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J74" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K74" t="n">
+        <v>128</v>
+      </c>
+      <c r="L74" t="n">
         <v>8872.139999999999</v>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3443,33 +3667,36 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E75" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
+        <v>144</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.45</v>
       </c>
-      <c r="G75" t="n">
-        <v>80</v>
-      </c>
       <c r="H75" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I75" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J75" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K75" t="n">
+        <v>128</v>
+      </c>
+      <c r="L75" t="n">
         <v>9254.99</v>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3483,33 +3710,36 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E76" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
+        <v>128</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.45</v>
       </c>
-      <c r="G76" t="n">
-        <v>80</v>
-      </c>
       <c r="H76" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I76" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J76" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K76" t="n">
+        <v>128</v>
+      </c>
+      <c r="L76" t="n">
         <v>9472.790000000001</v>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3523,33 +3753,36 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E77" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
+        <v>128</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.45</v>
       </c>
-      <c r="G77" t="n">
-        <v>80</v>
-      </c>
       <c r="H77" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I77" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J77" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K77" t="n">
+        <v>128</v>
+      </c>
+      <c r="L77" t="n">
         <v>9775.51</v>
       </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3563,33 +3796,36 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E78" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
+        <v>128</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.45</v>
       </c>
-      <c r="G78" t="n">
-        <v>80</v>
-      </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I78" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J78" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K78" t="n">
+        <v>128</v>
+      </c>
+      <c r="L78" t="n">
         <v>9315.799999999999</v>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3603,33 +3839,36 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E79" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
+        <v>128</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.45</v>
       </c>
-      <c r="G79" t="n">
-        <v>80</v>
-      </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I79" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J79" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K79" t="n">
+        <v>128</v>
+      </c>
+      <c r="L79" t="n">
         <v>8695.950000000001</v>
       </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3643,33 +3882,36 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E80" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
+        <v>128</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.45</v>
       </c>
-      <c r="G80" t="n">
-        <v>80</v>
-      </c>
       <c r="H80" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I80" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J80" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K80" t="n">
+        <v>128</v>
+      </c>
+      <c r="L80" t="n">
         <v>8470.27</v>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3683,33 +3925,36 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E81" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
+        <v>128</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.45</v>
       </c>
-      <c r="G81" t="n">
-        <v>80</v>
-      </c>
       <c r="H81" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I81" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J81" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K81" t="n">
+        <v>128</v>
+      </c>
+      <c r="L81" t="n">
         <v>9269.66</v>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3723,33 +3968,36 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E82" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
+        <v>128</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.45</v>
       </c>
-      <c r="G82" t="n">
-        <v>80</v>
-      </c>
       <c r="H82" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I82" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J82" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K82" t="n">
+        <v>128</v>
+      </c>
+      <c r="L82" t="n">
         <v>8270.9</v>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3763,33 +4011,36 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E83" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
+        <v>128</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.45</v>
       </c>
-      <c r="G83" t="n">
-        <v>80</v>
-      </c>
       <c r="H83" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I83" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J83" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K83" t="n">
+        <v>128</v>
+      </c>
+      <c r="L83" t="n">
         <v>8464.389999999999</v>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3803,33 +4054,36 @@
         </is>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>0.8</v>
       </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
       <c r="E84" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
+        <v>128</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.45</v>
       </c>
-      <c r="G84" t="n">
-        <v>80</v>
-      </c>
       <c r="H84" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I84" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J84" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K84" t="n">
+        <v>128</v>
+      </c>
+      <c r="L84" t="n">
         <v>10100.99</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3843,33 +4097,36 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>0.8</v>
       </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
       <c r="E85" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
+        <v>128</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.45</v>
       </c>
-      <c r="G85" t="n">
-        <v>80</v>
-      </c>
       <c r="H85" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I85" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J85" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K85" t="n">
+        <v>128</v>
+      </c>
+      <c r="L85" t="n">
         <v>10182.94</v>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3883,33 +4140,36 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
         <v>0.8</v>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
+        <v>128</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.45</v>
       </c>
-      <c r="G86" t="n">
-        <v>80</v>
-      </c>
       <c r="H86" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I86" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J86" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K86" t="n">
+        <v>128</v>
+      </c>
+      <c r="L86" t="n">
         <v>10724.72</v>
       </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3923,33 +4183,36 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E87" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G87" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I87" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J87" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K87" t="n">
+        <v>128</v>
+      </c>
+      <c r="L87" t="n">
         <v>9276.33</v>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3963,33 +4226,36 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E88" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G88" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
+        <v>80</v>
+      </c>
+      <c r="I88" t="n">
         <v>0.35</v>
       </c>
-      <c r="I88" t="n">
-        <v>2000</v>
-      </c>
       <c r="J88" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K88" t="n">
+        <v>128</v>
+      </c>
+      <c r="L88" t="n">
         <v>8219.110000000001</v>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4003,33 +4269,36 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E89" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G89" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
+        <v>80</v>
+      </c>
+      <c r="I89" t="n">
         <v>0.35</v>
       </c>
-      <c r="I89" t="n">
-        <v>2000</v>
-      </c>
       <c r="J89" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K89" t="n">
+        <v>128</v>
+      </c>
+      <c r="L89" t="n">
         <v>7278.92</v>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4043,33 +4312,36 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E90" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G90" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
+        <v>80</v>
+      </c>
+      <c r="I90" t="n">
         <v>0.35</v>
       </c>
-      <c r="I90" t="n">
-        <v>2000</v>
-      </c>
       <c r="J90" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K90" t="n">
+        <v>128</v>
+      </c>
+      <c r="L90" t="n">
         <v>7305.13</v>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4083,33 +4355,36 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E91" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G91" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
+        <v>80</v>
+      </c>
+      <c r="I91" t="n">
         <v>0.35</v>
       </c>
-      <c r="I91" t="n">
-        <v>2000</v>
-      </c>
       <c r="J91" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K91" t="n">
+        <v>128</v>
+      </c>
+      <c r="L91" t="n">
         <v>7286.45</v>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4123,33 +4398,36 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E92" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G92" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I92" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J92" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K92" t="n">
         <v>256</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>7211.75</v>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4163,33 +4441,36 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E93" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G93" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J93" t="n">
         <v>4000</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>256</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>7112.93</v>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4203,33 +4484,36 @@
         </is>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
         <v>0.8</v>
       </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
       <c r="E94" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G94" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J94" t="n">
         <v>4000</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>256</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>7037.54</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4243,33 +4527,36 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E95" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G95" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J95" t="n">
         <v>4000</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>256</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>7200.69</v>
       </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4283,33 +4570,36 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E96" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G96" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I96" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J96" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K96" t="n">
+        <v>128</v>
+      </c>
+      <c r="L96" t="n">
         <v>7398.42</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4323,33 +4613,36 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E97" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G97" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I97" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J97" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K97" t="n">
+        <v>128</v>
+      </c>
+      <c r="L97" t="n">
         <v>8290.870000000001</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4363,33 +4656,36 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E98" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G98" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I98" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J98" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K98" t="n">
+        <v>128</v>
+      </c>
+      <c r="L98" t="n">
         <v>7193.34</v>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4403,33 +4699,36 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E99" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G99" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I99" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J99" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K99" t="n">
+        <v>128</v>
+      </c>
+      <c r="L99" t="n">
         <v>7181.96</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4443,33 +4742,36 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E100" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>64</v>
       </c>
-      <c r="H100" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I100" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J100" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K100" t="n">
+        <v>128</v>
+      </c>
+      <c r="L100" t="n">
         <v>7181.39</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4483,33 +4785,36 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E101" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>40</v>
       </c>
-      <c r="H101" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I101" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J101" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K101" t="n">
+        <v>128</v>
+      </c>
+      <c r="L101" t="n">
         <v>7219.88</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4523,33 +4828,36 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E102" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H102" t="n">
         <v>40</v>
       </c>
-      <c r="H102" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I102" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J102" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K102" t="n">
+        <v>128</v>
+      </c>
+      <c r="L102" t="n">
         <v>7413.71</v>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4563,33 +4871,36 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
         <v>64</v>
       </c>
-      <c r="F103" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>32</v>
       </c>
-      <c r="H103" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I103" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J103" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K103" t="n">
         <v>64</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>7480.54</v>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4603,33 +4914,36 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
         <v>64</v>
       </c>
-      <c r="F104" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>32</v>
       </c>
-      <c r="H104" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I104" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K104" t="n">
         <v>32</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>7555.86</v>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4643,33 +4957,36 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E105" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>40</v>
       </c>
-      <c r="H105" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I105" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J105" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K105" t="n">
         <v>32</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>7432.63</v>
       </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4683,33 +5000,36 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E106" t="n">
         <v>7</v>
       </c>
-      <c r="E106" t="n">
-        <v>80</v>
-      </c>
       <c r="F106" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>40</v>
       </c>
-      <c r="H106" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I106" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J106" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K106" t="n">
         <v>32</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>8986.190000000001</v>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4723,33 +5043,36 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E107" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>40</v>
       </c>
-      <c r="H107" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I107" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J107" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K107" t="n">
         <v>64</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>7433.11</v>
       </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4763,33 +5086,36 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E108" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>40</v>
       </c>
-      <c r="H108" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I108" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K108" t="n">
         <v>64</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>7410.13</v>
       </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4803,33 +5129,36 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E109" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>40</v>
       </c>
-      <c r="H109" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I109" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J109" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K109" t="n">
+        <v>128</v>
+      </c>
+      <c r="L109" t="n">
         <v>7548.96</v>
       </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4843,33 +5172,36 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E110" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H110" t="n">
         <v>64</v>
       </c>
-      <c r="H110" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I110" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J110" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K110" t="n">
+        <v>128</v>
+      </c>
+      <c r="L110" t="n">
         <v>7190.54</v>
       </c>
-      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4883,33 +5215,36 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
         <v>100</v>
       </c>
-      <c r="F111" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H111" t="n">
         <v>64</v>
       </c>
-      <c r="H111" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I111" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J111" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K111" t="n">
+        <v>128</v>
+      </c>
+      <c r="L111" t="n">
         <v>7253.46</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4923,33 +5258,36 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
         <v>100</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>64</v>
       </c>
-      <c r="H112" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I112" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J112" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K112" t="n">
+        <v>128</v>
+      </c>
+      <c r="L112" t="n">
         <v>7385.4</v>
       </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4963,33 +5301,36 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
         <v>100</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H113" t="n">
         <v>50</v>
       </c>
-      <c r="H113" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I113" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J113" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K113" t="n">
+        <v>128</v>
+      </c>
+      <c r="L113" t="n">
         <v>7295.39</v>
       </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5003,33 +5344,36 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E114" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H114" t="n">
         <v>50</v>
       </c>
-      <c r="H114" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I114" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J114" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K114" t="n">
+        <v>128</v>
+      </c>
+      <c r="L114" t="n">
         <v>7264.31</v>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5043,33 +5387,36 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
         <v>100</v>
       </c>
-      <c r="F115" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>64</v>
       </c>
-      <c r="H115" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I115" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J115" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K115" t="n">
+        <v>128</v>
+      </c>
+      <c r="L115" t="n">
         <v>7289.13</v>
       </c>
-      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5083,33 +5430,36 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
         <v>100</v>
       </c>
-      <c r="F116" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>64</v>
       </c>
-      <c r="H116" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I116" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J116" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K116" t="n">
+        <v>128</v>
+      </c>
+      <c r="L116" t="n">
         <v>7456.98</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5123,33 +5473,36 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E117" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H117" t="n">
         <v>64</v>
       </c>
-      <c r="H117" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I117" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J117" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K117" t="n">
+        <v>128</v>
+      </c>
+      <c r="L117" t="n">
         <v>7375.49</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5163,33 +5516,36 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E118" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G118" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I118" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J118" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K118" t="n">
+        <v>128</v>
+      </c>
+      <c r="L118" t="n">
         <v>7184.42</v>
       </c>
-      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5203,33 +5559,36 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E119" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G119" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I119" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J119" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K119" t="n">
+        <v>128</v>
+      </c>
+      <c r="L119" t="n">
         <v>7185.34</v>
       </c>
-      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5243,33 +5602,36 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
         <v>100</v>
       </c>
-      <c r="F120" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G120" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I120" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J120" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K120" t="n">
+        <v>128</v>
+      </c>
+      <c r="L120" t="n">
         <v>7264.42</v>
       </c>
-      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5283,33 +5645,36 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
         <v>100</v>
       </c>
-      <c r="F121" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G121" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I121" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J121" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K121" t="n">
+        <v>128</v>
+      </c>
+      <c r="L121" t="n">
         <v>7168.22</v>
       </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5323,33 +5688,36 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
         <v>100</v>
       </c>
-      <c r="F122" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G122" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I122" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J122" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K122" t="n">
+        <v>128</v>
+      </c>
+      <c r="L122" t="n">
         <v>7264.62</v>
       </c>
-      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5363,33 +5731,36 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
         <v>100</v>
       </c>
-      <c r="F123" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G123" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I123" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J123" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K123" t="n">
+        <v>128</v>
+      </c>
+      <c r="L123" t="n">
         <v>7517.55</v>
       </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5403,33 +5774,36 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E124" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G124" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I124" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J124" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K124" t="n">
+        <v>128</v>
+      </c>
+      <c r="L124" t="n">
         <v>7649.88</v>
       </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5443,33 +5817,36 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E125" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G125" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I125" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J125" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K125" t="n">
+        <v>128</v>
+      </c>
+      <c r="L125" t="n">
         <v>7344.12</v>
       </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5483,33 +5860,36 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E126" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>64</v>
       </c>
-      <c r="H126" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I126" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J126" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K126" t="n">
+        <v>128</v>
+      </c>
+      <c r="L126" t="n">
         <v>7045.45</v>
       </c>
-      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5523,33 +5903,36 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E127" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>64</v>
       </c>
-      <c r="H127" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I127" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J127" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K127" t="n">
+        <v>128</v>
+      </c>
+      <c r="L127" t="n">
         <v>7172.81</v>
       </c>
-      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5563,33 +5946,36 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E128" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H128" t="n">
         <v>100</v>
       </c>
-      <c r="H128" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I128" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J128" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K128" t="n">
+        <v>128</v>
+      </c>
+      <c r="L128" t="n">
         <v>7157.6</v>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5603,33 +5989,36 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
         <v>256</v>
       </c>
-      <c r="F129" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G129" t="n">
-        <v>128</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3</v>
+        <v>128</v>
       </c>
       <c r="I129" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J129" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K129" t="n">
+        <v>128</v>
+      </c>
+      <c r="L129" t="n">
         <v>7190.69</v>
       </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5643,33 +6032,36 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
         <v>256</v>
       </c>
-      <c r="F130" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G130" t="n">
-        <v>128</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3</v>
+        <v>128</v>
       </c>
       <c r="I130" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J130" t="n">
         <v>4000</v>
       </c>
-      <c r="J130" t="n">
-        <v>128</v>
-      </c>
       <c r="K130" t="n">
+        <v>128</v>
+      </c>
+      <c r="L130" t="n">
         <v>7165.23</v>
       </c>
-      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5683,33 +6075,36 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E131" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G131" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I131" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J131" t="n">
         <v>4000</v>
       </c>
-      <c r="J131" t="n">
-        <v>128</v>
-      </c>
       <c r="K131" t="n">
+        <v>128</v>
+      </c>
+      <c r="L131" t="n">
         <v>7021.29</v>
       </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5723,33 +6118,36 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E132" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G132" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I132" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J132" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K132" t="n">
         <v>256</v>
       </c>
-      <c r="K132" t="n">
+      <c r="L132" t="n">
         <v>7129.77</v>
       </c>
-      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5763,33 +6161,36 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E133" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G133" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I133" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K133" t="n">
         <v>64</v>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>7101.02</v>
       </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5803,33 +6204,36 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E134" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G134" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I134" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J134" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K134" t="n">
         <v>32</v>
       </c>
-      <c r="K134" t="n">
+      <c r="L134" t="n">
         <v>7264.27</v>
       </c>
-      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5843,33 +6247,36 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E135" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G135" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I135" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J135" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K135" t="n">
+        <v>128</v>
+      </c>
+      <c r="L135" t="n">
         <v>7181.55</v>
       </c>
-      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5883,33 +6290,36 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E136" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G136" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I136" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J136" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K136" t="n">
+        <v>128</v>
+      </c>
+      <c r="L136" t="n">
         <v>7105.14</v>
       </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5923,33 +6333,36 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E137" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G137" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I137" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J137" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K137" t="n">
+        <v>128</v>
+      </c>
+      <c r="L137" t="n">
         <v>7133.22</v>
       </c>
-      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5963,33 +6376,36 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E138" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G138" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I138" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J138" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K138" t="n">
+        <v>128</v>
+      </c>
+      <c r="L138" t="n">
         <v>7135.06</v>
       </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6003,33 +6419,36 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E139" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G139" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I139" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J139" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K139" t="n">
+        <v>128</v>
+      </c>
+      <c r="L139" t="n">
         <v>7054.69</v>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6043,33 +6462,36 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E140" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G140" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I140" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J140" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K140" t="n">
+        <v>128</v>
+      </c>
+      <c r="L140" t="n">
         <v>7212.99</v>
       </c>
-      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6083,33 +6505,36 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E141" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G141" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I141" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J141" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K141" t="n">
+        <v>128</v>
+      </c>
+      <c r="L141" t="n">
         <v>7049.61</v>
       </c>
-      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6123,33 +6548,36 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E142" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G142" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I142" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J142" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K142" t="n">
+        <v>128</v>
+      </c>
+      <c r="L142" t="n">
         <v>7130.96</v>
       </c>
-      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6163,33 +6591,36 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E143" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G143" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I143" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J143" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K143" t="n">
+        <v>128</v>
+      </c>
+      <c r="L143" t="n">
         <v>7167.63</v>
       </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6203,33 +6634,36 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E144" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G144" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I144" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J144" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K144" t="n">
+        <v>128</v>
+      </c>
+      <c r="L144" t="n">
         <v>7083.37</v>
       </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6243,33 +6677,36 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E145" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G145" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I145" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J145" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K145" t="n">
+        <v>128</v>
+      </c>
+      <c r="L145" t="n">
         <v>6926.54</v>
       </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6283,33 +6720,36 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E146" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G146" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I146" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J146" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K146" t="n">
+        <v>128</v>
+      </c>
+      <c r="L146" t="n">
         <v>7201.37</v>
       </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6323,33 +6763,36 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E147" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H147" t="n">
         <v>96</v>
       </c>
-      <c r="H147" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I147" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J147" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K147" t="n">
+        <v>128</v>
+      </c>
+      <c r="L147" t="n">
         <v>7180.32</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6363,33 +6806,36 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
         <v>160</v>
       </c>
-      <c r="F148" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G148" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H148" t="n">
         <v>96</v>
       </c>
-      <c r="H148" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I148" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J148" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K148" t="n">
+        <v>128</v>
+      </c>
+      <c r="L148" t="n">
         <v>7256.47</v>
       </c>
-      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6403,33 +6849,36 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E149" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>96</v>
       </c>
-      <c r="H149" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I149" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J149" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K149" t="n">
+        <v>128</v>
+      </c>
+      <c r="L149" t="n">
         <v>6838.75</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6443,33 +6892,36 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E150" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H150" t="n">
         <v>96</v>
       </c>
-      <c r="H150" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I150" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J150" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K150" t="n">
+        <v>128</v>
+      </c>
+      <c r="L150" t="n">
         <v>7278.29</v>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6483,33 +6935,36 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E151" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H151" t="n">
         <v>96</v>
       </c>
-      <c r="H151" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I151" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J151" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K151" t="n">
+        <v>128</v>
+      </c>
+      <c r="L151" t="n">
         <v>7254.93</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6523,33 +6978,36 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E152" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>96</v>
       </c>
-      <c r="H152" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I152" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J152" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K152" t="n">
+        <v>128</v>
+      </c>
+      <c r="L152" t="n">
         <v>7123.93</v>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6563,33 +7021,36 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E153" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>96</v>
       </c>
-      <c r="H153" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I153" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J153" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K153" t="n">
+        <v>128</v>
+      </c>
+      <c r="L153" t="n">
         <v>7375.15</v>
       </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6603,33 +7064,36 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E154" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>96</v>
       </c>
-      <c r="H154" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I154" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J154" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K154" t="n">
+        <v>128</v>
+      </c>
+      <c r="L154" t="n">
         <v>7309.98</v>
       </c>
-      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6643,33 +7107,36 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E155" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H155" t="n">
         <v>96</v>
       </c>
-      <c r="H155" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I155" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J155" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K155" t="n">
+        <v>128</v>
+      </c>
+      <c r="L155" t="n">
         <v>7164.32</v>
       </c>
-      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6683,33 +7150,36 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E156" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>96</v>
       </c>
-      <c r="H156" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I156" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J156" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K156" t="n">
+        <v>128</v>
+      </c>
+      <c r="L156" t="n">
         <v>7134.79</v>
       </c>
-      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6723,33 +7193,36 @@
         </is>
       </c>
       <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
         <v>0.95</v>
       </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
       <c r="E157" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H157" t="n">
         <v>96</v>
       </c>
-      <c r="H157" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I157" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J157" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K157" t="n">
+        <v>128</v>
+      </c>
+      <c r="L157" t="n">
         <v>7897.66</v>
       </c>
-      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6763,33 +7236,36 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E158" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H158" t="n">
         <v>96</v>
       </c>
-      <c r="H158" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I158" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J158" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K158" t="n">
+        <v>128</v>
+      </c>
+      <c r="L158" t="n">
         <v>7059.08</v>
       </c>
-      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6803,33 +7279,36 @@
         </is>
       </c>
       <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
         <v>0.8</v>
       </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
       <c r="E159" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H159" t="n">
         <v>96</v>
       </c>
-      <c r="H159" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I159" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J159" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K159" t="n">
+        <v>128</v>
+      </c>
+      <c r="L159" t="n">
         <v>7073.25</v>
       </c>
-      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6843,33 +7322,36 @@
         </is>
       </c>
       <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
         <v>0.8</v>
       </c>
-      <c r="D160" t="n">
-        <v>1</v>
-      </c>
       <c r="E160" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G160" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I160" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J160" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K160" t="n">
+        <v>128</v>
+      </c>
+      <c r="L160" t="n">
         <v>6896.23</v>
       </c>
-      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6883,33 +7365,36 @@
         </is>
       </c>
       <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
         <v>0.8</v>
       </c>
-      <c r="D161" t="n">
-        <v>1</v>
-      </c>
       <c r="E161" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G161" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I161" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J161" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K161" t="n">
+        <v>128</v>
+      </c>
+      <c r="L161" t="n">
         <v>7032.51</v>
       </c>
-      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6923,33 +7408,36 @@
         </is>
       </c>
       <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
         <v>0.8</v>
       </c>
-      <c r="D162" t="n">
-        <v>1</v>
-      </c>
       <c r="E162" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4</v>
+        <v>128</v>
       </c>
       <c r="G162" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I162" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J162" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K162" t="n">
+        <v>128</v>
+      </c>
+      <c r="L162" t="n">
         <v>6967.56</v>
       </c>
-      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6963,33 +7451,36 @@
         </is>
       </c>
       <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
         <v>0.8</v>
       </c>
-      <c r="D163" t="n">
-        <v>1</v>
-      </c>
       <c r="E163" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G163" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I163" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J163" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K163" t="n">
+        <v>128</v>
+      </c>
+      <c r="L163" t="n">
         <v>6812.56</v>
       </c>
-      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7003,33 +7494,36 @@
         </is>
       </c>
       <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
         <v>0.8</v>
       </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
       <c r="E164" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G164" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I164" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J164" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K164" t="n">
+        <v>128</v>
+      </c>
+      <c r="L164" t="n">
         <v>7084.84</v>
       </c>
-      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7043,33 +7537,36 @@
         </is>
       </c>
       <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
         <v>0.8</v>
       </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
       <c r="E165" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G165" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I165" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J165" t="n">
         <v>4000</v>
       </c>
-      <c r="J165" t="n">
-        <v>128</v>
-      </c>
       <c r="K165" t="n">
+        <v>128</v>
+      </c>
+      <c r="L165" t="n">
         <v>8052.46</v>
       </c>
-      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7083,33 +7580,36 @@
         </is>
       </c>
       <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>0.8</v>
       </c>
-      <c r="D166" t="n">
-        <v>1</v>
-      </c>
       <c r="E166" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G166" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I166" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J166" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K166" t="n">
+        <v>128</v>
+      </c>
+      <c r="L166" t="n">
         <v>6655.5</v>
       </c>
-      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7123,33 +7623,36 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E167" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G167" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I167" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J167" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K167" t="n">
+        <v>128</v>
+      </c>
+      <c r="L167" t="n">
         <v>7233.76</v>
       </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7163,33 +7666,36 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
         <v>40</v>
       </c>
-      <c r="F168" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H168" t="n">
         <v>20</v>
       </c>
-      <c r="H168" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I168" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J168" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K168" t="n">
+        <v>128</v>
+      </c>
+      <c r="L168" t="n">
         <v>7636.15</v>
       </c>
-      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7203,33 +7709,36 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E169" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H169" t="n">
         <v>40</v>
       </c>
-      <c r="H169" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I169" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J169" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K169" t="n">
+        <v>128</v>
+      </c>
+      <c r="L169" t="n">
         <v>7389.01</v>
       </c>
-      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7243,33 +7752,36 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E170" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G170" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I170" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J170" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K170" t="n">
+        <v>128</v>
+      </c>
+      <c r="L170" t="n">
         <v>7314.63</v>
       </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7283,33 +7795,36 @@
         </is>
       </c>
       <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
         <v>0.8</v>
       </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
       <c r="E171" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G171" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I171" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J171" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K171" t="n">
+        <v>128</v>
+      </c>
+      <c r="L171" t="n">
         <v>7157.86</v>
       </c>
-      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7323,33 +7838,36 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E172" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G172" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H172" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I172" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J172" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K172" t="n">
+        <v>128</v>
+      </c>
+      <c r="L172" t="n">
         <v>7277.03</v>
       </c>
-      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7363,33 +7881,36 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E173" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G173" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I173" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J173" t="n">
         <v>500</v>
       </c>
-      <c r="J173" t="n">
-        <v>128</v>
-      </c>
       <c r="K173" t="n">
+        <v>128</v>
+      </c>
+      <c r="L173" t="n">
         <v>7125.4</v>
       </c>
-      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7403,33 +7924,36 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E174" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G174" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I174" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J174" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K174" t="n">
+        <v>128</v>
+      </c>
+      <c r="L174" t="n">
         <v>7033.62</v>
       </c>
-      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7443,33 +7967,36 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E175" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>96</v>
       </c>
-      <c r="H175" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I175" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J175" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K175" t="n">
+        <v>128</v>
+      </c>
+      <c r="L175" t="n">
         <v>7383.6</v>
       </c>
-      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7483,33 +8010,251 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E176" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4</v>
+        <v>144</v>
       </c>
       <c r="G176" t="n">
-        <v>80</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="I176" t="n">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="J176" t="n">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="K176" t="n">
+        <v>128</v>
+      </c>
+      <c r="L176" t="n">
         <v>7137.45</v>
       </c>
-      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-02-16 17:12:17</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-02-16 17:15:28</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>144</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H177" t="n">
+        <v>80</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K177" t="n">
+        <v>128</v>
+      </c>
+      <c r="L177" t="n">
+        <v>7139.19</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:39:36</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:40:51</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>144</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>80</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>800</v>
+      </c>
+      <c r="K178" t="n">
+        <v>128</v>
+      </c>
+      <c r="L178" t="n">
+        <v>7134.92</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:40:52</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:42:08</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>144</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H179" t="n">
+        <v>80</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>800</v>
+      </c>
+      <c r="K179" t="n">
+        <v>128</v>
+      </c>
+      <c r="L179" t="n">
+        <v>7072.61</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:48:35</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:49:51</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>144</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H180" t="n">
+        <v>80</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>800</v>
+      </c>
+      <c r="K180" t="n">
+        <v>128</v>
+      </c>
+      <c r="L180" t="n">
+        <v>7363.65</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:49:52</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:51:07</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>144</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>80</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>800</v>
+      </c>
+      <c r="K181" t="n">
+        <v>128</v>
+      </c>
+      <c r="L181" t="n">
+        <v>7068.26</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>min_val_loss</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>备注</t>
         </is>
       </c>
@@ -542,6 +547,7 @@
         <v>9371.43</v>
       </c>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +591,7 @@
         <v>9168.83</v>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +635,7 @@
         <v>8096.08</v>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -671,6 +679,7 @@
         <v>8510.280000000001</v>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +723,7 @@
         <v>9585.02</v>
       </c>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -757,6 +767,7 @@
         <v>9047.379999999999</v>
       </c>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -800,6 +811,7 @@
         <v>10707.58</v>
       </c>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +855,7 @@
         <v>8716.34</v>
       </c>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,6 +899,7 @@
         <v>10363.41</v>
       </c>
       <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,6 +943,7 @@
         <v>10243.98</v>
       </c>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -972,6 +987,7 @@
         <v>8677.83</v>
       </c>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1015,6 +1031,7 @@
         <v>8428.879999999999</v>
       </c>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1058,6 +1075,7 @@
         <v>8290.059999999999</v>
       </c>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,6 +1119,7 @@
         <v>9027.790000000001</v>
       </c>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1144,6 +1163,7 @@
         <v>9316.41</v>
       </c>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1187,6 +1207,7 @@
         <v>8390.530000000001</v>
       </c>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1230,6 +1251,7 @@
         <v>8173.37</v>
       </c>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1273,6 +1295,7 @@
         <v>8904.42</v>
       </c>
       <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1316,6 +1339,7 @@
         <v>7977.17</v>
       </c>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1359,6 +1383,7 @@
         <v>11973.08</v>
       </c>
       <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1402,6 +1427,7 @@
         <v>10186.92</v>
       </c>
       <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1445,6 +1471,7 @@
         <v>8462.889999999999</v>
       </c>
       <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1488,6 +1515,7 @@
         <v>9495.32</v>
       </c>
       <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1531,6 +1559,7 @@
         <v>7649.15</v>
       </c>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1574,6 +1603,7 @@
         <v>8827.559999999999</v>
       </c>
       <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1617,6 +1647,7 @@
         <v>8642.290000000001</v>
       </c>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1660,6 +1691,7 @@
         <v>7713.47</v>
       </c>
       <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1703,6 +1735,7 @@
         <v>8240.74</v>
       </c>
       <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1746,6 +1779,7 @@
         <v>10765.28</v>
       </c>
       <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1789,6 +1823,7 @@
         <v>8081.29</v>
       </c>
       <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1832,6 +1867,7 @@
         <v>9040.280000000001</v>
       </c>
       <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1874,7 +1910,8 @@
       <c r="L33" t="n">
         <v>9617.610000000001</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t>加入新特征</t>
         </is>
@@ -1922,6 +1959,7 @@
         <v>7885.71</v>
       </c>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1965,6 +2003,7 @@
         <v>10023.75</v>
       </c>
       <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2008,6 +2047,7 @@
         <v>10257.21</v>
       </c>
       <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2050,7 +2090,8 @@
       <c r="L37" t="n">
         <v>10404.84</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>只禁用基站数量</t>
         </is>
@@ -2097,7 +2138,8 @@
       <c r="L38" t="n">
         <v>9202.549999999999</v>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
         <is>
           <t>只禁用风速</t>
         </is>
@@ -2144,7 +2186,8 @@
       <c r="L39" t="n">
         <v>9253.530000000001</v>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
         <is>
           <t>禁用风速、基站数量</t>
         </is>
@@ -2192,6 +2235,7 @@
         <v>8343.51</v>
       </c>
       <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2235,6 +2279,7 @@
         <v>9918.469999999999</v>
       </c>
       <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2278,6 +2323,7 @@
         <v>9355.440000000001</v>
       </c>
       <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2321,6 +2367,7 @@
         <v>10674.8</v>
       </c>
       <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2364,6 +2411,7 @@
         <v>9821.290000000001</v>
       </c>
       <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2407,6 +2455,7 @@
         <v>10079.68</v>
       </c>
       <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2450,6 +2499,7 @@
         <v>10528.08</v>
       </c>
       <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2493,6 +2543,7 @@
         <v>8636.34</v>
       </c>
       <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2536,6 +2587,7 @@
         <v>9408.15</v>
       </c>
       <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2579,6 +2631,7 @@
         <v>8800.700000000001</v>
       </c>
       <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2622,6 +2675,7 @@
         <v>9529.129999999999</v>
       </c>
       <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2665,6 +2719,7 @@
         <v>8045.31</v>
       </c>
       <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2708,6 +2763,7 @@
         <v>9573.6</v>
       </c>
       <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2751,6 +2807,7 @@
         <v>9979.59</v>
       </c>
       <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2794,6 +2851,7 @@
         <v>10763.55</v>
       </c>
       <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2837,6 +2895,7 @@
         <v>8818.27</v>
       </c>
       <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2880,6 +2939,7 @@
         <v>8809.27</v>
       </c>
       <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2923,6 +2983,7 @@
         <v>8762.809999999999</v>
       </c>
       <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2966,6 +3027,7 @@
         <v>7651.39</v>
       </c>
       <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3009,6 +3071,7 @@
         <v>9418.040000000001</v>
       </c>
       <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3052,6 +3115,7 @@
         <v>8483.51</v>
       </c>
       <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3095,6 +3159,7 @@
         <v>10305.05</v>
       </c>
       <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3138,6 +3203,7 @@
         <v>9689.139999999999</v>
       </c>
       <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3181,6 +3247,7 @@
         <v>11390.08</v>
       </c>
       <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3224,6 +3291,7 @@
         <v>9010.469999999999</v>
       </c>
       <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3267,6 +3335,7 @@
         <v>7734.95</v>
       </c>
       <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3310,6 +3379,7 @@
         <v>9197.389999999999</v>
       </c>
       <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3353,6 +3423,7 @@
         <v>9091.16</v>
       </c>
       <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3396,6 +3467,7 @@
         <v>8555.280000000001</v>
       </c>
       <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3439,6 +3511,7 @@
         <v>8392.969999999999</v>
       </c>
       <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3482,6 +3555,7 @@
         <v>8964.110000000001</v>
       </c>
       <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3525,6 +3599,7 @@
         <v>8952.02</v>
       </c>
       <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3568,6 +3643,7 @@
         <v>8399.84</v>
       </c>
       <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3611,6 +3687,7 @@
         <v>8235.219999999999</v>
       </c>
       <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3654,6 +3731,7 @@
         <v>8872.139999999999</v>
       </c>
       <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3697,6 +3775,7 @@
         <v>9254.99</v>
       </c>
       <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3740,6 +3819,7 @@
         <v>9472.790000000001</v>
       </c>
       <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3783,6 +3863,7 @@
         <v>9775.51</v>
       </c>
       <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3826,6 +3907,7 @@
         <v>9315.799999999999</v>
       </c>
       <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3869,6 +3951,7 @@
         <v>8695.950000000001</v>
       </c>
       <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3912,6 +3995,7 @@
         <v>8470.27</v>
       </c>
       <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3955,6 +4039,7 @@
         <v>9269.66</v>
       </c>
       <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3998,6 +4083,7 @@
         <v>8270.9</v>
       </c>
       <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4041,6 +4127,7 @@
         <v>8464.389999999999</v>
       </c>
       <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4084,6 +4171,7 @@
         <v>10100.99</v>
       </c>
       <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4127,6 +4215,7 @@
         <v>10182.94</v>
       </c>
       <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4170,6 +4259,7 @@
         <v>10724.72</v>
       </c>
       <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4213,6 +4303,7 @@
         <v>9276.33</v>
       </c>
       <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4256,6 +4347,7 @@
         <v>8219.110000000001</v>
       </c>
       <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4299,6 +4391,7 @@
         <v>7278.92</v>
       </c>
       <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4342,6 +4435,7 @@
         <v>7305.13</v>
       </c>
       <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4385,6 +4479,7 @@
         <v>7286.45</v>
       </c>
       <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4428,6 +4523,7 @@
         <v>7211.75</v>
       </c>
       <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4471,6 +4567,7 @@
         <v>7112.93</v>
       </c>
       <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4514,6 +4611,7 @@
         <v>7037.54</v>
       </c>
       <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4557,6 +4655,7 @@
         <v>7200.69</v>
       </c>
       <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4600,6 +4699,7 @@
         <v>7398.42</v>
       </c>
       <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4643,6 +4743,7 @@
         <v>8290.870000000001</v>
       </c>
       <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4686,6 +4787,7 @@
         <v>7193.34</v>
       </c>
       <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4729,6 +4831,7 @@
         <v>7181.96</v>
       </c>
       <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4772,6 +4875,7 @@
         <v>7181.39</v>
       </c>
       <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4815,6 +4919,7 @@
         <v>7219.88</v>
       </c>
       <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4858,6 +4963,7 @@
         <v>7413.71</v>
       </c>
       <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4901,6 +5007,7 @@
         <v>7480.54</v>
       </c>
       <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4944,6 +5051,7 @@
         <v>7555.86</v>
       </c>
       <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4987,6 +5095,7 @@
         <v>7432.63</v>
       </c>
       <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5030,6 +5139,7 @@
         <v>8986.190000000001</v>
       </c>
       <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5073,6 +5183,7 @@
         <v>7433.11</v>
       </c>
       <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5116,6 +5227,7 @@
         <v>7410.13</v>
       </c>
       <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5159,6 +5271,7 @@
         <v>7548.96</v>
       </c>
       <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5202,6 +5315,7 @@
         <v>7190.54</v>
       </c>
       <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5245,6 +5359,7 @@
         <v>7253.46</v>
       </c>
       <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5288,6 +5403,7 @@
         <v>7385.4</v>
       </c>
       <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5331,6 +5447,7 @@
         <v>7295.39</v>
       </c>
       <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5374,6 +5491,7 @@
         <v>7264.31</v>
       </c>
       <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5417,6 +5535,7 @@
         <v>7289.13</v>
       </c>
       <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5460,6 +5579,7 @@
         <v>7456.98</v>
       </c>
       <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5503,6 +5623,7 @@
         <v>7375.49</v>
       </c>
       <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5546,6 +5667,7 @@
         <v>7184.42</v>
       </c>
       <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5589,6 +5711,7 @@
         <v>7185.34</v>
       </c>
       <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5632,6 +5755,7 @@
         <v>7264.42</v>
       </c>
       <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5675,6 +5799,7 @@
         <v>7168.22</v>
       </c>
       <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5718,6 +5843,7 @@
         <v>7264.62</v>
       </c>
       <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5761,6 +5887,7 @@
         <v>7517.55</v>
       </c>
       <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5804,6 +5931,7 @@
         <v>7649.88</v>
       </c>
       <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5847,6 +5975,7 @@
         <v>7344.12</v>
       </c>
       <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5890,6 +6019,7 @@
         <v>7045.45</v>
       </c>
       <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5933,6 +6063,7 @@
         <v>7172.81</v>
       </c>
       <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5976,6 +6107,7 @@
         <v>7157.6</v>
       </c>
       <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6019,6 +6151,7 @@
         <v>7190.69</v>
       </c>
       <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6062,6 +6195,7 @@
         <v>7165.23</v>
       </c>
       <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6105,6 +6239,7 @@
         <v>7021.29</v>
       </c>
       <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6148,6 +6283,7 @@
         <v>7129.77</v>
       </c>
       <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6191,6 +6327,7 @@
         <v>7101.02</v>
       </c>
       <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6234,6 +6371,7 @@
         <v>7264.27</v>
       </c>
       <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6277,6 +6415,7 @@
         <v>7181.55</v>
       </c>
       <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6320,6 +6459,7 @@
         <v>7105.14</v>
       </c>
       <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6363,6 +6503,7 @@
         <v>7133.22</v>
       </c>
       <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6406,6 +6547,7 @@
         <v>7135.06</v>
       </c>
       <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6449,6 +6591,7 @@
         <v>7054.69</v>
       </c>
       <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6492,6 +6635,7 @@
         <v>7212.99</v>
       </c>
       <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6535,6 +6679,7 @@
         <v>7049.61</v>
       </c>
       <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6578,6 +6723,7 @@
         <v>7130.96</v>
       </c>
       <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6621,6 +6767,7 @@
         <v>7167.63</v>
       </c>
       <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6664,6 +6811,7 @@
         <v>7083.37</v>
       </c>
       <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6707,6 +6855,7 @@
         <v>6926.54</v>
       </c>
       <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6750,6 +6899,7 @@
         <v>7201.37</v>
       </c>
       <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6793,6 +6943,7 @@
         <v>7180.32</v>
       </c>
       <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6836,6 +6987,7 @@
         <v>7256.47</v>
       </c>
       <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6879,6 +7031,7 @@
         <v>6838.75</v>
       </c>
       <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6922,6 +7075,7 @@
         <v>7278.29</v>
       </c>
       <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6965,6 +7119,7 @@
         <v>7254.93</v>
       </c>
       <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7008,6 +7163,7 @@
         <v>7123.93</v>
       </c>
       <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7051,6 +7207,7 @@
         <v>7375.15</v>
       </c>
       <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7094,6 +7251,7 @@
         <v>7309.98</v>
       </c>
       <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7137,6 +7295,7 @@
         <v>7164.32</v>
       </c>
       <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7180,6 +7339,7 @@
         <v>7134.79</v>
       </c>
       <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7223,6 +7383,7 @@
         <v>7897.66</v>
       </c>
       <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7266,6 +7427,7 @@
         <v>7059.08</v>
       </c>
       <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7309,6 +7471,7 @@
         <v>7073.25</v>
       </c>
       <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7352,6 +7515,7 @@
         <v>6896.23</v>
       </c>
       <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7395,6 +7559,7 @@
         <v>7032.51</v>
       </c>
       <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7438,6 +7603,7 @@
         <v>6967.56</v>
       </c>
       <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7481,6 +7647,7 @@
         <v>6812.56</v>
       </c>
       <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7524,6 +7691,7 @@
         <v>7084.84</v>
       </c>
       <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7567,6 +7735,7 @@
         <v>8052.46</v>
       </c>
       <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7610,6 +7779,7 @@
         <v>6655.5</v>
       </c>
       <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7653,6 +7823,7 @@
         <v>7233.76</v>
       </c>
       <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7696,6 +7867,7 @@
         <v>7636.15</v>
       </c>
       <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7739,6 +7911,7 @@
         <v>7389.01</v>
       </c>
       <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7782,6 +7955,7 @@
         <v>7314.63</v>
       </c>
       <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7825,6 +7999,7 @@
         <v>7157.86</v>
       </c>
       <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7868,6 +8043,7 @@
         <v>7277.03</v>
       </c>
       <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7911,6 +8087,7 @@
         <v>7125.4</v>
       </c>
       <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7954,6 +8131,7 @@
         <v>7033.62</v>
       </c>
       <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7997,6 +8175,7 @@
         <v>7383.6</v>
       </c>
       <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8040,6 +8219,7 @@
         <v>7137.45</v>
       </c>
       <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8083,6 +8263,7 @@
         <v>7139.19</v>
       </c>
       <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8126,6 +8307,7 @@
         <v>7134.92</v>
       </c>
       <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8169,6 +8351,7 @@
         <v>7072.61</v>
       </c>
       <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8212,6 +8395,7 @@
         <v>7363.65</v>
       </c>
       <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8255,6 +8439,979 @@
         <v>7068.26</v>
       </c>
       <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:55:11</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:57:37</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>144</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H182" t="n">
+        <v>80</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K182" t="n">
+        <v>128</v>
+      </c>
+      <c r="L182" t="n">
+        <v>7191.37</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-02-16 20:57:39</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:00:06</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>144</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H183" t="n">
+        <v>80</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K183" t="n">
+        <v>128</v>
+      </c>
+      <c r="L183" t="n">
+        <v>7063.97</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:00:07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:02:33</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>144</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H184" t="n">
+        <v>80</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K184" t="n">
+        <v>128</v>
+      </c>
+      <c r="L184" t="n">
+        <v>7246.78</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:02:35</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:04:58</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>144</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H185" t="n">
+        <v>80</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K185" t="n">
+        <v>128</v>
+      </c>
+      <c r="L185" t="n">
+        <v>7060.57</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:04:59</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:07:24</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>144</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H186" t="n">
+        <v>80</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K186" t="n">
+        <v>128</v>
+      </c>
+      <c r="L186" t="n">
+        <v>7214.81</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:07:25</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:09:48</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>144</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H187" t="n">
+        <v>80</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K187" t="n">
+        <v>128</v>
+      </c>
+      <c r="L187" t="n">
+        <v>7154.47</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:09:49</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:12:13</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>144</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H188" t="n">
+        <v>80</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K188" t="n">
+        <v>128</v>
+      </c>
+      <c r="L188" t="n">
+        <v>7303.91</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:12:14</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:14:40</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>144</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H189" t="n">
+        <v>80</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K189" t="n">
+        <v>128</v>
+      </c>
+      <c r="L189" t="n">
+        <v>7044.64</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:14:41</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:16:58</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>144</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H190" t="n">
+        <v>80</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K190" t="n">
+        <v>128</v>
+      </c>
+      <c r="L190" t="n">
+        <v>7156.68</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:16:59</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-02-16 21:19:09</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>144</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>80</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K191" t="n">
+        <v>128</v>
+      </c>
+      <c r="L191" t="n">
+        <v>7173.59</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:13:18</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:15:52</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>144</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>80</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K192" t="n">
+        <v>128</v>
+      </c>
+      <c r="L192" t="n">
+        <v>7203.98</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:15:54</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:18:17</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>144</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H193" t="n">
+        <v>80</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K193" t="n">
+        <v>128</v>
+      </c>
+      <c r="L193" t="n">
+        <v>7220.21</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:18:19</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:20:35</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>144</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H194" t="n">
+        <v>80</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K194" t="n">
+        <v>128</v>
+      </c>
+      <c r="L194" t="n">
+        <v>7252.22</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:20:37</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:22:51</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>144</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H195" t="n">
+        <v>80</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K195" t="n">
+        <v>128</v>
+      </c>
+      <c r="L195" t="n">
+        <v>7086.67</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:22:53</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:25:07</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>144</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H196" t="n">
+        <v>80</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K196" t="n">
+        <v>128</v>
+      </c>
+      <c r="L196" t="n">
+        <v>7029.04</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:25:08</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:27:23</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>144</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>80</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K197" t="n">
+        <v>128</v>
+      </c>
+      <c r="L197" t="n">
+        <v>7241.25</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:27:25</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:29:39</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>144</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H198" t="n">
+        <v>80</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K198" t="n">
+        <v>128</v>
+      </c>
+      <c r="L198" t="n">
+        <v>7110.66</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:29:40</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:31:57</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>144</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H199" t="n">
+        <v>80</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K199" t="n">
+        <v>128</v>
+      </c>
+      <c r="L199" t="n">
+        <v>7195.04</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:31:58</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:34:11</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>144</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H200" t="n">
+        <v>80</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K200" t="n">
+        <v>128</v>
+      </c>
+      <c r="L200" t="n">
+        <v>6904.55</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:34:13</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:36:22</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>9</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>144</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H201" t="n">
+        <v>80</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K201" t="n">
+        <v>128</v>
+      </c>
+      <c r="L201" t="n">
+        <v>7391.9</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:53:53</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:56:15</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>144</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H202" t="n">
+        <v>80</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K202" t="n">
+        <v>128</v>
+      </c>
+      <c r="L202" t="n">
+        <v>7190.92</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:56:16</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2025-02-16 23:58:35</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>144</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H203" t="n">
+        <v>80</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K203" t="n">
+        <v>128</v>
+      </c>
+      <c r="L203" t="n">
+        <v>7179.16</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.13727</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9413,6 +9413,1846 @@
       </c>
       <c r="N203" t="inlineStr"/>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:38:58</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:41:21</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>144</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H204" t="n">
+        <v>80</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K204" t="n">
+        <v>128</v>
+      </c>
+      <c r="L204" t="n">
+        <v>7076.81</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.13338</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:41:23</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:43:39</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>144</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H205" t="n">
+        <v>80</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K205" t="n">
+        <v>128</v>
+      </c>
+      <c r="L205" t="n">
+        <v>7001.45</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.130554</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:43:41</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:45:58</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>144</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H206" t="n">
+        <v>80</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K206" t="n">
+        <v>128</v>
+      </c>
+      <c r="L206" t="n">
+        <v>7144.14</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.13593</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:45:59</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:48:15</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>144</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H207" t="n">
+        <v>80</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K207" t="n">
+        <v>128</v>
+      </c>
+      <c r="L207" t="n">
+        <v>7282.38</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.141242</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:48:16</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:50:33</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>144</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H208" t="n">
+        <v>80</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K208" t="n">
+        <v>128</v>
+      </c>
+      <c r="L208" t="n">
+        <v>7266.82</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.140638</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:50:34</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:52:50</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>144</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H209" t="n">
+        <v>80</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K209" t="n">
+        <v>128</v>
+      </c>
+      <c r="L209" t="n">
+        <v>7182.3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.137386</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:52:51</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:55:08</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>144</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H210" t="n">
+        <v>80</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K210" t="n">
+        <v>128</v>
+      </c>
+      <c r="L210" t="n">
+        <v>7361.85</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.144341</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:55:09</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:57:26</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>144</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H211" t="n">
+        <v>80</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K211" t="n">
+        <v>128</v>
+      </c>
+      <c r="L211" t="n">
+        <v>7349.7</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.143865</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:57:28</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:59:41</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>144</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H212" t="n">
+        <v>80</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K212" t="n">
+        <v>128</v>
+      </c>
+      <c r="L212" t="n">
+        <v>7103.37</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.134383</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:59:43</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:01:55</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>144</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H213" t="n">
+        <v>80</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K213" t="n">
+        <v>128</v>
+      </c>
+      <c r="L213" t="n">
+        <v>7102.35</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.134345</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:01:57</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:04:11</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>10</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>144</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H214" t="n">
+        <v>80</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K214" t="n">
+        <v>128</v>
+      </c>
+      <c r="L214" t="n">
+        <v>7047.9</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.132293</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:04:13</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:06:26</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>11</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>144</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H215" t="n">
+        <v>80</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K215" t="n">
+        <v>128</v>
+      </c>
+      <c r="L215" t="n">
+        <v>7152.41</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.136245</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:06:27</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:08:40</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>12</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>144</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H216" t="n">
+        <v>80</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K216" t="n">
+        <v>128</v>
+      </c>
+      <c r="L216" t="n">
+        <v>7033.59</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.131756</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:08:42</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:10:56</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>13</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>144</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H217" t="n">
+        <v>80</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K217" t="n">
+        <v>128</v>
+      </c>
+      <c r="L217" t="n">
+        <v>7142.31</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.13586</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:10:57</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:13:10</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>14</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>144</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H218" t="n">
+        <v>80</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K218" t="n">
+        <v>128</v>
+      </c>
+      <c r="L218" t="n">
+        <v>7422.55</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.146731</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:13:11</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:15:24</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>15</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>144</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H219" t="n">
+        <v>80</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K219" t="n">
+        <v>128</v>
+      </c>
+      <c r="L219" t="n">
+        <v>7227.33</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.139114</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:15:26</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:17:41</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>16</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>144</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>80</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K220" t="n">
+        <v>128</v>
+      </c>
+      <c r="L220" t="n">
+        <v>7647.14</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.155745</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:17:42</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:20:00</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>17</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>144</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H221" t="n">
+        <v>80</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K221" t="n">
+        <v>128</v>
+      </c>
+      <c r="L221" t="n">
+        <v>7188.44</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.137621</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:20:01</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:22:17</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>18</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>144</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H222" t="n">
+        <v>80</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K222" t="n">
+        <v>128</v>
+      </c>
+      <c r="L222" t="n">
+        <v>7333</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.143212</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:22:18</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:24:35</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>19</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>144</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H223" t="n">
+        <v>80</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K223" t="n">
+        <v>128</v>
+      </c>
+      <c r="L223" t="n">
+        <v>7177.4</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.137199</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:31:01</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:33:19</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>144</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H224" t="n">
+        <v>96</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K224" t="n">
+        <v>128</v>
+      </c>
+      <c r="L224" t="n">
+        <v>7232.53</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.139314</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:33:20</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:35:36</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>144</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H225" t="n">
+        <v>96</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K225" t="n">
+        <v>128</v>
+      </c>
+      <c r="L225" t="n">
+        <v>7235.49</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.139429</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:35:38</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:37:56</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>144</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H226" t="n">
+        <v>96</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K226" t="n">
+        <v>128</v>
+      </c>
+      <c r="L226" t="n">
+        <v>7020.01</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.131247</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:37:57</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:40:14</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>144</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H227" t="n">
+        <v>96</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K227" t="n">
+        <v>128</v>
+      </c>
+      <c r="L227" t="n">
+        <v>7340.84</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.143518</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:40:16</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:42:33</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>144</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H228" t="n">
+        <v>96</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K228" t="n">
+        <v>128</v>
+      </c>
+      <c r="L228" t="n">
+        <v>7262.69</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.140479</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:42:34</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:44:52</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>144</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H229" t="n">
+        <v>96</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K229" t="n">
+        <v>128</v>
+      </c>
+      <c r="L229" t="n">
+        <v>7256.1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.140224</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:44:54</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:47:09</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>144</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H230" t="n">
+        <v>96</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K230" t="n">
+        <v>128</v>
+      </c>
+      <c r="L230" t="n">
+        <v>7274.2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.140925</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:47:10</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:49:24</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>144</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H231" t="n">
+        <v>96</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K231" t="n">
+        <v>128</v>
+      </c>
+      <c r="L231" t="n">
+        <v>7176.71</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.137172</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:49:25</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:51:34</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>144</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H232" t="n">
+        <v>96</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K232" t="n">
+        <v>128</v>
+      </c>
+      <c r="L232" t="n">
+        <v>7281.39</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.141203</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:51:36</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:53:45</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>9</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>144</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>96</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K233" t="n">
+        <v>128</v>
+      </c>
+      <c r="L233" t="n">
+        <v>7266.59</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.14063</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:13:34</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:16:07</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>144</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H234" t="n">
+        <v>96</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K234" t="n">
+        <v>128</v>
+      </c>
+      <c r="L234" t="n">
+        <v>7207.45</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.13835</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:16:09</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:18:39</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>144</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>96</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K235" t="n">
+        <v>128</v>
+      </c>
+      <c r="L235" t="n">
+        <v>7137.61</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.135682</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:18:40</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:21:07</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>144</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H236" t="n">
+        <v>96</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K236" t="n">
+        <v>128</v>
+      </c>
+      <c r="L236" t="n">
+        <v>7226.91</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.139098</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:21:09</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:23:35</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>144</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>96</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K237" t="n">
+        <v>128</v>
+      </c>
+      <c r="L237" t="n">
+        <v>7196.84</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.137943</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:23:37</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:26:15</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>4</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>144</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H238" t="n">
+        <v>96</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K238" t="n">
+        <v>128</v>
+      </c>
+      <c r="L238" t="n">
+        <v>7198.14</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.137993</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:26:16</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:28:48</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>144</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>96</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K239" t="n">
+        <v>128</v>
+      </c>
+      <c r="L239" t="n">
+        <v>7143.4</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.135902</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:28:50</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:31:21</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>144</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>96</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K240" t="n">
+        <v>128</v>
+      </c>
+      <c r="L240" t="n">
+        <v>7125.22</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.135211</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:31:23</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:33:57</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>7</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>144</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H241" t="n">
+        <v>96</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K241" t="n">
+        <v>128</v>
+      </c>
+      <c r="L241" t="n">
+        <v>7087.11</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.133769</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:33:58</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:36:31</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>144</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H242" t="n">
+        <v>96</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K242" t="n">
+        <v>128</v>
+      </c>
+      <c r="L242" t="n">
+        <v>7142.38</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.135863</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:36:32</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2025-02-17 16:39:06</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>144</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H243" t="n">
+        <v>96</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K243" t="n">
+        <v>128</v>
+      </c>
+      <c r="L243" t="n">
+        <v>7244.55</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.139778</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N243"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11253,6 +11253,926 @@
       </c>
       <c r="N243" t="inlineStr"/>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:03:26</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:06:00</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>144</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H244" t="n">
+        <v>96</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K244" t="n">
+        <v>128</v>
+      </c>
+      <c r="L244" t="n">
+        <v>7259.95</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.140373</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:06:02</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:08:42</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>144</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H245" t="n">
+        <v>96</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K245" t="n">
+        <v>128</v>
+      </c>
+      <c r="L245" t="n">
+        <v>7160.74</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.136563</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:08:43</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:11:19</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>144</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H246" t="n">
+        <v>96</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K246" t="n">
+        <v>128</v>
+      </c>
+      <c r="L246" t="n">
+        <v>7130.57</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.135414</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:11:21</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:13:58</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>3</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>144</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H247" t="n">
+        <v>96</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K247" t="n">
+        <v>128</v>
+      </c>
+      <c r="L247" t="n">
+        <v>7259.33</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.140349</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:13:59</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:16:44</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>144</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H248" t="n">
+        <v>96</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K248" t="n">
+        <v>128</v>
+      </c>
+      <c r="L248" t="n">
+        <v>7239.43</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.13958</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:16:46</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:19:24</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>5</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>144</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H249" t="n">
+        <v>96</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K249" t="n">
+        <v>128</v>
+      </c>
+      <c r="L249" t="n">
+        <v>7384.71</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.145239</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:19:26</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:21:58</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>144</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H250" t="n">
+        <v>96</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K250" t="n">
+        <v>128</v>
+      </c>
+      <c r="L250" t="n">
+        <v>7354.26</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.144044</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:22:00</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:24:31</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>7</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>144</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H251" t="n">
+        <v>96</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K251" t="n">
+        <v>128</v>
+      </c>
+      <c r="L251" t="n">
+        <v>7125.2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.13521</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:24:32</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:27:01</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>8</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>144</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H252" t="n">
+        <v>96</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K252" t="n">
+        <v>128</v>
+      </c>
+      <c r="L252" t="n">
+        <v>7560.96</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.152254</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:27:02</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:29:31</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>144</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H253" t="n">
+        <v>96</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K253" t="n">
+        <v>128</v>
+      </c>
+      <c r="L253" t="n">
+        <v>7145.6</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.135986</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:29:33</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:31:59</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>144</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H254" t="n">
+        <v>96</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K254" t="n">
+        <v>128</v>
+      </c>
+      <c r="L254" t="n">
+        <v>7214.06</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.138604</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:32:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:34:21</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>11</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>144</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H255" t="n">
+        <v>96</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K255" t="n">
+        <v>128</v>
+      </c>
+      <c r="L255" t="n">
+        <v>7107.4</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.134535</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:34:23</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:36:45</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>12</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>144</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H256" t="n">
+        <v>96</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K256" t="n">
+        <v>128</v>
+      </c>
+      <c r="L256" t="n">
+        <v>7237.11</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.139491</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:36:47</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:39:24</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>13</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>144</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H257" t="n">
+        <v>96</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K257" t="n">
+        <v>128</v>
+      </c>
+      <c r="L257" t="n">
+        <v>6909.63</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.127152</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:39:26</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:42:30</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>14</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>144</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H258" t="n">
+        <v>96</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K258" t="n">
+        <v>128</v>
+      </c>
+      <c r="L258" t="n">
+        <v>7246.51</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.139853</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:42:32</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:45:36</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>15</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>144</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H259" t="n">
+        <v>96</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K259" t="n">
+        <v>128</v>
+      </c>
+      <c r="L259" t="n">
+        <v>6956.22</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.128873</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:45:38</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:48:43</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>16</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>144</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H260" t="n">
+        <v>96</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K260" t="n">
+        <v>128</v>
+      </c>
+      <c r="L260" t="n">
+        <v>6971.55</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.129442</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:48:45</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:51:50</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>17</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>144</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H261" t="n">
+        <v>96</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K261" t="n">
+        <v>128</v>
+      </c>
+      <c r="L261" t="n">
+        <v>7169.14</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.136883</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:51:52</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:54:57</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>18</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>144</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H262" t="n">
+        <v>96</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K262" t="n">
+        <v>128</v>
+      </c>
+      <c r="L262" t="n">
+        <v>7090.49</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.133896</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:54:59</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:58:03</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>19</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>144</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H263" t="n">
+        <v>96</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K263" t="n">
+        <v>128</v>
+      </c>
+      <c r="L263" t="n">
+        <v>7154.77</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.136335</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12173,6 +12173,4606 @@
       </c>
       <c r="N263" t="inlineStr"/>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:00:23</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:02:52</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>144</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H264" t="n">
+        <v>96</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K264" t="n">
+        <v>128</v>
+      </c>
+      <c r="L264" t="n">
+        <v>7229.99</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.139217</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:02:54</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:05:18</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>144</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H265" t="n">
+        <v>96</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K265" t="n">
+        <v>128</v>
+      </c>
+      <c r="L265" t="n">
+        <v>7318.73</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.142655</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:05:19</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:07:46</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>144</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H266" t="n">
+        <v>96</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K266" t="n">
+        <v>128</v>
+      </c>
+      <c r="L266" t="n">
+        <v>7167.57</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.136823</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:07:47</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:10:10</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>3</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>144</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H267" t="n">
+        <v>96</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K267" t="n">
+        <v>128</v>
+      </c>
+      <c r="L267" t="n">
+        <v>7231.46</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.139273</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:10:12</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:13:03</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>4</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>144</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H268" t="n">
+        <v>96</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K268" t="n">
+        <v>128</v>
+      </c>
+      <c r="L268" t="n">
+        <v>7178.04</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.137223</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:13:06</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:16:17</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>144</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H269" t="n">
+        <v>96</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K269" t="n">
+        <v>128</v>
+      </c>
+      <c r="L269" t="n">
+        <v>7306.1</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.142163</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:16:19</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:19:35</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>144</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H270" t="n">
+        <v>96</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K270" t="n">
+        <v>128</v>
+      </c>
+      <c r="L270" t="n">
+        <v>7363.13</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.144391</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:19:37</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:22:51</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>144</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H271" t="n">
+        <v>96</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K271" t="n">
+        <v>128</v>
+      </c>
+      <c r="L271" t="n">
+        <v>7072.52</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.133218</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:22:54</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:26:03</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>144</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H272" t="n">
+        <v>96</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K272" t="n">
+        <v>128</v>
+      </c>
+      <c r="L272" t="n">
+        <v>7212.8</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.138555</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:26:05</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:29:15</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>144</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H273" t="n">
+        <v>96</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K273" t="n">
+        <v>128</v>
+      </c>
+      <c r="L273" t="n">
+        <v>7121.87</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.135084</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:18:44</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:21:16</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>144</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H274" t="n">
+        <v>96</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K274" t="n">
+        <v>128</v>
+      </c>
+      <c r="L274" t="n">
+        <v>7275.46</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.140973</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:21:18</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:23:52</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>144</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H275" t="n">
+        <v>96</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K275" t="n">
+        <v>128</v>
+      </c>
+      <c r="L275" t="n">
+        <v>7325.3</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.142911</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:23:54</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:26:27</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>144</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H276" t="n">
+        <v>96</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K276" t="n">
+        <v>128</v>
+      </c>
+      <c r="L276" t="n">
+        <v>7098.5</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.134199</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:26:29</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:29:05</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>3</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>144</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H277" t="n">
+        <v>96</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K277" t="n">
+        <v>128</v>
+      </c>
+      <c r="L277" t="n">
+        <v>7250.71</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.140016</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:29:07</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:31:41</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>144</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H278" t="n">
+        <v>96</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K278" t="n">
+        <v>128</v>
+      </c>
+      <c r="L278" t="n">
+        <v>7351.35</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.143929</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:31:42</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:34:17</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>144</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H279" t="n">
+        <v>96</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K279" t="n">
+        <v>128</v>
+      </c>
+      <c r="L279" t="n">
+        <v>7175.69</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.137133</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:34:18</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:36:54</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>144</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H280" t="n">
+        <v>96</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K280" t="n">
+        <v>128</v>
+      </c>
+      <c r="L280" t="n">
+        <v>7458.08</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.148139</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:36:56</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:39:32</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>144</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H281" t="n">
+        <v>96</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K281" t="n">
+        <v>128</v>
+      </c>
+      <c r="L281" t="n">
+        <v>7302.82</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.142035</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:39:34</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:42:08</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>8</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>144</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H282" t="n">
+        <v>96</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K282" t="n">
+        <v>128</v>
+      </c>
+      <c r="L282" t="n">
+        <v>7194.07</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.137837</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:42:10</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:44:45</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>144</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H283" t="n">
+        <v>96</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K283" t="n">
+        <v>128</v>
+      </c>
+      <c r="L283" t="n">
+        <v>7075.9</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.133346</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:49:06</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:51:37</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>144</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H284" t="n">
+        <v>96</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K284" t="n">
+        <v>128</v>
+      </c>
+      <c r="L284" t="n">
+        <v>7261.13</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.140418</v>
+      </c>
+      <c r="N284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:51:39</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:54:11</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>144</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H285" t="n">
+        <v>96</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K285" t="n">
+        <v>128</v>
+      </c>
+      <c r="L285" t="n">
+        <v>7151.59</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.136214</v>
+      </c>
+      <c r="N285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:54:12</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:56:45</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" t="n">
+        <v>144</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H286" t="n">
+        <v>96</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K286" t="n">
+        <v>128</v>
+      </c>
+      <c r="L286" t="n">
+        <v>7272.56</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.140861</v>
+      </c>
+      <c r="N286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:56:47</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:59:17</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>144</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H287" t="n">
+        <v>96</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K287" t="n">
+        <v>128</v>
+      </c>
+      <c r="L287" t="n">
+        <v>7155.89</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.136378</v>
+      </c>
+      <c r="N287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:59:19</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:01:46</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>4</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="n">
+        <v>144</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H288" t="n">
+        <v>96</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K288" t="n">
+        <v>128</v>
+      </c>
+      <c r="L288" t="n">
+        <v>7259.42</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.140352</v>
+      </c>
+      <c r="N288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:01:48</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:04:24</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>144</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H289" t="n">
+        <v>96</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K289" t="n">
+        <v>128</v>
+      </c>
+      <c r="L289" t="n">
+        <v>7238.19</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.139533</v>
+      </c>
+      <c r="N289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:04:26</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:07:18</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>144</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H290" t="n">
+        <v>96</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K290" t="n">
+        <v>128</v>
+      </c>
+      <c r="L290" t="n">
+        <v>7010.6</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.130896</v>
+      </c>
+      <c r="N290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:07:20</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:10:08</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>7</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>144</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H291" t="n">
+        <v>96</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K291" t="n">
+        <v>128</v>
+      </c>
+      <c r="L291" t="n">
+        <v>7277.35</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.141046</v>
+      </c>
+      <c r="N291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:10:09</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:13:18</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>144</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H292" t="n">
+        <v>96</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K292" t="n">
+        <v>128</v>
+      </c>
+      <c r="L292" t="n">
+        <v>7140.39</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.135788</v>
+      </c>
+      <c r="N292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:13:21</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:16:40</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>144</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H293" t="n">
+        <v>96</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K293" t="n">
+        <v>128</v>
+      </c>
+      <c r="L293" t="n">
+        <v>7250.46</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.140006</v>
+      </c>
+      <c r="N293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:27:06</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:29:45</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>144</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H294" t="n">
+        <v>96</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K294" t="n">
+        <v>128</v>
+      </c>
+      <c r="L294" t="n">
+        <v>7323.7</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.142849</v>
+      </c>
+      <c r="N294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:29:47</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:32:18</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>144</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H295" t="n">
+        <v>96</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K295" t="n">
+        <v>128</v>
+      </c>
+      <c r="L295" t="n">
+        <v>7277.45</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.14105</v>
+      </c>
+      <c r="N295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:32:20</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:34:54</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>144</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H296" t="n">
+        <v>96</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K296" t="n">
+        <v>128</v>
+      </c>
+      <c r="L296" t="n">
+        <v>7144.07</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.135927</v>
+      </c>
+      <c r="N296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:34:56</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:37:27</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>144</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H297" t="n">
+        <v>96</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K297" t="n">
+        <v>128</v>
+      </c>
+      <c r="L297" t="n">
+        <v>7140.54</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.135793</v>
+      </c>
+      <c r="N297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:37:28</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:39:58</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" t="n">
+        <v>144</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H298" t="n">
+        <v>96</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K298" t="n">
+        <v>128</v>
+      </c>
+      <c r="L298" t="n">
+        <v>7631.61</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.155113</v>
+      </c>
+      <c r="N298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:40:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:42:36</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>5</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>144</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H299" t="n">
+        <v>96</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K299" t="n">
+        <v>128</v>
+      </c>
+      <c r="L299" t="n">
+        <v>7333.48</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.143231</v>
+      </c>
+      <c r="N299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:42:38</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:45:20</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>144</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H300" t="n">
+        <v>96</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J300" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K300" t="n">
+        <v>128</v>
+      </c>
+      <c r="L300" t="n">
+        <v>7351.85</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.143949</v>
+      </c>
+      <c r="N300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:45:22</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:48:03</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>7</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>144</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H301" t="n">
+        <v>96</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K301" t="n">
+        <v>128</v>
+      </c>
+      <c r="L301" t="n">
+        <v>7298.42</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.141864</v>
+      </c>
+      <c r="N301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:48:04</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:51:08</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>144</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H302" t="n">
+        <v>96</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K302" t="n">
+        <v>128</v>
+      </c>
+      <c r="L302" t="n">
+        <v>7259.98</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.140374</v>
+      </c>
+      <c r="N302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:51:11</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:55:30</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>9</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>144</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H303" t="n">
+        <v>96</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K303" t="n">
+        <v>128</v>
+      </c>
+      <c r="L303" t="n">
+        <v>7185.96</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.137526</v>
+      </c>
+      <c r="N303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:55:32</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:58:43</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>10</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>144</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H304" t="n">
+        <v>96</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K304" t="n">
+        <v>128</v>
+      </c>
+      <c r="L304" t="n">
+        <v>7168.2</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.136847</v>
+      </c>
+      <c r="N304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:58:45</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:01:52</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>11</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>144</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H305" t="n">
+        <v>96</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K305" t="n">
+        <v>128</v>
+      </c>
+      <c r="L305" t="n">
+        <v>7298.53</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.141869</v>
+      </c>
+      <c r="N305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:01:54</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:05:19</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>12</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>144</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H306" t="n">
+        <v>96</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K306" t="n">
+        <v>128</v>
+      </c>
+      <c r="L306" t="n">
+        <v>7264.22</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.140538</v>
+      </c>
+      <c r="N306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:05:21</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:08:33</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>13</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>144</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H307" t="n">
+        <v>96</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K307" t="n">
+        <v>128</v>
+      </c>
+      <c r="L307" t="n">
+        <v>7336.38</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.143344</v>
+      </c>
+      <c r="N307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:08:35</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:11:56</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>14</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>144</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H308" t="n">
+        <v>96</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K308" t="n">
+        <v>128</v>
+      </c>
+      <c r="L308" t="n">
+        <v>7303.39</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.142058</v>
+      </c>
+      <c r="N308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:11:58</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:15:08</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>15</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>144</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H309" t="n">
+        <v>96</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K309" t="n">
+        <v>128</v>
+      </c>
+      <c r="L309" t="n">
+        <v>7000.11</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.130504</v>
+      </c>
+      <c r="N309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:15:11</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:18:33</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>16</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>144</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H310" t="n">
+        <v>96</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K310" t="n">
+        <v>128</v>
+      </c>
+      <c r="L310" t="n">
+        <v>7123.96</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.135163</v>
+      </c>
+      <c r="N310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:18:35</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:21:54</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>17</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1</v>
+      </c>
+      <c r="F311" t="n">
+        <v>144</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H311" t="n">
+        <v>96</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K311" t="n">
+        <v>128</v>
+      </c>
+      <c r="L311" t="n">
+        <v>7157.32</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.136432</v>
+      </c>
+      <c r="N311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:21:56</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:25:06</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>18</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+      <c r="F312" t="n">
+        <v>144</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H312" t="n">
+        <v>96</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K312" t="n">
+        <v>128</v>
+      </c>
+      <c r="L312" t="n">
+        <v>7160.85</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.136567</v>
+      </c>
+      <c r="N312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:25:07</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:28:31</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>19</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F313" t="n">
+        <v>144</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H313" t="n">
+        <v>96</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K313" t="n">
+        <v>128</v>
+      </c>
+      <c r="L313" t="n">
+        <v>7078.08</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0.133428</v>
+      </c>
+      <c r="N313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:05:05</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:08:34</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="n">
+        <v>144</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H314" t="n">
+        <v>96</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K314" t="n">
+        <v>128</v>
+      </c>
+      <c r="L314" t="n">
+        <v>7092.37</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0.133967</v>
+      </c>
+      <c r="N314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:08:37</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:12:04</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>144</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H315" t="n">
+        <v>96</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K315" t="n">
+        <v>128</v>
+      </c>
+      <c r="L315" t="n">
+        <v>7435.84</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.147257</v>
+      </c>
+      <c r="N315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:12:06</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:15:34</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>144</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H316" t="n">
+        <v>96</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K316" t="n">
+        <v>128</v>
+      </c>
+      <c r="L316" t="n">
+        <v>6879.53</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.126047</v>
+      </c>
+      <c r="N316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:15:36</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:19:17</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>3</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F317" t="n">
+        <v>144</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H317" t="n">
+        <v>96</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K317" t="n">
+        <v>128</v>
+      </c>
+      <c r="L317" t="n">
+        <v>7282.21</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.141235</v>
+      </c>
+      <c r="N317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:19:20</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:22:42</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>4</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>144</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H318" t="n">
+        <v>96</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K318" t="n">
+        <v>128</v>
+      </c>
+      <c r="L318" t="n">
+        <v>7515.95</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.150447</v>
+      </c>
+      <c r="N318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:22:44</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:26:12</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" t="n">
+        <v>144</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H319" t="n">
+        <v>96</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K319" t="n">
+        <v>128</v>
+      </c>
+      <c r="L319" t="n">
+        <v>7310</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.142315</v>
+      </c>
+      <c r="N319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:26:14</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:29:20</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>6</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="n">
+        <v>144</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H320" t="n">
+        <v>96</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K320" t="n">
+        <v>128</v>
+      </c>
+      <c r="L320" t="n">
+        <v>7037.35</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.131897</v>
+      </c>
+      <c r="N320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:29:22</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:31:50</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>7</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>144</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H321" t="n">
+        <v>96</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K321" t="n">
+        <v>128</v>
+      </c>
+      <c r="L321" t="n">
+        <v>7201.42</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.138118</v>
+      </c>
+      <c r="N321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:31:51</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:34:16</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>8</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>144</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H322" t="n">
+        <v>96</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K322" t="n">
+        <v>128</v>
+      </c>
+      <c r="L322" t="n">
+        <v>7106.03</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0.134484</v>
+      </c>
+      <c r="N322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:34:17</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:36:42</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="n">
+        <v>144</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H323" t="n">
+        <v>96</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K323" t="n">
+        <v>128</v>
+      </c>
+      <c r="L323" t="n">
+        <v>7298.63</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0.141873</v>
+      </c>
+      <c r="N323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:36:44</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:39:08</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>10</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>144</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H324" t="n">
+        <v>96</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K324" t="n">
+        <v>128</v>
+      </c>
+      <c r="L324" t="n">
+        <v>7185.58</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.137511</v>
+      </c>
+      <c r="N324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:39:10</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:41:33</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>11</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>144</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H325" t="n">
+        <v>96</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K325" t="n">
+        <v>128</v>
+      </c>
+      <c r="L325" t="n">
+        <v>7210.46</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.138465</v>
+      </c>
+      <c r="N325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:41:35</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:43:57</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>12</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>144</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H326" t="n">
+        <v>96</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K326" t="n">
+        <v>128</v>
+      </c>
+      <c r="L326" t="n">
+        <v>7531.08</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.151053</v>
+      </c>
+      <c r="N326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:43:59</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:46:18</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>13</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" t="n">
+        <v>144</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H327" t="n">
+        <v>96</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K327" t="n">
+        <v>128</v>
+      </c>
+      <c r="L327" t="n">
+        <v>7180.54</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.137319</v>
+      </c>
+      <c r="N327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:46:19</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:48:34</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>14</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" t="n">
+        <v>144</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H328" t="n">
+        <v>96</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K328" t="n">
+        <v>128</v>
+      </c>
+      <c r="L328" t="n">
+        <v>7149.45</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0.136132</v>
+      </c>
+      <c r="N328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:48:36</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:50:50</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>15</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>144</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H329" t="n">
+        <v>96</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K329" t="n">
+        <v>128</v>
+      </c>
+      <c r="L329" t="n">
+        <v>7096.48</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.134122</v>
+      </c>
+      <c r="N329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:50:52</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:53:08</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>16</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+      <c r="F330" t="n">
+        <v>144</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H330" t="n">
+        <v>96</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K330" t="n">
+        <v>128</v>
+      </c>
+      <c r="L330" t="n">
+        <v>7144.58</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.135947</v>
+      </c>
+      <c r="N330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:53:09</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:55:23</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>17</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>144</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H331" t="n">
+        <v>96</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J331" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K331" t="n">
+        <v>128</v>
+      </c>
+      <c r="L331" t="n">
+        <v>7043.9</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0.132142</v>
+      </c>
+      <c r="N331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:55:25</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:57:40</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>18</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" t="n">
+        <v>144</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H332" t="n">
+        <v>96</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K332" t="n">
+        <v>128</v>
+      </c>
+      <c r="L332" t="n">
+        <v>7162.52</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0.136631</v>
+      </c>
+      <c r="N332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:57:42</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:59:56</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>19</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+      <c r="F333" t="n">
+        <v>144</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H333" t="n">
+        <v>96</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K333" t="n">
+        <v>128</v>
+      </c>
+      <c r="L333" t="n">
+        <v>7221.58</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.138893</v>
+      </c>
+      <c r="N333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:37:07</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:39:35</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" t="n">
+        <v>160</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H334" t="n">
+        <v>96</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K334" t="n">
+        <v>128</v>
+      </c>
+      <c r="L334" t="n">
+        <v>7302.71</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0.142031</v>
+      </c>
+      <c r="N334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:39:37</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:42:04</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+      <c r="F335" t="n">
+        <v>160</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H335" t="n">
+        <v>96</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K335" t="n">
+        <v>128</v>
+      </c>
+      <c r="L335" t="n">
+        <v>7138.42</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.135713</v>
+      </c>
+      <c r="N335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:42:05</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:44:32</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+      <c r="F336" t="n">
+        <v>160</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H336" t="n">
+        <v>96</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K336" t="n">
+        <v>128</v>
+      </c>
+      <c r="L336" t="n">
+        <v>7047.42</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.132274</v>
+      </c>
+      <c r="N336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:44:33</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:47:02</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>3</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F337" t="n">
+        <v>160</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H337" t="n">
+        <v>96</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K337" t="n">
+        <v>128</v>
+      </c>
+      <c r="L337" t="n">
+        <v>7193.37</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="N337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:47:03</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:49:31</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>4</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+      <c r="F338" t="n">
+        <v>160</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H338" t="n">
+        <v>96</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K338" t="n">
+        <v>128</v>
+      </c>
+      <c r="L338" t="n">
+        <v>7295.73</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.14176</v>
+      </c>
+      <c r="N338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:49:33</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:52:00</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>5</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+      <c r="F339" t="n">
+        <v>160</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H339" t="n">
+        <v>96</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K339" t="n">
+        <v>128</v>
+      </c>
+      <c r="L339" t="n">
+        <v>7304.36</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0.142096</v>
+      </c>
+      <c r="N339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:52:02</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:54:33</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>6</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+      <c r="F340" t="n">
+        <v>160</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H340" t="n">
+        <v>96</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K340" t="n">
+        <v>128</v>
+      </c>
+      <c r="L340" t="n">
+        <v>7119.94</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0.135011</v>
+      </c>
+      <c r="N340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:54:34</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:57:05</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>7</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>160</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H341" t="n">
+        <v>96</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K341" t="n">
+        <v>128</v>
+      </c>
+      <c r="L341" t="n">
+        <v>7283.7</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0.141293</v>
+      </c>
+      <c r="N341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:57:07</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:59:37</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>8</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+      <c r="F342" t="n">
+        <v>160</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H342" t="n">
+        <v>96</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K342" t="n">
+        <v>128</v>
+      </c>
+      <c r="L342" t="n">
+        <v>7047.92</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0.132293</v>
+      </c>
+      <c r="N342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:59:39</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2025-02-20 20:02:12</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>9</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F343" t="n">
+        <v>160</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H343" t="n">
+        <v>96</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K343" t="n">
+        <v>128</v>
+      </c>
+      <c r="L343" t="n">
+        <v>7264.32</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.140542</v>
+      </c>
+      <c r="N343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:33:21</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:35:49</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+      <c r="F344" t="n">
+        <v>144</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H344" t="n">
+        <v>80</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K344" t="n">
+        <v>128</v>
+      </c>
+      <c r="L344" t="n">
+        <v>7030.58</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.140101</v>
+      </c>
+      <c r="N344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:35:51</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:38:15</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>144</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H345" t="n">
+        <v>80</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K345" t="n">
+        <v>128</v>
+      </c>
+      <c r="L345" t="n">
+        <v>6731.82</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.128447</v>
+      </c>
+      <c r="N345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:38:16</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:40:42</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>2</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+      <c r="F346" t="n">
+        <v>144</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H346" t="n">
+        <v>80</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K346" t="n">
+        <v>128</v>
+      </c>
+      <c r="L346" t="n">
+        <v>6729</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0.128339</v>
+      </c>
+      <c r="N346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:40:43</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:43:06</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>3</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F347" t="n">
+        <v>144</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H347" t="n">
+        <v>80</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K347" t="n">
+        <v>128</v>
+      </c>
+      <c r="L347" t="n">
+        <v>6979.05</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0.138055</v>
+      </c>
+      <c r="N347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:43:07</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:45:37</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>4</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1</v>
+      </c>
+      <c r="F348" t="n">
+        <v>144</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H348" t="n">
+        <v>80</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K348" t="n">
+        <v>128</v>
+      </c>
+      <c r="L348" t="n">
+        <v>7145.12</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0.144703</v>
+      </c>
+      <c r="N348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:45:38</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:48:03</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>5</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1</v>
+      </c>
+      <c r="F349" t="n">
+        <v>144</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H349" t="n">
+        <v>80</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J349" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K349" t="n">
+        <v>128</v>
+      </c>
+      <c r="L349" t="n">
+        <v>6632.18</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.124673</v>
+      </c>
+      <c r="N349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:48:05</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:50:33</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+      <c r="F350" t="n">
+        <v>144</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H350" t="n">
+        <v>80</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K350" t="n">
+        <v>128</v>
+      </c>
+      <c r="L350" t="n">
+        <v>6799.75</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.131052</v>
+      </c>
+      <c r="N350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:50:34</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:53:05</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>7</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F351" t="n">
+        <v>144</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H351" t="n">
+        <v>80</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K351" t="n">
+        <v>128</v>
+      </c>
+      <c r="L351" t="n">
+        <v>6779.87</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.130287</v>
+      </c>
+      <c r="N351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:53:06</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:55:38</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>8</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="n">
+        <v>144</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H352" t="n">
+        <v>80</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K352" t="n">
+        <v>128</v>
+      </c>
+      <c r="L352" t="n">
+        <v>6510.52</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.120141</v>
+      </c>
+      <c r="N352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:55:39</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:58:12</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>9</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" t="n">
+        <v>144</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H353" t="n">
+        <v>80</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K353" t="n">
+        <v>128</v>
+      </c>
+      <c r="L353" t="n">
+        <v>6882.3</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0.134253</v>
+      </c>
+      <c r="N353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:58:13</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:00:34</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>10</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+      <c r="F354" t="n">
+        <v>144</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H354" t="n">
+        <v>80</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K354" t="n">
+        <v>128</v>
+      </c>
+      <c r="L354" t="n">
+        <v>6770.9</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0.129942</v>
+      </c>
+      <c r="N354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:00:35</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:03:06</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>11</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>144</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H355" t="n">
+        <v>80</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K355" t="n">
+        <v>128</v>
+      </c>
+      <c r="L355" t="n">
+        <v>6871.14</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0.133819</v>
+      </c>
+      <c r="N355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:03:08</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:05:31</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>12</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>144</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H356" t="n">
+        <v>80</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K356" t="n">
+        <v>128</v>
+      </c>
+      <c r="L356" t="n">
+        <v>7142.95</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.144615</v>
+      </c>
+      <c r="N356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:05:32</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:07:57</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>13</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>144</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H357" t="n">
+        <v>80</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K357" t="n">
+        <v>128</v>
+      </c>
+      <c r="L357" t="n">
+        <v>6472.04</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.118725</v>
+      </c>
+      <c r="N357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:07:58</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:10:23</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>14</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>144</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H358" t="n">
+        <v>80</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J358" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K358" t="n">
+        <v>128</v>
+      </c>
+      <c r="L358" t="n">
+        <v>6622.49</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.124308</v>
+      </c>
+      <c r="N358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:10:25</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:12:58</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>15</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>144</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H359" t="n">
+        <v>80</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K359" t="n">
+        <v>128</v>
+      </c>
+      <c r="L359" t="n">
+        <v>7064.19</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.141444</v>
+      </c>
+      <c r="N359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:13:01</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:15:28</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>16</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>144</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H360" t="n">
+        <v>80</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K360" t="n">
+        <v>128</v>
+      </c>
+      <c r="L360" t="n">
+        <v>6811.79</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0.131517</v>
+      </c>
+      <c r="N360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:15:29</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:18:00</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>17</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>144</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H361" t="n">
+        <v>80</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K361" t="n">
+        <v>128</v>
+      </c>
+      <c r="L361" t="n">
+        <v>7161.11</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0.145351</v>
+      </c>
+      <c r="N361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:18:01</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:20:29</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>18</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>144</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H362" t="n">
+        <v>80</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K362" t="n">
+        <v>128</v>
+      </c>
+      <c r="L362" t="n">
+        <v>7011.34</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0.139335</v>
+      </c>
+      <c r="N362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:20:30</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:22:58</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>19</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>144</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H363" t="n">
+        <v>80</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K363" t="n">
+        <v>128</v>
+      </c>
+      <c r="L363" t="n">
+        <v>6760.78</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0.129555</v>
+      </c>
+      <c r="N363" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N363"/>
+  <dimension ref="A1:N423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16773,6 +16773,2766 @@
       </c>
       <c r="N363" t="inlineStr"/>
     </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:08:33</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:11:08</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1</v>
+      </c>
+      <c r="F364" t="n">
+        <v>144</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H364" t="n">
+        <v>80</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K364" t="n">
+        <v>128</v>
+      </c>
+      <c r="L364" t="n">
+        <v>6931.53</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.136181</v>
+      </c>
+      <c r="N364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:11:10</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:13:43</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1</v>
+      </c>
+      <c r="F365" t="n">
+        <v>144</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H365" t="n">
+        <v>80</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K365" t="n">
+        <v>128</v>
+      </c>
+      <c r="L365" t="n">
+        <v>6908.14</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0.135264</v>
+      </c>
+      <c r="N365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:13:45</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:16:18</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>2</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1</v>
+      </c>
+      <c r="F366" t="n">
+        <v>144</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H366" t="n">
+        <v>80</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K366" t="n">
+        <v>128</v>
+      </c>
+      <c r="L366" t="n">
+        <v>6971.47</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0.137755</v>
+      </c>
+      <c r="N366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:16:20</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:18:55</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>3</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>144</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H367" t="n">
+        <v>80</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K367" t="n">
+        <v>128</v>
+      </c>
+      <c r="L367" t="n">
+        <v>6757.75</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0.129438</v>
+      </c>
+      <c r="N367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:18:57</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:21:33</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>4</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1</v>
+      </c>
+      <c r="F368" t="n">
+        <v>144</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H368" t="n">
+        <v>80</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K368" t="n">
+        <v>128</v>
+      </c>
+      <c r="L368" t="n">
+        <v>6706.57</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.127485</v>
+      </c>
+      <c r="N368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:21:35</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:24:10</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>5</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F369" t="n">
+        <v>144</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H369" t="n">
+        <v>80</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K369" t="n">
+        <v>128</v>
+      </c>
+      <c r="L369" t="n">
+        <v>6924.14</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0.135891</v>
+      </c>
+      <c r="N369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:24:12</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:26:49</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="n">
+        <v>144</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H370" t="n">
+        <v>80</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K370" t="n">
+        <v>128</v>
+      </c>
+      <c r="L370" t="n">
+        <v>6831.58</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.132282</v>
+      </c>
+      <c r="N370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:26:51</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:29:26</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>7</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F371" t="n">
+        <v>144</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H371" t="n">
+        <v>80</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K371" t="n">
+        <v>128</v>
+      </c>
+      <c r="L371" t="n">
+        <v>6665.68</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0.125935</v>
+      </c>
+      <c r="N371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:29:28</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:32:03</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>8</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>144</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H372" t="n">
+        <v>80</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K372" t="n">
+        <v>128</v>
+      </c>
+      <c r="L372" t="n">
+        <v>7298.59</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0.150986</v>
+      </c>
+      <c r="N372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:32:05</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:34:42</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>9</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F373" t="n">
+        <v>144</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H373" t="n">
+        <v>80</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K373" t="n">
+        <v>128</v>
+      </c>
+      <c r="L373" t="n">
+        <v>6822.04</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.131913</v>
+      </c>
+      <c r="N373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:34:44</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:37:22</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>10</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1</v>
+      </c>
+      <c r="F374" t="n">
+        <v>144</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H374" t="n">
+        <v>80</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J374" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K374" t="n">
+        <v>128</v>
+      </c>
+      <c r="L374" t="n">
+        <v>6971.27</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0.137747</v>
+      </c>
+      <c r="N374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:37:23</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:40:02</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>11</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F375" t="n">
+        <v>144</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H375" t="n">
+        <v>80</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K375" t="n">
+        <v>128</v>
+      </c>
+      <c r="L375" t="n">
+        <v>6776.03</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0.13014</v>
+      </c>
+      <c r="N375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:40:03</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:42:37</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>12</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1</v>
+      </c>
+      <c r="F376" t="n">
+        <v>144</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H376" t="n">
+        <v>80</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K376" t="n">
+        <v>128</v>
+      </c>
+      <c r="L376" t="n">
+        <v>7229.69</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0.148149</v>
+      </c>
+      <c r="N376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:42:38</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:45:15</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>13</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1</v>
+      </c>
+      <c r="F377" t="n">
+        <v>144</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H377" t="n">
+        <v>80</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J377" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K377" t="n">
+        <v>128</v>
+      </c>
+      <c r="L377" t="n">
+        <v>6744.58</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0.128934</v>
+      </c>
+      <c r="N377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:45:17</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:47:55</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>14</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1</v>
+      </c>
+      <c r="F378" t="n">
+        <v>144</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H378" t="n">
+        <v>80</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J378" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K378" t="n">
+        <v>128</v>
+      </c>
+      <c r="L378" t="n">
+        <v>6834.62</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0.1324</v>
+      </c>
+      <c r="N378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:47:57</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:50:33</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>15</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1</v>
+      </c>
+      <c r="F379" t="n">
+        <v>144</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H379" t="n">
+        <v>80</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J379" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K379" t="n">
+        <v>128</v>
+      </c>
+      <c r="L379" t="n">
+        <v>7123.01</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0.143809</v>
+      </c>
+      <c r="N379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:50:35</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:53:10</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>16</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F380" t="n">
+        <v>144</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H380" t="n">
+        <v>80</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J380" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K380" t="n">
+        <v>128</v>
+      </c>
+      <c r="L380" t="n">
+        <v>7397.06</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0.155088</v>
+      </c>
+      <c r="N380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:53:11</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:55:42</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>17</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1</v>
+      </c>
+      <c r="F381" t="n">
+        <v>144</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H381" t="n">
+        <v>80</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K381" t="n">
+        <v>128</v>
+      </c>
+      <c r="L381" t="n">
+        <v>7221.84</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0.147827</v>
+      </c>
+      <c r="N381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:55:44</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:58:15</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>18</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" t="n">
+        <v>144</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H382" t="n">
+        <v>80</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J382" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K382" t="n">
+        <v>128</v>
+      </c>
+      <c r="L382" t="n">
+        <v>7126.5</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0.14395</v>
+      </c>
+      <c r="N382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:58:17</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:00:45</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>19</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" t="n">
+        <v>144</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H383" t="n">
+        <v>80</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J383" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K383" t="n">
+        <v>128</v>
+      </c>
+      <c r="L383" t="n">
+        <v>6756.58</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0.129393</v>
+      </c>
+      <c r="N383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:31:04</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:33:36</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1</v>
+      </c>
+      <c r="F384" t="n">
+        <v>144</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H384" t="n">
+        <v>80</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K384" t="n">
+        <v>128</v>
+      </c>
+      <c r="L384" t="n">
+        <v>7257.8</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0.14029</v>
+      </c>
+      <c r="N384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:33:38</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:36:05</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1</v>
+      </c>
+      <c r="F385" t="n">
+        <v>144</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H385" t="n">
+        <v>80</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J385" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K385" t="n">
+        <v>128</v>
+      </c>
+      <c r="L385" t="n">
+        <v>7056.43</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.132613</v>
+      </c>
+      <c r="N385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:36:07</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:38:39</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>2</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1</v>
+      </c>
+      <c r="F386" t="n">
+        <v>144</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H386" t="n">
+        <v>80</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J386" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K386" t="n">
+        <v>128</v>
+      </c>
+      <c r="L386" t="n">
+        <v>7233.43</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.139349</v>
+      </c>
+      <c r="N386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:38:40</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:41:10</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1</v>
+      </c>
+      <c r="F387" t="n">
+        <v>144</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H387" t="n">
+        <v>80</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J387" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K387" t="n">
+        <v>128</v>
+      </c>
+      <c r="L387" t="n">
+        <v>7291.22</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0.141585</v>
+      </c>
+      <c r="N387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:41:12</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:43:46</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>4</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1</v>
+      </c>
+      <c r="F388" t="n">
+        <v>144</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H388" t="n">
+        <v>80</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J388" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K388" t="n">
+        <v>128</v>
+      </c>
+      <c r="L388" t="n">
+        <v>7255.46</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.140199</v>
+      </c>
+      <c r="N388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:43:48</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:46:20</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>5</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1</v>
+      </c>
+      <c r="F389" t="n">
+        <v>144</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H389" t="n">
+        <v>80</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J389" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K389" t="n">
+        <v>128</v>
+      </c>
+      <c r="L389" t="n">
+        <v>7263.11</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0.140495</v>
+      </c>
+      <c r="N389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:46:21</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:48:51</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>6</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1</v>
+      </c>
+      <c r="F390" t="n">
+        <v>144</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H390" t="n">
+        <v>80</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J390" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K390" t="n">
+        <v>128</v>
+      </c>
+      <c r="L390" t="n">
+        <v>7125.68</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0.135229</v>
+      </c>
+      <c r="N390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:48:53</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:51:23</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>7</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>144</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H391" t="n">
+        <v>80</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J391" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K391" t="n">
+        <v>128</v>
+      </c>
+      <c r="L391" t="n">
+        <v>7144.5</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0.135944</v>
+      </c>
+      <c r="N391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:51:24</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:53:57</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>8</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1</v>
+      </c>
+      <c r="F392" t="n">
+        <v>144</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H392" t="n">
+        <v>80</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J392" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K392" t="n">
+        <v>128</v>
+      </c>
+      <c r="L392" t="n">
+        <v>7316.96</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.142586</v>
+      </c>
+      <c r="N392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:53:58</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:56:35</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>9</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1</v>
+      </c>
+      <c r="F393" t="n">
+        <v>144</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H393" t="n">
+        <v>80</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J393" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K393" t="n">
+        <v>128</v>
+      </c>
+      <c r="L393" t="n">
+        <v>7013.31</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0.130997</v>
+      </c>
+      <c r="N393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:56:36</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:59:05</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>10</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1</v>
+      </c>
+      <c r="F394" t="n">
+        <v>144</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H394" t="n">
+        <v>80</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J394" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K394" t="n">
+        <v>128</v>
+      </c>
+      <c r="L394" t="n">
+        <v>7210.92</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.138483</v>
+      </c>
+      <c r="N394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:59:07</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:01:36</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>11</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>144</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H395" t="n">
+        <v>80</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K395" t="n">
+        <v>128</v>
+      </c>
+      <c r="L395" t="n">
+        <v>7241.88</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.139675</v>
+      </c>
+      <c r="N395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:01:38</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:04:06</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>12</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1</v>
+      </c>
+      <c r="F396" t="n">
+        <v>144</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H396" t="n">
+        <v>80</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J396" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K396" t="n">
+        <v>128</v>
+      </c>
+      <c r="L396" t="n">
+        <v>7209.48</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0.138428</v>
+      </c>
+      <c r="N396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:04:07</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:06:37</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>13</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1</v>
+      </c>
+      <c r="F397" t="n">
+        <v>144</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H397" t="n">
+        <v>80</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J397" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K397" t="n">
+        <v>128</v>
+      </c>
+      <c r="L397" t="n">
+        <v>7110.02</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0.134635</v>
+      </c>
+      <c r="N397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:06:38</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:09:06</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>14</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1</v>
+      </c>
+      <c r="F398" t="n">
+        <v>144</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H398" t="n">
+        <v>80</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J398" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K398" t="n">
+        <v>128</v>
+      </c>
+      <c r="L398" t="n">
+        <v>7216.15</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.138684</v>
+      </c>
+      <c r="N398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:09:08</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:11:33</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>15</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1</v>
+      </c>
+      <c r="F399" t="n">
+        <v>144</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H399" t="n">
+        <v>80</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K399" t="n">
+        <v>128</v>
+      </c>
+      <c r="L399" t="n">
+        <v>7264.81</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.140561</v>
+      </c>
+      <c r="N399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:11:34</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:14:00</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>16</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1</v>
+      </c>
+      <c r="F400" t="n">
+        <v>144</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H400" t="n">
+        <v>80</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K400" t="n">
+        <v>128</v>
+      </c>
+      <c r="L400" t="n">
+        <v>7237.33</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.139499</v>
+      </c>
+      <c r="N400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:14:01</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:16:27</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>17</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>144</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H401" t="n">
+        <v>80</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K401" t="n">
+        <v>128</v>
+      </c>
+      <c r="L401" t="n">
+        <v>7211.27</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0.138497</v>
+      </c>
+      <c r="N401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:16:29</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:19:03</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>18</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1</v>
+      </c>
+      <c r="F402" t="n">
+        <v>144</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H402" t="n">
+        <v>80</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J402" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K402" t="n">
+        <v>128</v>
+      </c>
+      <c r="L402" t="n">
+        <v>7236.64</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0.139473</v>
+      </c>
+      <c r="N402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:19:05</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:21:35</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>19</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1</v>
+      </c>
+      <c r="F403" t="n">
+        <v>144</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H403" t="n">
+        <v>80</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K403" t="n">
+        <v>128</v>
+      </c>
+      <c r="L403" t="n">
+        <v>7133.47</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0.135524</v>
+      </c>
+      <c r="N403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:08:15</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:10:39</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1</v>
+      </c>
+      <c r="F404" t="n">
+        <v>144</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H404" t="n">
+        <v>80</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J404" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K404" t="n">
+        <v>128</v>
+      </c>
+      <c r="L404" t="n">
+        <v>7100.56</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.134277</v>
+      </c>
+      <c r="N404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:10:41</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:13:06</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F405" t="n">
+        <v>144</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H405" t="n">
+        <v>80</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J405" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K405" t="n">
+        <v>128</v>
+      </c>
+      <c r="L405" t="n">
+        <v>7276.5</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.141013</v>
+      </c>
+      <c r="N405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:13:08</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:15:31</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>2</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>144</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H406" t="n">
+        <v>80</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J406" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K406" t="n">
+        <v>128</v>
+      </c>
+      <c r="L406" t="n">
+        <v>7191.84</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.137751</v>
+      </c>
+      <c r="N406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:15:32</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:17:56</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1</v>
+      </c>
+      <c r="F407" t="n">
+        <v>144</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H407" t="n">
+        <v>80</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J407" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K407" t="n">
+        <v>128</v>
+      </c>
+      <c r="L407" t="n">
+        <v>7306.6</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0.142183</v>
+      </c>
+      <c r="N407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:17:57</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:20:20</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>4</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1</v>
+      </c>
+      <c r="F408" t="n">
+        <v>144</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H408" t="n">
+        <v>80</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J408" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K408" t="n">
+        <v>128</v>
+      </c>
+      <c r="L408" t="n">
+        <v>7465.53</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.148435</v>
+      </c>
+      <c r="N408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:20:22</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:22:49</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>5</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1</v>
+      </c>
+      <c r="F409" t="n">
+        <v>144</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H409" t="n">
+        <v>80</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J409" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K409" t="n">
+        <v>128</v>
+      </c>
+      <c r="L409" t="n">
+        <v>7160.85</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0.136567</v>
+      </c>
+      <c r="N409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:22:51</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:25:27</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>6</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1</v>
+      </c>
+      <c r="F410" t="n">
+        <v>144</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H410" t="n">
+        <v>80</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J410" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K410" t="n">
+        <v>128</v>
+      </c>
+      <c r="L410" t="n">
+        <v>7139.13</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.135739</v>
+      </c>
+      <c r="N410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:25:29</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:28:00</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>7</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F411" t="n">
+        <v>144</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H411" t="n">
+        <v>80</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J411" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K411" t="n">
+        <v>128</v>
+      </c>
+      <c r="L411" t="n">
+        <v>7236.92</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.139484</v>
+      </c>
+      <c r="N411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:28:02</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:30:32</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>8</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1</v>
+      </c>
+      <c r="F412" t="n">
+        <v>144</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H412" t="n">
+        <v>80</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J412" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K412" t="n">
+        <v>128</v>
+      </c>
+      <c r="L412" t="n">
+        <v>7263.17</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.140497</v>
+      </c>
+      <c r="N412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:30:34</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:33:21</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>9</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F413" t="n">
+        <v>144</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H413" t="n">
+        <v>80</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K413" t="n">
+        <v>128</v>
+      </c>
+      <c r="L413" t="n">
+        <v>7179.09</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0.137263</v>
+      </c>
+      <c r="N413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:33:23</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:36:10</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>10</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1</v>
+      </c>
+      <c r="F414" t="n">
+        <v>144</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H414" t="n">
+        <v>80</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J414" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K414" t="n">
+        <v>128</v>
+      </c>
+      <c r="L414" t="n">
+        <v>7310.99</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.142353</v>
+      </c>
+      <c r="N414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:36:12</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:38:40</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>11</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1</v>
+      </c>
+      <c r="F415" t="n">
+        <v>144</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H415" t="n">
+        <v>80</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J415" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K415" t="n">
+        <v>128</v>
+      </c>
+      <c r="L415" t="n">
+        <v>7386.93</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.145326</v>
+      </c>
+      <c r="N415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:38:42</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:41:17</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>12</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1</v>
+      </c>
+      <c r="F416" t="n">
+        <v>144</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H416" t="n">
+        <v>80</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J416" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K416" t="n">
+        <v>128</v>
+      </c>
+      <c r="L416" t="n">
+        <v>7333.57</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0.143234</v>
+      </c>
+      <c r="N416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:41:19</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:43:51</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>13</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1</v>
+      </c>
+      <c r="F417" t="n">
+        <v>144</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H417" t="n">
+        <v>80</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J417" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K417" t="n">
+        <v>128</v>
+      </c>
+      <c r="L417" t="n">
+        <v>7277.29</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.141044</v>
+      </c>
+      <c r="N417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:43:52</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:46:28</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>14</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>144</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H418" t="n">
+        <v>80</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J418" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K418" t="n">
+        <v>128</v>
+      </c>
+      <c r="L418" t="n">
+        <v>7184.66</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.137477</v>
+      </c>
+      <c r="N418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:46:30</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:49:02</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>15</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>144</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H419" t="n">
+        <v>80</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J419" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K419" t="n">
+        <v>128</v>
+      </c>
+      <c r="L419" t="n">
+        <v>7091.67</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.133941</v>
+      </c>
+      <c r="N419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:49:03</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:51:29</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>16</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E420" t="n">
+        <v>1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>144</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H420" t="n">
+        <v>80</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J420" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K420" t="n">
+        <v>128</v>
+      </c>
+      <c r="L420" t="n">
+        <v>7243.55</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.139739</v>
+      </c>
+      <c r="N420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:51:30</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:53:55</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>17</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>144</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H421" t="n">
+        <v>80</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J421" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K421" t="n">
+        <v>128</v>
+      </c>
+      <c r="L421" t="n">
+        <v>7248.17</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0.139918</v>
+      </c>
+      <c r="N421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:53:57</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:56:23</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>18</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>144</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H422" t="n">
+        <v>80</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K422" t="n">
+        <v>128</v>
+      </c>
+      <c r="L422" t="n">
+        <v>7287.41</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.141437</v>
+      </c>
+      <c r="N422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:56:25</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:58:52</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>19</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>144</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H423" t="n">
+        <v>80</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J423" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K423" t="n">
+        <v>128</v>
+      </c>
+      <c r="L423" t="n">
+        <v>7345.25</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.143691</v>
+      </c>
+      <c r="N423" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N423"/>
+  <dimension ref="A1:N543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19533,6 +19533,5526 @@
       </c>
       <c r="N423" t="inlineStr"/>
     </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:06:35</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:09:02</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1</v>
+      </c>
+      <c r="F424" t="n">
+        <v>144</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H424" t="n">
+        <v>80</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J424" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K424" t="n">
+        <v>128</v>
+      </c>
+      <c r="L424" t="n">
+        <v>7536.19</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.151258</v>
+      </c>
+      <c r="N424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:09:04</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:11:19</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1</v>
+      </c>
+      <c r="F425" t="n">
+        <v>144</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H425" t="n">
+        <v>80</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J425" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K425" t="n">
+        <v>128</v>
+      </c>
+      <c r="L425" t="n">
+        <v>7393.44</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0.145583</v>
+      </c>
+      <c r="N425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:11:20</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:13:36</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>2</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E426" t="n">
+        <v>1</v>
+      </c>
+      <c r="F426" t="n">
+        <v>144</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H426" t="n">
+        <v>80</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J426" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K426" t="n">
+        <v>128</v>
+      </c>
+      <c r="L426" t="n">
+        <v>7345.7</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0.143709</v>
+      </c>
+      <c r="N426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:13:38</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:15:53</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>3</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1</v>
+      </c>
+      <c r="F427" t="n">
+        <v>144</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H427" t="n">
+        <v>80</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J427" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K427" t="n">
+        <v>128</v>
+      </c>
+      <c r="L427" t="n">
+        <v>7256.84</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.140253</v>
+      </c>
+      <c r="N427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:15:54</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:18:10</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>4</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1</v>
+      </c>
+      <c r="F428" t="n">
+        <v>144</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H428" t="n">
+        <v>80</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J428" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K428" t="n">
+        <v>128</v>
+      </c>
+      <c r="L428" t="n">
+        <v>7190.2</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0.137689</v>
+      </c>
+      <c r="N428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:18:12</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:20:29</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>5</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>144</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H429" t="n">
+        <v>80</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J429" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K429" t="n">
+        <v>128</v>
+      </c>
+      <c r="L429" t="n">
+        <v>7142.79</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0.135879</v>
+      </c>
+      <c r="N429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:20:31</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:22:46</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>6</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E430" t="n">
+        <v>1</v>
+      </c>
+      <c r="F430" t="n">
+        <v>144</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H430" t="n">
+        <v>80</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J430" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K430" t="n">
+        <v>128</v>
+      </c>
+      <c r="L430" t="n">
+        <v>7365.93</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0.144501</v>
+      </c>
+      <c r="N430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:22:47</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:25:03</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>7</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1</v>
+      </c>
+      <c r="F431" t="n">
+        <v>144</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H431" t="n">
+        <v>80</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J431" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K431" t="n">
+        <v>128</v>
+      </c>
+      <c r="L431" t="n">
+        <v>7217.54</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0.138738</v>
+      </c>
+      <c r="N431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:25:04</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:27:20</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>8</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1</v>
+      </c>
+      <c r="F432" t="n">
+        <v>144</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H432" t="n">
+        <v>80</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J432" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K432" t="n">
+        <v>128</v>
+      </c>
+      <c r="L432" t="n">
+        <v>6993.36</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0.130253</v>
+      </c>
+      <c r="N432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:27:22</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:29:38</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>9</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E433" t="n">
+        <v>1</v>
+      </c>
+      <c r="F433" t="n">
+        <v>144</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H433" t="n">
+        <v>80</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J433" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K433" t="n">
+        <v>128</v>
+      </c>
+      <c r="L433" t="n">
+        <v>7075.85</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0.133344</v>
+      </c>
+      <c r="N433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:29:40</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:31:50</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>10</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E434" t="n">
+        <v>1</v>
+      </c>
+      <c r="F434" t="n">
+        <v>144</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H434" t="n">
+        <v>80</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K434" t="n">
+        <v>128</v>
+      </c>
+      <c r="L434" t="n">
+        <v>7170.85</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.136949</v>
+      </c>
+      <c r="N434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:31:52</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:34:02</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>11</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" t="n">
+        <v>144</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H435" t="n">
+        <v>80</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K435" t="n">
+        <v>128</v>
+      </c>
+      <c r="L435" t="n">
+        <v>7450.1</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0.147822</v>
+      </c>
+      <c r="N435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:34:04</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:36:13</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>12</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1</v>
+      </c>
+      <c r="F436" t="n">
+        <v>144</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H436" t="n">
+        <v>80</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J436" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K436" t="n">
+        <v>128</v>
+      </c>
+      <c r="L436" t="n">
+        <v>7320.27</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0.142715</v>
+      </c>
+      <c r="N436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:36:15</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:38:24</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>13</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1</v>
+      </c>
+      <c r="F437" t="n">
+        <v>144</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H437" t="n">
+        <v>80</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J437" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K437" t="n">
+        <v>128</v>
+      </c>
+      <c r="L437" t="n">
+        <v>7104.93</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0.134442</v>
+      </c>
+      <c r="N437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:38:26</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:40:36</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>14</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E438" t="n">
+        <v>1</v>
+      </c>
+      <c r="F438" t="n">
+        <v>144</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H438" t="n">
+        <v>80</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J438" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K438" t="n">
+        <v>128</v>
+      </c>
+      <c r="L438" t="n">
+        <v>7392.47</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0.145544</v>
+      </c>
+      <c r="N438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:40:38</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:42:48</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>15</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E439" t="n">
+        <v>1</v>
+      </c>
+      <c r="F439" t="n">
+        <v>144</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H439" t="n">
+        <v>80</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J439" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K439" t="n">
+        <v>128</v>
+      </c>
+      <c r="L439" t="n">
+        <v>7166.55</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0.136784</v>
+      </c>
+      <c r="N439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:42:51</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:45:00</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>16</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1</v>
+      </c>
+      <c r="F440" t="n">
+        <v>144</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H440" t="n">
+        <v>80</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J440" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K440" t="n">
+        <v>128</v>
+      </c>
+      <c r="L440" t="n">
+        <v>7259.24</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0.140345</v>
+      </c>
+      <c r="N440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:45:02</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:47:12</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>17</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E441" t="n">
+        <v>1</v>
+      </c>
+      <c r="F441" t="n">
+        <v>144</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H441" t="n">
+        <v>80</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J441" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K441" t="n">
+        <v>128</v>
+      </c>
+      <c r="L441" t="n">
+        <v>7286.27</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0.141392</v>
+      </c>
+      <c r="N441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:47:14</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:50:12</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>18</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1</v>
+      </c>
+      <c r="F442" t="n">
+        <v>144</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H442" t="n">
+        <v>80</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J442" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K442" t="n">
+        <v>128</v>
+      </c>
+      <c r="L442" t="n">
+        <v>7406.65</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0.146103</v>
+      </c>
+      <c r="N442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:50:15</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2025-02-22 12:53:34</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>19</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E443" t="n">
+        <v>1</v>
+      </c>
+      <c r="F443" t="n">
+        <v>144</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H443" t="n">
+        <v>80</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J443" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K443" t="n">
+        <v>128</v>
+      </c>
+      <c r="L443" t="n">
+        <v>7228.72</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0.139168</v>
+      </c>
+      <c r="N443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-02-22 14:58:38</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:02:16</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E444" t="n">
+        <v>1</v>
+      </c>
+      <c r="F444" t="n">
+        <v>144</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H444" t="n">
+        <v>80</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J444" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K444" t="n">
+        <v>128</v>
+      </c>
+      <c r="L444" t="n">
+        <v>7500.6</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0.149833</v>
+      </c>
+      <c r="N444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:02:19</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:06:05</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E445" t="n">
+        <v>1</v>
+      </c>
+      <c r="F445" t="n">
+        <v>144</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H445" t="n">
+        <v>80</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J445" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K445" t="n">
+        <v>128</v>
+      </c>
+      <c r="L445" t="n">
+        <v>7270.94</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0.140798</v>
+      </c>
+      <c r="N445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:06:08</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:09:52</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>2</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E446" t="n">
+        <v>1</v>
+      </c>
+      <c r="F446" t="n">
+        <v>144</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H446" t="n">
+        <v>80</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J446" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K446" t="n">
+        <v>128</v>
+      </c>
+      <c r="L446" t="n">
+        <v>7111.43</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.134688</v>
+      </c>
+      <c r="N446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:09:54</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:13:33</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>3</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1</v>
+      </c>
+      <c r="F447" t="n">
+        <v>144</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H447" t="n">
+        <v>80</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K447" t="n">
+        <v>128</v>
+      </c>
+      <c r="L447" t="n">
+        <v>7270.82</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0.140794</v>
+      </c>
+      <c r="N447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:13:35</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:17:12</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>4</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E448" t="n">
+        <v>1</v>
+      </c>
+      <c r="F448" t="n">
+        <v>144</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H448" t="n">
+        <v>80</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K448" t="n">
+        <v>128</v>
+      </c>
+      <c r="L448" t="n">
+        <v>7392.32</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0.145538</v>
+      </c>
+      <c r="N448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:17:14</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:20:50</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>5</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E449" t="n">
+        <v>1</v>
+      </c>
+      <c r="F449" t="n">
+        <v>144</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H449" t="n">
+        <v>80</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J449" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K449" t="n">
+        <v>128</v>
+      </c>
+      <c r="L449" t="n">
+        <v>7195.26</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0.137882</v>
+      </c>
+      <c r="N449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:20:52</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:24:16</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>6</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1</v>
+      </c>
+      <c r="F450" t="n">
+        <v>144</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H450" t="n">
+        <v>80</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J450" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K450" t="n">
+        <v>128</v>
+      </c>
+      <c r="L450" t="n">
+        <v>7183.96</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0.13745</v>
+      </c>
+      <c r="N450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:24:18</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:27:28</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>7</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E451" t="n">
+        <v>1</v>
+      </c>
+      <c r="F451" t="n">
+        <v>144</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H451" t="n">
+        <v>80</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J451" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K451" t="n">
+        <v>128</v>
+      </c>
+      <c r="L451" t="n">
+        <v>7218.84</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0.138788</v>
+      </c>
+      <c r="N451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:27:30</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:31:01</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>8</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E452" t="n">
+        <v>1</v>
+      </c>
+      <c r="F452" t="n">
+        <v>144</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H452" t="n">
+        <v>80</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K452" t="n">
+        <v>128</v>
+      </c>
+      <c r="L452" t="n">
+        <v>7214.45</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0.138619</v>
+      </c>
+      <c r="N452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:31:04</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:34:25</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>9</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E453" t="n">
+        <v>1</v>
+      </c>
+      <c r="F453" t="n">
+        <v>144</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H453" t="n">
+        <v>80</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J453" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K453" t="n">
+        <v>128</v>
+      </c>
+      <c r="L453" t="n">
+        <v>7156.49</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0.1364</v>
+      </c>
+      <c r="N453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:34:27</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:37:38</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>10</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1</v>
+      </c>
+      <c r="F454" t="n">
+        <v>144</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H454" t="n">
+        <v>80</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J454" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K454" t="n">
+        <v>128</v>
+      </c>
+      <c r="L454" t="n">
+        <v>7357.97</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0.144189</v>
+      </c>
+      <c r="N454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:37:40</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:40:55</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>11</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E455" t="n">
+        <v>1</v>
+      </c>
+      <c r="F455" t="n">
+        <v>144</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H455" t="n">
+        <v>80</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J455" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K455" t="n">
+        <v>128</v>
+      </c>
+      <c r="L455" t="n">
+        <v>7165.12</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0.13673</v>
+      </c>
+      <c r="N455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:40:57</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:44:34</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>12</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E456" t="n">
+        <v>1</v>
+      </c>
+      <c r="F456" t="n">
+        <v>144</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H456" t="n">
+        <v>80</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J456" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K456" t="n">
+        <v>128</v>
+      </c>
+      <c r="L456" t="n">
+        <v>7350.72</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0.143905</v>
+      </c>
+      <c r="N456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:44:36</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:48:14</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>13</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E457" t="n">
+        <v>1</v>
+      </c>
+      <c r="F457" t="n">
+        <v>144</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H457" t="n">
+        <v>80</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J457" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K457" t="n">
+        <v>128</v>
+      </c>
+      <c r="L457" t="n">
+        <v>7368.21</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0.144591</v>
+      </c>
+      <c r="N457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:48:16</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:51:51</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>14</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E458" t="n">
+        <v>1</v>
+      </c>
+      <c r="F458" t="n">
+        <v>144</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H458" t="n">
+        <v>80</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J458" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K458" t="n">
+        <v>128</v>
+      </c>
+      <c r="L458" t="n">
+        <v>7366.39</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0.144519</v>
+      </c>
+      <c r="N458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:51:55</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:55:31</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>15</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1</v>
+      </c>
+      <c r="F459" t="n">
+        <v>144</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H459" t="n">
+        <v>80</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J459" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K459" t="n">
+        <v>128</v>
+      </c>
+      <c r="L459" t="n">
+        <v>7467.04</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0.148495</v>
+      </c>
+      <c r="N459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:55:34</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:58:58</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>16</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1</v>
+      </c>
+      <c r="F460" t="n">
+        <v>144</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H460" t="n">
+        <v>80</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J460" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K460" t="n">
+        <v>128</v>
+      </c>
+      <c r="L460" t="n">
+        <v>7202.61</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0.138164</v>
+      </c>
+      <c r="N460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-02-22 15:59:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:02:03</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>17</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1</v>
+      </c>
+      <c r="F461" t="n">
+        <v>144</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H461" t="n">
+        <v>80</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J461" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K461" t="n">
+        <v>128</v>
+      </c>
+      <c r="L461" t="n">
+        <v>7264.94</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0.140566</v>
+      </c>
+      <c r="N461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:02:06</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:05:44</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>18</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1</v>
+      </c>
+      <c r="F462" t="n">
+        <v>144</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H462" t="n">
+        <v>80</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J462" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K462" t="n">
+        <v>128</v>
+      </c>
+      <c r="L462" t="n">
+        <v>7037.55</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0.131904</v>
+      </c>
+      <c r="N462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:05:47</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:09:29</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>19</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1</v>
+      </c>
+      <c r="F463" t="n">
+        <v>144</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H463" t="n">
+        <v>80</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J463" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K463" t="n">
+        <v>128</v>
+      </c>
+      <c r="L463" t="n">
+        <v>7418.17</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0.146558</v>
+      </c>
+      <c r="N463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:16:06</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:18:32</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1</v>
+      </c>
+      <c r="F464" t="n">
+        <v>144</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H464" t="n">
+        <v>80</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J464" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K464" t="n">
+        <v>128</v>
+      </c>
+      <c r="L464" t="n">
+        <v>7047.99</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0.132296</v>
+      </c>
+      <c r="N464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:18:34</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:21:05</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1</v>
+      </c>
+      <c r="F465" t="n">
+        <v>144</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H465" t="n">
+        <v>80</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J465" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K465" t="n">
+        <v>128</v>
+      </c>
+      <c r="L465" t="n">
+        <v>7232.45</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.139311</v>
+      </c>
+      <c r="N465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:21:07</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:23:39</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1</v>
+      </c>
+      <c r="F466" t="n">
+        <v>144</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H466" t="n">
+        <v>80</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J466" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K466" t="n">
+        <v>128</v>
+      </c>
+      <c r="L466" t="n">
+        <v>7320.88</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0.142739</v>
+      </c>
+      <c r="N466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:23:40</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:26:12</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>3</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1</v>
+      </c>
+      <c r="F467" t="n">
+        <v>144</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H467" t="n">
+        <v>80</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K467" t="n">
+        <v>128</v>
+      </c>
+      <c r="L467" t="n">
+        <v>7196.23</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0.137919</v>
+      </c>
+      <c r="N467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:26:14</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:28:41</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>4</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1</v>
+      </c>
+      <c r="F468" t="n">
+        <v>144</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H468" t="n">
+        <v>80</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J468" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K468" t="n">
+        <v>128</v>
+      </c>
+      <c r="L468" t="n">
+        <v>7119.06</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0.134977</v>
+      </c>
+      <c r="N468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:28:43</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:31:10</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>5</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1</v>
+      </c>
+      <c r="F469" t="n">
+        <v>144</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H469" t="n">
+        <v>80</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J469" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K469" t="n">
+        <v>128</v>
+      </c>
+      <c r="L469" t="n">
+        <v>7326.26</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0.142949</v>
+      </c>
+      <c r="N469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:31:12</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:33:44</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>6</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1</v>
+      </c>
+      <c r="F470" t="n">
+        <v>144</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H470" t="n">
+        <v>80</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J470" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K470" t="n">
+        <v>128</v>
+      </c>
+      <c r="L470" t="n">
+        <v>7087.74</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0.133792</v>
+      </c>
+      <c r="N470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:33:46</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:36:14</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>7</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1</v>
+      </c>
+      <c r="F471" t="n">
+        <v>144</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H471" t="n">
+        <v>80</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J471" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K471" t="n">
+        <v>128</v>
+      </c>
+      <c r="L471" t="n">
+        <v>7223.66</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0.138973</v>
+      </c>
+      <c r="N471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:36:16</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:38:45</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>8</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E472" t="n">
+        <v>1</v>
+      </c>
+      <c r="F472" t="n">
+        <v>144</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H472" t="n">
+        <v>80</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J472" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K472" t="n">
+        <v>128</v>
+      </c>
+      <c r="L472" t="n">
+        <v>7299</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0.141887</v>
+      </c>
+      <c r="N472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:38:47</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:41:13</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>9</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1</v>
+      </c>
+      <c r="F473" t="n">
+        <v>144</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H473" t="n">
+        <v>80</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J473" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K473" t="n">
+        <v>128</v>
+      </c>
+      <c r="L473" t="n">
+        <v>7264.02</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0.14053</v>
+      </c>
+      <c r="N473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:41:15</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:43:38</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>10</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E474" t="n">
+        <v>1</v>
+      </c>
+      <c r="F474" t="n">
+        <v>144</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H474" t="n">
+        <v>80</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J474" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K474" t="n">
+        <v>128</v>
+      </c>
+      <c r="L474" t="n">
+        <v>6962.34</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0.1291</v>
+      </c>
+      <c r="N474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:43:40</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:46:05</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>11</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E475" t="n">
+        <v>1</v>
+      </c>
+      <c r="F475" t="n">
+        <v>144</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H475" t="n">
+        <v>80</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J475" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K475" t="n">
+        <v>128</v>
+      </c>
+      <c r="L475" t="n">
+        <v>7208.09</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0.138375</v>
+      </c>
+      <c r="N475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:46:07</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:48:37</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>12</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1</v>
+      </c>
+      <c r="F476" t="n">
+        <v>144</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H476" t="n">
+        <v>80</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J476" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K476" t="n">
+        <v>128</v>
+      </c>
+      <c r="L476" t="n">
+        <v>7097.21</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0.13415</v>
+      </c>
+      <c r="N476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:48:38</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:51:05</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>13</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E477" t="n">
+        <v>1</v>
+      </c>
+      <c r="F477" t="n">
+        <v>144</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H477" t="n">
+        <v>80</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J477" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K477" t="n">
+        <v>128</v>
+      </c>
+      <c r="L477" t="n">
+        <v>7266.19</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0.140614</v>
+      </c>
+      <c r="N477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:51:07</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:53:29</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>14</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E478" t="n">
+        <v>1</v>
+      </c>
+      <c r="F478" t="n">
+        <v>144</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H478" t="n">
+        <v>80</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J478" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K478" t="n">
+        <v>128</v>
+      </c>
+      <c r="L478" t="n">
+        <v>7459.86</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0.14821</v>
+      </c>
+      <c r="N478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:53:31</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:55:57</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>15</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1</v>
+      </c>
+      <c r="F479" t="n">
+        <v>144</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H479" t="n">
+        <v>80</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J479" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K479" t="n">
+        <v>128</v>
+      </c>
+      <c r="L479" t="n">
+        <v>7107.7</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0.134547</v>
+      </c>
+      <c r="N479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:55:59</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:58:24</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>16</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1</v>
+      </c>
+      <c r="F480" t="n">
+        <v>144</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H480" t="n">
+        <v>80</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J480" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K480" t="n">
+        <v>128</v>
+      </c>
+      <c r="L480" t="n">
+        <v>7210.61</v>
+      </c>
+      <c r="M480" t="n">
+        <v>0.138471</v>
+      </c>
+      <c r="N480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:58:25</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:00:50</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>17</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1</v>
+      </c>
+      <c r="F481" t="n">
+        <v>144</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H481" t="n">
+        <v>80</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J481" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K481" t="n">
+        <v>128</v>
+      </c>
+      <c r="L481" t="n">
+        <v>7260.09</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0.140378</v>
+      </c>
+      <c r="N481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:00:52</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:03:18</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>18</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1</v>
+      </c>
+      <c r="F482" t="n">
+        <v>144</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H482" t="n">
+        <v>80</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J482" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K482" t="n">
+        <v>128</v>
+      </c>
+      <c r="L482" t="n">
+        <v>7104.61</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0.13443</v>
+      </c>
+      <c r="N482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:03:19</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:05:46</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>19</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1</v>
+      </c>
+      <c r="F483" t="n">
+        <v>144</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H483" t="n">
+        <v>80</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J483" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K483" t="n">
+        <v>128</v>
+      </c>
+      <c r="L483" t="n">
+        <v>7415.86</v>
+      </c>
+      <c r="M483" t="n">
+        <v>0.146467</v>
+      </c>
+      <c r="N483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:39:32</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:41:52</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1</v>
+      </c>
+      <c r="F484" t="n">
+        <v>144</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H484" t="n">
+        <v>80</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J484" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K484" t="n">
+        <v>128</v>
+      </c>
+      <c r="L484" t="n">
+        <v>7186.07</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="N484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:41:54</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:44:16</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F485" t="n">
+        <v>144</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H485" t="n">
+        <v>80</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J485" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K485" t="n">
+        <v>128</v>
+      </c>
+      <c r="L485" t="n">
+        <v>7157.09</v>
+      </c>
+      <c r="M485" t="n">
+        <v>0.136423</v>
+      </c>
+      <c r="N485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:44:18</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:46:38</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>2</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>144</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H486" t="n">
+        <v>80</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J486" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K486" t="n">
+        <v>128</v>
+      </c>
+      <c r="L486" t="n">
+        <v>7402.26</v>
+      </c>
+      <c r="M486" t="n">
+        <v>0.14593</v>
+      </c>
+      <c r="N486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:46:40</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:49:05</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>3</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>144</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H487" t="n">
+        <v>80</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J487" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K487" t="n">
+        <v>128</v>
+      </c>
+      <c r="L487" t="n">
+        <v>7175.52</v>
+      </c>
+      <c r="M487" t="n">
+        <v>0.137127</v>
+      </c>
+      <c r="N487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:49:07</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:51:34</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>4</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E488" t="n">
+        <v>1</v>
+      </c>
+      <c r="F488" t="n">
+        <v>144</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H488" t="n">
+        <v>80</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K488" t="n">
+        <v>128</v>
+      </c>
+      <c r="L488" t="n">
+        <v>7250.39</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0.140003</v>
+      </c>
+      <c r="N488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:51:36</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:54:08</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>5</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E489" t="n">
+        <v>1</v>
+      </c>
+      <c r="F489" t="n">
+        <v>144</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H489" t="n">
+        <v>80</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J489" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K489" t="n">
+        <v>128</v>
+      </c>
+      <c r="L489" t="n">
+        <v>7287.66</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0.141446</v>
+      </c>
+      <c r="N489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:54:10</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:56:47</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>6</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E490" t="n">
+        <v>1</v>
+      </c>
+      <c r="F490" t="n">
+        <v>144</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H490" t="n">
+        <v>80</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J490" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K490" t="n">
+        <v>128</v>
+      </c>
+      <c r="L490" t="n">
+        <v>7099.77</v>
+      </c>
+      <c r="M490" t="n">
+        <v>0.134247</v>
+      </c>
+      <c r="N490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:56:49</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:59:21</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>7</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E491" t="n">
+        <v>1</v>
+      </c>
+      <c r="F491" t="n">
+        <v>144</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H491" t="n">
+        <v>80</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J491" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K491" t="n">
+        <v>128</v>
+      </c>
+      <c r="L491" t="n">
+        <v>7127.04</v>
+      </c>
+      <c r="M491" t="n">
+        <v>0.13528</v>
+      </c>
+      <c r="N491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-02-23 16:59:22</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:01:50</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>8</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E492" t="n">
+        <v>1</v>
+      </c>
+      <c r="F492" t="n">
+        <v>144</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H492" t="n">
+        <v>80</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J492" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K492" t="n">
+        <v>128</v>
+      </c>
+      <c r="L492" t="n">
+        <v>7204.9</v>
+      </c>
+      <c r="M492" t="n">
+        <v>0.138252</v>
+      </c>
+      <c r="N492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:01:52</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:04:20</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>9</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E493" t="n">
+        <v>1</v>
+      </c>
+      <c r="F493" t="n">
+        <v>144</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H493" t="n">
+        <v>80</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J493" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K493" t="n">
+        <v>128</v>
+      </c>
+      <c r="L493" t="n">
+        <v>6956.71</v>
+      </c>
+      <c r="M493" t="n">
+        <v>0.128891</v>
+      </c>
+      <c r="N493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:04:22</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:06:52</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>10</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E494" t="n">
+        <v>1</v>
+      </c>
+      <c r="F494" t="n">
+        <v>144</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H494" t="n">
+        <v>80</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J494" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K494" t="n">
+        <v>128</v>
+      </c>
+      <c r="L494" t="n">
+        <v>7284.63</v>
+      </c>
+      <c r="M494" t="n">
+        <v>0.141329</v>
+      </c>
+      <c r="N494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:06:53</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:09:25</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>11</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1</v>
+      </c>
+      <c r="F495" t="n">
+        <v>144</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H495" t="n">
+        <v>80</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J495" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K495" t="n">
+        <v>128</v>
+      </c>
+      <c r="L495" t="n">
+        <v>7232.58</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0.139316</v>
+      </c>
+      <c r="N495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:09:27</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:12:04</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>12</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E496" t="n">
+        <v>1</v>
+      </c>
+      <c r="F496" t="n">
+        <v>144</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H496" t="n">
+        <v>80</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J496" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K496" t="n">
+        <v>128</v>
+      </c>
+      <c r="L496" t="n">
+        <v>6997.82</v>
+      </c>
+      <c r="M496" t="n">
+        <v>0.130419</v>
+      </c>
+      <c r="N496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:12:06</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:14:44</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>13</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E497" t="n">
+        <v>1</v>
+      </c>
+      <c r="F497" t="n">
+        <v>144</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H497" t="n">
+        <v>80</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J497" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K497" t="n">
+        <v>128</v>
+      </c>
+      <c r="L497" t="n">
+        <v>7220</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0.138832</v>
+      </c>
+      <c r="N497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:14:46</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:17:25</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>14</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1</v>
+      </c>
+      <c r="F498" t="n">
+        <v>144</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H498" t="n">
+        <v>80</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J498" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K498" t="n">
+        <v>128</v>
+      </c>
+      <c r="L498" t="n">
+        <v>7057.54</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0.132654</v>
+      </c>
+      <c r="N498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:17:26</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:20:02</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>15</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E499" t="n">
+        <v>1</v>
+      </c>
+      <c r="F499" t="n">
+        <v>144</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H499" t="n">
+        <v>80</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J499" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K499" t="n">
+        <v>128</v>
+      </c>
+      <c r="L499" t="n">
+        <v>7303.89</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0.142077</v>
+      </c>
+      <c r="N499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:20:04</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:22:42</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>16</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E500" t="n">
+        <v>1</v>
+      </c>
+      <c r="F500" t="n">
+        <v>144</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H500" t="n">
+        <v>80</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J500" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K500" t="n">
+        <v>128</v>
+      </c>
+      <c r="L500" t="n">
+        <v>7230.21</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0.139225</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:22:44</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:25:36</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>17</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E501" t="n">
+        <v>1</v>
+      </c>
+      <c r="F501" t="n">
+        <v>144</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H501" t="n">
+        <v>80</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J501" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K501" t="n">
+        <v>128</v>
+      </c>
+      <c r="L501" t="n">
+        <v>7111.88</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0.134705</v>
+      </c>
+      <c r="N501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:25:38</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:28:20</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>18</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E502" t="n">
+        <v>1</v>
+      </c>
+      <c r="F502" t="n">
+        <v>144</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H502" t="n">
+        <v>80</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J502" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K502" t="n">
+        <v>128</v>
+      </c>
+      <c r="L502" t="n">
+        <v>7011.69</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0.130936</v>
+      </c>
+      <c r="N502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:28:22</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:30:59</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>19</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1</v>
+      </c>
+      <c r="F503" t="n">
+        <v>144</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H503" t="n">
+        <v>80</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J503" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K503" t="n">
+        <v>128</v>
+      </c>
+      <c r="L503" t="n">
+        <v>7332.09</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0.143176</v>
+      </c>
+      <c r="N503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:42:23</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:44:53</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E504" t="n">
+        <v>1</v>
+      </c>
+      <c r="F504" t="n">
+        <v>144</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H504" t="n">
+        <v>80</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J504" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K504" t="n">
+        <v>128</v>
+      </c>
+      <c r="L504" t="n">
+        <v>7301.11</v>
+      </c>
+      <c r="M504" t="n">
+        <v>0.141969</v>
+      </c>
+      <c r="N504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:44:55</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:47:23</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E505" t="n">
+        <v>1</v>
+      </c>
+      <c r="F505" t="n">
+        <v>144</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H505" t="n">
+        <v>80</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J505" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K505" t="n">
+        <v>128</v>
+      </c>
+      <c r="L505" t="n">
+        <v>7319.52</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0.142686</v>
+      </c>
+      <c r="N505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:47:25</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:49:50</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>2</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E506" t="n">
+        <v>1</v>
+      </c>
+      <c r="F506" t="n">
+        <v>144</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H506" t="n">
+        <v>80</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J506" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K506" t="n">
+        <v>128</v>
+      </c>
+      <c r="L506" t="n">
+        <v>7290.85</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0.14157</v>
+      </c>
+      <c r="N506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:49:52</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:52:20</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>3</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E507" t="n">
+        <v>1</v>
+      </c>
+      <c r="F507" t="n">
+        <v>144</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H507" t="n">
+        <v>80</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J507" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K507" t="n">
+        <v>128</v>
+      </c>
+      <c r="L507" t="n">
+        <v>7092.98</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0.13399</v>
+      </c>
+      <c r="N507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:52:22</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:54:50</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>4</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E508" t="n">
+        <v>1</v>
+      </c>
+      <c r="F508" t="n">
+        <v>144</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H508" t="n">
+        <v>80</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J508" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K508" t="n">
+        <v>128</v>
+      </c>
+      <c r="L508" t="n">
+        <v>7035.84</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0.13184</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:54:52</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:57:17</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>5</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E509" t="n">
+        <v>1</v>
+      </c>
+      <c r="F509" t="n">
+        <v>144</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H509" t="n">
+        <v>80</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J509" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K509" t="n">
+        <v>128</v>
+      </c>
+      <c r="L509" t="n">
+        <v>7019.52</v>
+      </c>
+      <c r="M509" t="n">
+        <v>0.131229</v>
+      </c>
+      <c r="N509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:57:19</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:59:42</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>6</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E510" t="n">
+        <v>1</v>
+      </c>
+      <c r="F510" t="n">
+        <v>144</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H510" t="n">
+        <v>80</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J510" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K510" t="n">
+        <v>128</v>
+      </c>
+      <c r="L510" t="n">
+        <v>7199.1</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0.13803</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:59:43</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:02:08</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>7</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E511" t="n">
+        <v>1</v>
+      </c>
+      <c r="F511" t="n">
+        <v>144</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H511" t="n">
+        <v>80</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J511" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K511" t="n">
+        <v>128</v>
+      </c>
+      <c r="L511" t="n">
+        <v>7229.59</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0.139201</v>
+      </c>
+      <c r="N511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:02:09</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:04:34</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>8</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E512" t="n">
+        <v>1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>144</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H512" t="n">
+        <v>80</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J512" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K512" t="n">
+        <v>128</v>
+      </c>
+      <c r="L512" t="n">
+        <v>7295.04</v>
+      </c>
+      <c r="M512" t="n">
+        <v>0.141733</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:04:36</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:07:06</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>9</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E513" t="n">
+        <v>1</v>
+      </c>
+      <c r="F513" t="n">
+        <v>144</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H513" t="n">
+        <v>80</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J513" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K513" t="n">
+        <v>128</v>
+      </c>
+      <c r="L513" t="n">
+        <v>7062.33</v>
+      </c>
+      <c r="M513" t="n">
+        <v>0.132835</v>
+      </c>
+      <c r="N513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:07:07</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:09:34</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>10</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1</v>
+      </c>
+      <c r="F514" t="n">
+        <v>144</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H514" t="n">
+        <v>80</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J514" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K514" t="n">
+        <v>128</v>
+      </c>
+      <c r="L514" t="n">
+        <v>7004.52</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0.130669</v>
+      </c>
+      <c r="N514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:09:37</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:12:02</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>11</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E515" t="n">
+        <v>1</v>
+      </c>
+      <c r="F515" t="n">
+        <v>144</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H515" t="n">
+        <v>80</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J515" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K515" t="n">
+        <v>128</v>
+      </c>
+      <c r="L515" t="n">
+        <v>7263.23</v>
+      </c>
+      <c r="M515" t="n">
+        <v>0.1405</v>
+      </c>
+      <c r="N515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:12:04</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:14:29</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>12</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1</v>
+      </c>
+      <c r="F516" t="n">
+        <v>144</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H516" t="n">
+        <v>80</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J516" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K516" t="n">
+        <v>128</v>
+      </c>
+      <c r="L516" t="n">
+        <v>7180.64</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0.137322</v>
+      </c>
+      <c r="N516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:14:31</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:16:52</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>13</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E517" t="n">
+        <v>1</v>
+      </c>
+      <c r="F517" t="n">
+        <v>144</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H517" t="n">
+        <v>80</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J517" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K517" t="n">
+        <v>128</v>
+      </c>
+      <c r="L517" t="n">
+        <v>7233.59</v>
+      </c>
+      <c r="M517" t="n">
+        <v>0.139355</v>
+      </c>
+      <c r="N517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:16:54</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:19:17</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>14</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E518" t="n">
+        <v>1</v>
+      </c>
+      <c r="F518" t="n">
+        <v>144</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H518" t="n">
+        <v>80</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J518" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K518" t="n">
+        <v>128</v>
+      </c>
+      <c r="L518" t="n">
+        <v>7485.06</v>
+      </c>
+      <c r="M518" t="n">
+        <v>0.149213</v>
+      </c>
+      <c r="N518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:19:18</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:21:39</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>15</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E519" t="n">
+        <v>1</v>
+      </c>
+      <c r="F519" t="n">
+        <v>144</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H519" t="n">
+        <v>80</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J519" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K519" t="n">
+        <v>128</v>
+      </c>
+      <c r="L519" t="n">
+        <v>7311.88</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0.142388</v>
+      </c>
+      <c r="N519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:21:41</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:24:07</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>16</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E520" t="n">
+        <v>1</v>
+      </c>
+      <c r="F520" t="n">
+        <v>144</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H520" t="n">
+        <v>80</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J520" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K520" t="n">
+        <v>128</v>
+      </c>
+      <c r="L520" t="n">
+        <v>7265.39</v>
+      </c>
+      <c r="M520" t="n">
+        <v>0.140583</v>
+      </c>
+      <c r="N520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:24:09</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:26:36</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>17</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1</v>
+      </c>
+      <c r="F521" t="n">
+        <v>144</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H521" t="n">
+        <v>80</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J521" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K521" t="n">
+        <v>128</v>
+      </c>
+      <c r="L521" t="n">
+        <v>7283.5</v>
+      </c>
+      <c r="M521" t="n">
+        <v>0.141285</v>
+      </c>
+      <c r="N521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:26:38</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:29:05</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>18</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E522" t="n">
+        <v>1</v>
+      </c>
+      <c r="F522" t="n">
+        <v>144</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H522" t="n">
+        <v>80</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J522" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K522" t="n">
+        <v>128</v>
+      </c>
+      <c r="L522" t="n">
+        <v>7175.1</v>
+      </c>
+      <c r="M522" t="n">
+        <v>0.137111</v>
+      </c>
+      <c r="N522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:29:06</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2025-02-23 19:31:32</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>19</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E523" t="n">
+        <v>1</v>
+      </c>
+      <c r="F523" t="n">
+        <v>144</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H523" t="n">
+        <v>80</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J523" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K523" t="n">
+        <v>128</v>
+      </c>
+      <c r="L523" t="n">
+        <v>7069.98</v>
+      </c>
+      <c r="M523" t="n">
+        <v>0.133123</v>
+      </c>
+      <c r="N523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:21:53</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:24:28</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>0</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E524" t="n">
+        <v>1</v>
+      </c>
+      <c r="F524" t="n">
+        <v>144</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H524" t="n">
+        <v>80</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J524" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K524" t="n">
+        <v>128</v>
+      </c>
+      <c r="L524" t="n">
+        <v>7198.47</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0.138005</v>
+      </c>
+      <c r="N524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:24:30</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:26:58</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1</v>
+      </c>
+      <c r="F525" t="n">
+        <v>144</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H525" t="n">
+        <v>80</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J525" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K525" t="n">
+        <v>128</v>
+      </c>
+      <c r="L525" t="n">
+        <v>7380.25</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0.145063</v>
+      </c>
+      <c r="N525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:26:59</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:29:27</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>2</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1</v>
+      </c>
+      <c r="F526" t="n">
+        <v>144</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H526" t="n">
+        <v>80</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J526" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K526" t="n">
+        <v>128</v>
+      </c>
+      <c r="L526" t="n">
+        <v>7072.63</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0.133222</v>
+      </c>
+      <c r="N526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:29:29</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:31:55</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>3</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E527" t="n">
+        <v>1</v>
+      </c>
+      <c r="F527" t="n">
+        <v>144</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H527" t="n">
+        <v>80</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J527" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K527" t="n">
+        <v>128</v>
+      </c>
+      <c r="L527" t="n">
+        <v>7084.08</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0.133654</v>
+      </c>
+      <c r="N527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:31:57</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:34:25</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>4</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1</v>
+      </c>
+      <c r="F528" t="n">
+        <v>144</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H528" t="n">
+        <v>80</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J528" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K528" t="n">
+        <v>128</v>
+      </c>
+      <c r="L528" t="n">
+        <v>7221.1</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0.138875</v>
+      </c>
+      <c r="N528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:34:27</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:36:54</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>5</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E529" t="n">
+        <v>1</v>
+      </c>
+      <c r="F529" t="n">
+        <v>144</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H529" t="n">
+        <v>80</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J529" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K529" t="n">
+        <v>128</v>
+      </c>
+      <c r="L529" t="n">
+        <v>6982.57</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0.129851</v>
+      </c>
+      <c r="N529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:36:56</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:39:30</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>6</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1</v>
+      </c>
+      <c r="F530" t="n">
+        <v>144</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H530" t="n">
+        <v>80</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J530" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K530" t="n">
+        <v>128</v>
+      </c>
+      <c r="L530" t="n">
+        <v>7231.42</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0.139272</v>
+      </c>
+      <c r="N530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:39:31</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:42:01</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>7</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1</v>
+      </c>
+      <c r="F531" t="n">
+        <v>144</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H531" t="n">
+        <v>80</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J531" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K531" t="n">
+        <v>128</v>
+      </c>
+      <c r="L531" t="n">
+        <v>7076.23</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0.133358</v>
+      </c>
+      <c r="N531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:42:03</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:44:41</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>8</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1</v>
+      </c>
+      <c r="F532" t="n">
+        <v>144</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H532" t="n">
+        <v>80</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J532" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K532" t="n">
+        <v>128</v>
+      </c>
+      <c r="L532" t="n">
+        <v>7189.18</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0.13765</v>
+      </c>
+      <c r="N532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:44:42</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:47:11</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>9</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1</v>
+      </c>
+      <c r="F533" t="n">
+        <v>144</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H533" t="n">
+        <v>80</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J533" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K533" t="n">
+        <v>128</v>
+      </c>
+      <c r="L533" t="n">
+        <v>7320.5</v>
+      </c>
+      <c r="M533" t="n">
+        <v>0.142724</v>
+      </c>
+      <c r="N533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:47:13</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:49:40</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>10</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1</v>
+      </c>
+      <c r="F534" t="n">
+        <v>144</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H534" t="n">
+        <v>80</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J534" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K534" t="n">
+        <v>128</v>
+      </c>
+      <c r="L534" t="n">
+        <v>7308.42</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0.142253</v>
+      </c>
+      <c r="N534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:49:42</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:52:09</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>11</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1</v>
+      </c>
+      <c r="F535" t="n">
+        <v>144</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H535" t="n">
+        <v>80</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J535" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K535" t="n">
+        <v>128</v>
+      </c>
+      <c r="L535" t="n">
+        <v>7246.87</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0.139867</v>
+      </c>
+      <c r="N535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:52:11</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:54:39</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>12</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1</v>
+      </c>
+      <c r="F536" t="n">
+        <v>144</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H536" t="n">
+        <v>80</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J536" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K536" t="n">
+        <v>128</v>
+      </c>
+      <c r="L536" t="n">
+        <v>7238.28</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0.139536</v>
+      </c>
+      <c r="N536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:54:41</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:57:15</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>13</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E537" t="n">
+        <v>1</v>
+      </c>
+      <c r="F537" t="n">
+        <v>144</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H537" t="n">
+        <v>80</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J537" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K537" t="n">
+        <v>128</v>
+      </c>
+      <c r="L537" t="n">
+        <v>7375.91</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0.144893</v>
+      </c>
+      <c r="N537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:57:17</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:59:52</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>14</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1</v>
+      </c>
+      <c r="F538" t="n">
+        <v>144</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H538" t="n">
+        <v>80</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J538" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K538" t="n">
+        <v>128</v>
+      </c>
+      <c r="L538" t="n">
+        <v>7076.86</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0.133382</v>
+      </c>
+      <c r="N538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-02-23 20:59:54</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:02:28</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>15</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1</v>
+      </c>
+      <c r="F539" t="n">
+        <v>144</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H539" t="n">
+        <v>80</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J539" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K539" t="n">
+        <v>128</v>
+      </c>
+      <c r="L539" t="n">
+        <v>7054.35</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0.132535</v>
+      </c>
+      <c r="N539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:02:29</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:05:03</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>16</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1</v>
+      </c>
+      <c r="F540" t="n">
+        <v>144</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H540" t="n">
+        <v>80</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J540" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K540" t="n">
+        <v>128</v>
+      </c>
+      <c r="L540" t="n">
+        <v>7185.71</v>
+      </c>
+      <c r="M540" t="n">
+        <v>0.137517</v>
+      </c>
+      <c r="N540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:05:05</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:07:41</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>17</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1</v>
+      </c>
+      <c r="F541" t="n">
+        <v>144</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H541" t="n">
+        <v>80</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J541" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K541" t="n">
+        <v>128</v>
+      </c>
+      <c r="L541" t="n">
+        <v>7016.82</v>
+      </c>
+      <c r="M541" t="n">
+        <v>0.131128</v>
+      </c>
+      <c r="N541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:07:43</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:10:13</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>18</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1</v>
+      </c>
+      <c r="F542" t="n">
+        <v>144</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H542" t="n">
+        <v>80</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J542" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K542" t="n">
+        <v>128</v>
+      </c>
+      <c r="L542" t="n">
+        <v>7189.96</v>
+      </c>
+      <c r="M542" t="n">
+        <v>0.137679</v>
+      </c>
+      <c r="N542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:10:14</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:12:45</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>19</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E543" t="n">
+        <v>1</v>
+      </c>
+      <c r="F543" t="n">
+        <v>144</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H543" t="n">
+        <v>80</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J543" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K543" t="n">
+        <v>128</v>
+      </c>
+      <c r="L543" t="n">
+        <v>7394.45</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0.145622</v>
+      </c>
+      <c r="N543" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code0\BIKEprediction\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41C824-07A5-4A12-B487-0D9704BC3AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B3EFB-14AF-4DF1-B77F-85725C85DD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
   <si>
     <t>start_time</t>
   </si>
@@ -3686,6 +3686,366 @@
   </si>
   <si>
     <t>2025-02-24 14:12:43</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:29:21</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:31:52</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:31:54</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:34:24</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:34:26</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:36:54</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:36:56</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:39:25</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:39:26</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:41:55</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:41:56</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:44:19</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:44:21</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:46:47</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:46:49</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:49:15</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:49:17</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:51:49</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:51:51</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:54:22</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:54:23</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:56:51</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:56:53</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:59:25</t>
+  </si>
+  <si>
+    <t>2025-02-25 18:59:27</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:01:56</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:01:57</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:04:21</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:04:23</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:06:45</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:06:47</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:09:09</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:09:11</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:11:39</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:11:41</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:14:07</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:14:09</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:16:32</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:16:34</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:18:58</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:19:57</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:22:20</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:22:22</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:24:44</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:24:46</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:27:07</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:27:09</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:29:27</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:29:29</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:31:50</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:31:51</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:34:08</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:34:11</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:36:31</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:36:32</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:38:51</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:38:53</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:41:11</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:41:13</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:43:33</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:43:35</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:45:52</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:45:54</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:48:05</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:48:06</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:50:17</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:50:19</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:52:31</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:52:32</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:54:43</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:54:45</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:56:56</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:56:58</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:59:11</t>
+  </si>
+  <si>
+    <t>2025-02-25 19:59:12</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:01:24</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:01:26</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:03:37</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:03:39</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:05:51</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:05:53</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:08:06</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:08:07</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:10:18</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:10:19</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:12:29</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:12:31</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:14:42</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:14:44</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:16:57</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:16:58</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:19:39</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:19:43</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:22:52</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:22:56</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:26:04</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:26:07</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:29:27</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:29:34</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:33:04</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:33:07</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:36:40</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:36:43</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:40:14</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:40:16</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:43:43</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:43:46</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:47:18</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:47:21</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:50:50</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:50:53</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:53:40</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:53:42</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:56:06</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:56:08</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:58:30</t>
+  </si>
+  <si>
+    <t>2025-02-25 20:58:32</t>
+  </si>
+  <si>
+    <t>2025-02-25 21:00:59</t>
+  </si>
+  <si>
+    <t>2025-02-25 21:01:01</t>
+  </si>
+  <si>
+    <t>2025-02-25 21:03:24</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +4064,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4057,17 +4416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N603"/>
+  <dimension ref="A1:N663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="D584" sqref="D584"/>
+    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="R627" sqref="R627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -28205,6 +28560,2466 @@
       </c>
       <c r="M603">
         <v>0.13944300000000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A604" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>0.9</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604">
+        <v>144</v>
+      </c>
+      <c r="G604">
+        <v>0.4</v>
+      </c>
+      <c r="H604">
+        <v>80</v>
+      </c>
+      <c r="I604">
+        <v>0.3</v>
+      </c>
+      <c r="J604">
+        <v>1500</v>
+      </c>
+      <c r="K604">
+        <v>128</v>
+      </c>
+      <c r="L604">
+        <v>7163.63</v>
+      </c>
+      <c r="M604">
+        <v>0.13667299999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A605" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>0.9</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605">
+        <v>144</v>
+      </c>
+      <c r="G605">
+        <v>0.4</v>
+      </c>
+      <c r="H605">
+        <v>80</v>
+      </c>
+      <c r="I605">
+        <v>0.3</v>
+      </c>
+      <c r="J605">
+        <v>1500</v>
+      </c>
+      <c r="K605">
+        <v>128</v>
+      </c>
+      <c r="L605">
+        <v>7246.27</v>
+      </c>
+      <c r="M605">
+        <v>0.139844</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A606" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>0.9</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>144</v>
+      </c>
+      <c r="G606">
+        <v>0.4</v>
+      </c>
+      <c r="H606">
+        <v>80</v>
+      </c>
+      <c r="I606">
+        <v>0.3</v>
+      </c>
+      <c r="J606">
+        <v>1500</v>
+      </c>
+      <c r="K606">
+        <v>128</v>
+      </c>
+      <c r="L606">
+        <v>7234.74</v>
+      </c>
+      <c r="M606">
+        <v>0.1394</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A607" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C607">
+        <v>3</v>
+      </c>
+      <c r="D607">
+        <v>0.9</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>144</v>
+      </c>
+      <c r="G607">
+        <v>0.4</v>
+      </c>
+      <c r="H607">
+        <v>80</v>
+      </c>
+      <c r="I607">
+        <v>0.3</v>
+      </c>
+      <c r="J607">
+        <v>1500</v>
+      </c>
+      <c r="K607">
+        <v>128</v>
+      </c>
+      <c r="L607">
+        <v>7333.94</v>
+      </c>
+      <c r="M607">
+        <v>0.14324799999999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A608" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C608">
+        <v>4</v>
+      </c>
+      <c r="D608">
+        <v>0.9</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608">
+        <v>144</v>
+      </c>
+      <c r="G608">
+        <v>0.4</v>
+      </c>
+      <c r="H608">
+        <v>80</v>
+      </c>
+      <c r="I608">
+        <v>0.3</v>
+      </c>
+      <c r="J608">
+        <v>1500</v>
+      </c>
+      <c r="K608">
+        <v>128</v>
+      </c>
+      <c r="L608">
+        <v>7289.29</v>
+      </c>
+      <c r="M608">
+        <v>0.14151</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A609" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C609">
+        <v>5</v>
+      </c>
+      <c r="D609">
+        <v>0.9</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>144</v>
+      </c>
+      <c r="G609">
+        <v>0.4</v>
+      </c>
+      <c r="H609">
+        <v>80</v>
+      </c>
+      <c r="I609">
+        <v>0.3</v>
+      </c>
+      <c r="J609">
+        <v>1500</v>
+      </c>
+      <c r="K609">
+        <v>128</v>
+      </c>
+      <c r="L609">
+        <v>7216.66</v>
+      </c>
+      <c r="M609">
+        <v>0.13870399999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A610" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C610">
+        <v>6</v>
+      </c>
+      <c r="D610">
+        <v>0.9</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>144</v>
+      </c>
+      <c r="G610">
+        <v>0.4</v>
+      </c>
+      <c r="H610">
+        <v>80</v>
+      </c>
+      <c r="I610">
+        <v>0.3</v>
+      </c>
+      <c r="J610">
+        <v>1500</v>
+      </c>
+      <c r="K610">
+        <v>128</v>
+      </c>
+      <c r="L610">
+        <v>7394.68</v>
+      </c>
+      <c r="M610">
+        <v>0.14563100000000001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A611" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C611">
+        <v>7</v>
+      </c>
+      <c r="D611">
+        <v>0.9</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>144</v>
+      </c>
+      <c r="G611">
+        <v>0.4</v>
+      </c>
+      <c r="H611">
+        <v>80</v>
+      </c>
+      <c r="I611">
+        <v>0.3</v>
+      </c>
+      <c r="J611">
+        <v>1500</v>
+      </c>
+      <c r="K611">
+        <v>128</v>
+      </c>
+      <c r="L611">
+        <v>7258.81</v>
+      </c>
+      <c r="M611">
+        <v>0.14032900000000001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A612" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C612">
+        <v>8</v>
+      </c>
+      <c r="D612">
+        <v>0.9</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>144</v>
+      </c>
+      <c r="G612">
+        <v>0.4</v>
+      </c>
+      <c r="H612">
+        <v>80</v>
+      </c>
+      <c r="I612">
+        <v>0.3</v>
+      </c>
+      <c r="J612">
+        <v>1500</v>
+      </c>
+      <c r="K612">
+        <v>128</v>
+      </c>
+      <c r="L612">
+        <v>7459.14</v>
+      </c>
+      <c r="M612">
+        <v>0.14818100000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A613" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C613">
+        <v>9</v>
+      </c>
+      <c r="D613">
+        <v>0.9</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>144</v>
+      </c>
+      <c r="G613">
+        <v>0.4</v>
+      </c>
+      <c r="H613">
+        <v>80</v>
+      </c>
+      <c r="I613">
+        <v>0.3</v>
+      </c>
+      <c r="J613">
+        <v>1500</v>
+      </c>
+      <c r="K613">
+        <v>128</v>
+      </c>
+      <c r="L613">
+        <v>7221.24</v>
+      </c>
+      <c r="M613">
+        <v>0.13888</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A614" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C614">
+        <v>10</v>
+      </c>
+      <c r="D614">
+        <v>0.9</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614">
+        <v>144</v>
+      </c>
+      <c r="G614">
+        <v>0.4</v>
+      </c>
+      <c r="H614">
+        <v>80</v>
+      </c>
+      <c r="I614">
+        <v>0.3</v>
+      </c>
+      <c r="J614">
+        <v>1500</v>
+      </c>
+      <c r="K614">
+        <v>128</v>
+      </c>
+      <c r="L614">
+        <v>6998.59</v>
+      </c>
+      <c r="M614">
+        <v>0.13044800000000001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A615" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C615">
+        <v>11</v>
+      </c>
+      <c r="D615">
+        <v>0.9</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="F615">
+        <v>144</v>
+      </c>
+      <c r="G615">
+        <v>0.4</v>
+      </c>
+      <c r="H615">
+        <v>80</v>
+      </c>
+      <c r="I615">
+        <v>0.3</v>
+      </c>
+      <c r="J615">
+        <v>1500</v>
+      </c>
+      <c r="K615">
+        <v>128</v>
+      </c>
+      <c r="L615">
+        <v>7141.86</v>
+      </c>
+      <c r="M615">
+        <v>0.13584299999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A616" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C616">
+        <v>12</v>
+      </c>
+      <c r="D616">
+        <v>0.9</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>144</v>
+      </c>
+      <c r="G616">
+        <v>0.4</v>
+      </c>
+      <c r="H616">
+        <v>80</v>
+      </c>
+      <c r="I616">
+        <v>0.3</v>
+      </c>
+      <c r="J616">
+        <v>1500</v>
+      </c>
+      <c r="K616">
+        <v>128</v>
+      </c>
+      <c r="L616">
+        <v>7124.81</v>
+      </c>
+      <c r="M616">
+        <v>0.13519500000000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A617" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C617">
+        <v>13</v>
+      </c>
+      <c r="D617">
+        <v>0.9</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>144</v>
+      </c>
+      <c r="G617">
+        <v>0.4</v>
+      </c>
+      <c r="H617">
+        <v>80</v>
+      </c>
+      <c r="I617">
+        <v>0.3</v>
+      </c>
+      <c r="J617">
+        <v>1500</v>
+      </c>
+      <c r="K617">
+        <v>128</v>
+      </c>
+      <c r="L617">
+        <v>7109.75</v>
+      </c>
+      <c r="M617">
+        <v>0.13462399999999999</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A618" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C618">
+        <v>14</v>
+      </c>
+      <c r="D618">
+        <v>0.9</v>
+      </c>
+      <c r="E618">
+        <v>1</v>
+      </c>
+      <c r="F618">
+        <v>144</v>
+      </c>
+      <c r="G618">
+        <v>0.4</v>
+      </c>
+      <c r="H618">
+        <v>80</v>
+      </c>
+      <c r="I618">
+        <v>0.3</v>
+      </c>
+      <c r="J618">
+        <v>1500</v>
+      </c>
+      <c r="K618">
+        <v>128</v>
+      </c>
+      <c r="L618">
+        <v>7348.18</v>
+      </c>
+      <c r="M618">
+        <v>0.14380599999999999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A619" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C619">
+        <v>15</v>
+      </c>
+      <c r="D619">
+        <v>0.9</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619">
+        <v>144</v>
+      </c>
+      <c r="G619">
+        <v>0.4</v>
+      </c>
+      <c r="H619">
+        <v>80</v>
+      </c>
+      <c r="I619">
+        <v>0.3</v>
+      </c>
+      <c r="J619">
+        <v>1500</v>
+      </c>
+      <c r="K619">
+        <v>128</v>
+      </c>
+      <c r="L619">
+        <v>7032.88</v>
+      </c>
+      <c r="M619">
+        <v>0.13172900000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A620" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C620">
+        <v>16</v>
+      </c>
+      <c r="D620">
+        <v>0.9</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620">
+        <v>144</v>
+      </c>
+      <c r="G620">
+        <v>0.4</v>
+      </c>
+      <c r="H620">
+        <v>80</v>
+      </c>
+      <c r="I620">
+        <v>0.3</v>
+      </c>
+      <c r="J620">
+        <v>1500</v>
+      </c>
+      <c r="K620">
+        <v>128</v>
+      </c>
+      <c r="L620">
+        <v>7305.67</v>
+      </c>
+      <c r="M620">
+        <v>0.14214599999999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A621" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C621">
+        <v>17</v>
+      </c>
+      <c r="D621">
+        <v>0.9</v>
+      </c>
+      <c r="E621">
+        <v>1</v>
+      </c>
+      <c r="F621">
+        <v>144</v>
+      </c>
+      <c r="G621">
+        <v>0.4</v>
+      </c>
+      <c r="H621">
+        <v>80</v>
+      </c>
+      <c r="I621">
+        <v>0.3</v>
+      </c>
+      <c r="J621">
+        <v>1500</v>
+      </c>
+      <c r="K621">
+        <v>128</v>
+      </c>
+      <c r="L621">
+        <v>7161.81</v>
+      </c>
+      <c r="M621">
+        <v>0.136603</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A622" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C622">
+        <v>18</v>
+      </c>
+      <c r="D622">
+        <v>0.9</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622">
+        <v>144</v>
+      </c>
+      <c r="G622">
+        <v>0.4</v>
+      </c>
+      <c r="H622">
+        <v>80</v>
+      </c>
+      <c r="I622">
+        <v>0.3</v>
+      </c>
+      <c r="J622">
+        <v>1500</v>
+      </c>
+      <c r="K622">
+        <v>128</v>
+      </c>
+      <c r="L622">
+        <v>7223.47</v>
+      </c>
+      <c r="M622">
+        <v>0.13896600000000001</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A623" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C623">
+        <v>19</v>
+      </c>
+      <c r="D623">
+        <v>0.9</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+      <c r="F623">
+        <v>144</v>
+      </c>
+      <c r="G623">
+        <v>0.4</v>
+      </c>
+      <c r="H623">
+        <v>80</v>
+      </c>
+      <c r="I623">
+        <v>0.3</v>
+      </c>
+      <c r="J623">
+        <v>1500</v>
+      </c>
+      <c r="K623">
+        <v>128</v>
+      </c>
+      <c r="L623">
+        <v>7291.18</v>
+      </c>
+      <c r="M623">
+        <v>0.14158299999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A624" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>0.8</v>
+      </c>
+      <c r="E624">
+        <v>1</v>
+      </c>
+      <c r="F624">
+        <v>144</v>
+      </c>
+      <c r="G624">
+        <v>0.4</v>
+      </c>
+      <c r="H624">
+        <v>80</v>
+      </c>
+      <c r="I624">
+        <v>0.3</v>
+      </c>
+      <c r="J624">
+        <v>1500</v>
+      </c>
+      <c r="K624">
+        <v>128</v>
+      </c>
+      <c r="L624">
+        <v>6795.73</v>
+      </c>
+      <c r="M624">
+        <v>0.13089700000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A625" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625">
+        <v>0.8</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="F625">
+        <v>144</v>
+      </c>
+      <c r="G625">
+        <v>0.4</v>
+      </c>
+      <c r="H625">
+        <v>80</v>
+      </c>
+      <c r="I625">
+        <v>0.3</v>
+      </c>
+      <c r="J625">
+        <v>1500</v>
+      </c>
+      <c r="K625">
+        <v>128</v>
+      </c>
+      <c r="L625">
+        <v>6988.69</v>
+      </c>
+      <c r="M625">
+        <v>0.138436</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A626" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+      <c r="D626">
+        <v>0.8</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626">
+        <v>144</v>
+      </c>
+      <c r="G626">
+        <v>0.4</v>
+      </c>
+      <c r="H626">
+        <v>80</v>
+      </c>
+      <c r="I626">
+        <v>0.3</v>
+      </c>
+      <c r="J626">
+        <v>1500</v>
+      </c>
+      <c r="K626">
+        <v>128</v>
+      </c>
+      <c r="L626">
+        <v>6744.68</v>
+      </c>
+      <c r="M626">
+        <v>0.128938</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A627" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C627">
+        <v>3</v>
+      </c>
+      <c r="D627">
+        <v>0.8</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="F627">
+        <v>144</v>
+      </c>
+      <c r="G627">
+        <v>0.4</v>
+      </c>
+      <c r="H627">
+        <v>80</v>
+      </c>
+      <c r="I627">
+        <v>0.3</v>
+      </c>
+      <c r="J627">
+        <v>1500</v>
+      </c>
+      <c r="K627">
+        <v>128</v>
+      </c>
+      <c r="L627">
+        <v>7189.13</v>
+      </c>
+      <c r="M627">
+        <v>0.14649100000000001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A628" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C628">
+        <v>4</v>
+      </c>
+      <c r="D628">
+        <v>0.8</v>
+      </c>
+      <c r="E628">
+        <v>1</v>
+      </c>
+      <c r="F628">
+        <v>144</v>
+      </c>
+      <c r="G628">
+        <v>0.4</v>
+      </c>
+      <c r="H628">
+        <v>80</v>
+      </c>
+      <c r="I628">
+        <v>0.3</v>
+      </c>
+      <c r="J628">
+        <v>1500</v>
+      </c>
+      <c r="K628">
+        <v>128</v>
+      </c>
+      <c r="L628">
+        <v>6425.57</v>
+      </c>
+      <c r="M628">
+        <v>0.11702600000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A629" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C629">
+        <v>5</v>
+      </c>
+      <c r="D629">
+        <v>0.8</v>
+      </c>
+      <c r="E629">
+        <v>1</v>
+      </c>
+      <c r="F629">
+        <v>144</v>
+      </c>
+      <c r="G629">
+        <v>0.4</v>
+      </c>
+      <c r="H629">
+        <v>80</v>
+      </c>
+      <c r="I629">
+        <v>0.3</v>
+      </c>
+      <c r="J629">
+        <v>1500</v>
+      </c>
+      <c r="K629">
+        <v>128</v>
+      </c>
+      <c r="L629">
+        <v>6934.59</v>
+      </c>
+      <c r="M629">
+        <v>0.13630100000000001</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A630" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C630">
+        <v>6</v>
+      </c>
+      <c r="D630">
+        <v>0.8</v>
+      </c>
+      <c r="E630">
+        <v>1</v>
+      </c>
+      <c r="F630">
+        <v>144</v>
+      </c>
+      <c r="G630">
+        <v>0.4</v>
+      </c>
+      <c r="H630">
+        <v>80</v>
+      </c>
+      <c r="I630">
+        <v>0.3</v>
+      </c>
+      <c r="J630">
+        <v>1500</v>
+      </c>
+      <c r="K630">
+        <v>128</v>
+      </c>
+      <c r="L630">
+        <v>6791.08</v>
+      </c>
+      <c r="M630">
+        <v>0.130718</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A631" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C631">
+        <v>7</v>
+      </c>
+      <c r="D631">
+        <v>0.8</v>
+      </c>
+      <c r="E631">
+        <v>1</v>
+      </c>
+      <c r="F631">
+        <v>144</v>
+      </c>
+      <c r="G631">
+        <v>0.4</v>
+      </c>
+      <c r="H631">
+        <v>80</v>
+      </c>
+      <c r="I631">
+        <v>0.3</v>
+      </c>
+      <c r="J631">
+        <v>1500</v>
+      </c>
+      <c r="K631">
+        <v>128</v>
+      </c>
+      <c r="L631">
+        <v>6934.38</v>
+      </c>
+      <c r="M631">
+        <v>0.136293</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A632" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C632">
+        <v>8</v>
+      </c>
+      <c r="D632">
+        <v>0.8</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+      <c r="F632">
+        <v>144</v>
+      </c>
+      <c r="G632">
+        <v>0.4</v>
+      </c>
+      <c r="H632">
+        <v>80</v>
+      </c>
+      <c r="I632">
+        <v>0.3</v>
+      </c>
+      <c r="J632">
+        <v>1500</v>
+      </c>
+      <c r="K632">
+        <v>128</v>
+      </c>
+      <c r="L632">
+        <v>7310.94</v>
+      </c>
+      <c r="M632">
+        <v>0.15149699999999999</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A633" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C633">
+        <v>9</v>
+      </c>
+      <c r="D633">
+        <v>0.8</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+      <c r="F633">
+        <v>144</v>
+      </c>
+      <c r="G633">
+        <v>0.4</v>
+      </c>
+      <c r="H633">
+        <v>80</v>
+      </c>
+      <c r="I633">
+        <v>0.3</v>
+      </c>
+      <c r="J633">
+        <v>1500</v>
+      </c>
+      <c r="K633">
+        <v>128</v>
+      </c>
+      <c r="L633">
+        <v>6461.83</v>
+      </c>
+      <c r="M633">
+        <v>0.11835</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A634" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C634">
+        <v>10</v>
+      </c>
+      <c r="D634">
+        <v>0.8</v>
+      </c>
+      <c r="E634">
+        <v>1</v>
+      </c>
+      <c r="F634">
+        <v>144</v>
+      </c>
+      <c r="G634">
+        <v>0.4</v>
+      </c>
+      <c r="H634">
+        <v>80</v>
+      </c>
+      <c r="I634">
+        <v>0.3</v>
+      </c>
+      <c r="J634">
+        <v>1500</v>
+      </c>
+      <c r="K634">
+        <v>128</v>
+      </c>
+      <c r="L634">
+        <v>7072.46</v>
+      </c>
+      <c r="M634">
+        <v>0.14177500000000001</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A635" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C635">
+        <v>11</v>
+      </c>
+      <c r="D635">
+        <v>0.8</v>
+      </c>
+      <c r="E635">
+        <v>1</v>
+      </c>
+      <c r="F635">
+        <v>144</v>
+      </c>
+      <c r="G635">
+        <v>0.4</v>
+      </c>
+      <c r="H635">
+        <v>80</v>
+      </c>
+      <c r="I635">
+        <v>0.3</v>
+      </c>
+      <c r="J635">
+        <v>1500</v>
+      </c>
+      <c r="K635">
+        <v>128</v>
+      </c>
+      <c r="L635">
+        <v>6879.28</v>
+      </c>
+      <c r="M635">
+        <v>0.13413600000000001</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A636" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C636">
+        <v>12</v>
+      </c>
+      <c r="D636">
+        <v>0.8</v>
+      </c>
+      <c r="E636">
+        <v>1</v>
+      </c>
+      <c r="F636">
+        <v>144</v>
+      </c>
+      <c r="G636">
+        <v>0.4</v>
+      </c>
+      <c r="H636">
+        <v>80</v>
+      </c>
+      <c r="I636">
+        <v>0.3</v>
+      </c>
+      <c r="J636">
+        <v>1500</v>
+      </c>
+      <c r="K636">
+        <v>128</v>
+      </c>
+      <c r="L636">
+        <v>6775.43</v>
+      </c>
+      <c r="M636">
+        <v>0.13011600000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A637" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C637">
+        <v>13</v>
+      </c>
+      <c r="D637">
+        <v>0.8</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+      <c r="F637">
+        <v>144</v>
+      </c>
+      <c r="G637">
+        <v>0.4</v>
+      </c>
+      <c r="H637">
+        <v>80</v>
+      </c>
+      <c r="I637">
+        <v>0.3</v>
+      </c>
+      <c r="J637">
+        <v>1500</v>
+      </c>
+      <c r="K637">
+        <v>128</v>
+      </c>
+      <c r="L637">
+        <v>6838.15</v>
+      </c>
+      <c r="M637">
+        <v>0.13253699999999999</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A638" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C638">
+        <v>14</v>
+      </c>
+      <c r="D638">
+        <v>0.8</v>
+      </c>
+      <c r="E638">
+        <v>1</v>
+      </c>
+      <c r="F638">
+        <v>144</v>
+      </c>
+      <c r="G638">
+        <v>0.4</v>
+      </c>
+      <c r="H638">
+        <v>80</v>
+      </c>
+      <c r="I638">
+        <v>0.3</v>
+      </c>
+      <c r="J638">
+        <v>1500</v>
+      </c>
+      <c r="K638">
+        <v>128</v>
+      </c>
+      <c r="L638">
+        <v>6873.73</v>
+      </c>
+      <c r="M638">
+        <v>0.13391900000000001</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A639" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C639">
+        <v>15</v>
+      </c>
+      <c r="D639">
+        <v>0.8</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+      <c r="F639">
+        <v>144</v>
+      </c>
+      <c r="G639">
+        <v>0.4</v>
+      </c>
+      <c r="H639">
+        <v>80</v>
+      </c>
+      <c r="I639">
+        <v>0.3</v>
+      </c>
+      <c r="J639">
+        <v>1500</v>
+      </c>
+      <c r="K639">
+        <v>128</v>
+      </c>
+      <c r="L639">
+        <v>6832.11</v>
+      </c>
+      <c r="M639">
+        <v>0.132303</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A640" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C640">
+        <v>16</v>
+      </c>
+      <c r="D640">
+        <v>0.8</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+      <c r="F640">
+        <v>144</v>
+      </c>
+      <c r="G640">
+        <v>0.4</v>
+      </c>
+      <c r="H640">
+        <v>80</v>
+      </c>
+      <c r="I640">
+        <v>0.3</v>
+      </c>
+      <c r="J640">
+        <v>1500</v>
+      </c>
+      <c r="K640">
+        <v>128</v>
+      </c>
+      <c r="L640">
+        <v>6998.63</v>
+      </c>
+      <c r="M640">
+        <v>0.13883000000000001</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A641" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C641">
+        <v>17</v>
+      </c>
+      <c r="D641">
+        <v>0.8</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+      <c r="F641">
+        <v>144</v>
+      </c>
+      <c r="G641">
+        <v>0.4</v>
+      </c>
+      <c r="H641">
+        <v>80</v>
+      </c>
+      <c r="I641">
+        <v>0.3</v>
+      </c>
+      <c r="J641">
+        <v>1500</v>
+      </c>
+      <c r="K641">
+        <v>128</v>
+      </c>
+      <c r="L641">
+        <v>6940.99</v>
+      </c>
+      <c r="M641">
+        <v>0.13655300000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A642" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C642">
+        <v>18</v>
+      </c>
+      <c r="D642">
+        <v>0.8</v>
+      </c>
+      <c r="E642">
+        <v>1</v>
+      </c>
+      <c r="F642">
+        <v>144</v>
+      </c>
+      <c r="G642">
+        <v>0.4</v>
+      </c>
+      <c r="H642">
+        <v>80</v>
+      </c>
+      <c r="I642">
+        <v>0.3</v>
+      </c>
+      <c r="J642">
+        <v>1500</v>
+      </c>
+      <c r="K642">
+        <v>128</v>
+      </c>
+      <c r="L642">
+        <v>7028.04</v>
+      </c>
+      <c r="M642">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A643" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C643">
+        <v>19</v>
+      </c>
+      <c r="D643">
+        <v>0.8</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="F643">
+        <v>144</v>
+      </c>
+      <c r="G643">
+        <v>0.4</v>
+      </c>
+      <c r="H643">
+        <v>80</v>
+      </c>
+      <c r="I643">
+        <v>0.3</v>
+      </c>
+      <c r="J643">
+        <v>1500</v>
+      </c>
+      <c r="K643">
+        <v>128</v>
+      </c>
+      <c r="L643">
+        <v>6974.07</v>
+      </c>
+      <c r="M643">
+        <v>0.13785800000000001</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A644" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C644">
+        <v>20</v>
+      </c>
+      <c r="D644">
+        <v>0.8</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644">
+        <v>144</v>
+      </c>
+      <c r="G644">
+        <v>0.4</v>
+      </c>
+      <c r="H644">
+        <v>80</v>
+      </c>
+      <c r="I644">
+        <v>0.3</v>
+      </c>
+      <c r="J644">
+        <v>1500</v>
+      </c>
+      <c r="K644">
+        <v>128</v>
+      </c>
+      <c r="L644">
+        <v>7106.2</v>
+      </c>
+      <c r="M644">
+        <v>0.14313100000000001</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A645" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C645">
+        <v>21</v>
+      </c>
+      <c r="D645">
+        <v>0.8</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+      <c r="F645">
+        <v>144</v>
+      </c>
+      <c r="G645">
+        <v>0.4</v>
+      </c>
+      <c r="H645">
+        <v>80</v>
+      </c>
+      <c r="I645">
+        <v>0.3</v>
+      </c>
+      <c r="J645">
+        <v>1500</v>
+      </c>
+      <c r="K645">
+        <v>128</v>
+      </c>
+      <c r="L645">
+        <v>6603.89</v>
+      </c>
+      <c r="M645">
+        <v>0.123611</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A646" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C646">
+        <v>22</v>
+      </c>
+      <c r="D646">
+        <v>0.8</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="F646">
+        <v>144</v>
+      </c>
+      <c r="G646">
+        <v>0.4</v>
+      </c>
+      <c r="H646">
+        <v>80</v>
+      </c>
+      <c r="I646">
+        <v>0.3</v>
+      </c>
+      <c r="J646">
+        <v>1500</v>
+      </c>
+      <c r="K646">
+        <v>128</v>
+      </c>
+      <c r="L646">
+        <v>7143.33</v>
+      </c>
+      <c r="M646">
+        <v>0.14463100000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A647" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C647">
+        <v>23</v>
+      </c>
+      <c r="D647">
+        <v>0.8</v>
+      </c>
+      <c r="E647">
+        <v>1</v>
+      </c>
+      <c r="F647">
+        <v>144</v>
+      </c>
+      <c r="G647">
+        <v>0.4</v>
+      </c>
+      <c r="H647">
+        <v>80</v>
+      </c>
+      <c r="I647">
+        <v>0.3</v>
+      </c>
+      <c r="J647">
+        <v>1500</v>
+      </c>
+      <c r="K647">
+        <v>128</v>
+      </c>
+      <c r="L647">
+        <v>6666.35</v>
+      </c>
+      <c r="M647">
+        <v>0.12595999999999999</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A648" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C648">
+        <v>24</v>
+      </c>
+      <c r="D648">
+        <v>0.8</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+      <c r="F648">
+        <v>144</v>
+      </c>
+      <c r="G648">
+        <v>0.4</v>
+      </c>
+      <c r="H648">
+        <v>80</v>
+      </c>
+      <c r="I648">
+        <v>0.3</v>
+      </c>
+      <c r="J648">
+        <v>1500</v>
+      </c>
+      <c r="K648">
+        <v>128</v>
+      </c>
+      <c r="L648">
+        <v>7142.48</v>
+      </c>
+      <c r="M648">
+        <v>0.144596</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A649" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C649">
+        <v>25</v>
+      </c>
+      <c r="D649">
+        <v>0.8</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649">
+        <v>144</v>
+      </c>
+      <c r="G649">
+        <v>0.4</v>
+      </c>
+      <c r="H649">
+        <v>80</v>
+      </c>
+      <c r="I649">
+        <v>0.3</v>
+      </c>
+      <c r="J649">
+        <v>1500</v>
+      </c>
+      <c r="K649">
+        <v>128</v>
+      </c>
+      <c r="L649">
+        <v>6670.76</v>
+      </c>
+      <c r="M649">
+        <v>0.12612699999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A650" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C650">
+        <v>26</v>
+      </c>
+      <c r="D650">
+        <v>0.8</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="F650">
+        <v>144</v>
+      </c>
+      <c r="G650">
+        <v>0.4</v>
+      </c>
+      <c r="H650">
+        <v>80</v>
+      </c>
+      <c r="I650">
+        <v>0.3</v>
+      </c>
+      <c r="J650">
+        <v>1500</v>
+      </c>
+      <c r="K650">
+        <v>128</v>
+      </c>
+      <c r="L650">
+        <v>7020.16</v>
+      </c>
+      <c r="M650">
+        <v>0.139686</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A651" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C651">
+        <v>27</v>
+      </c>
+      <c r="D651">
+        <v>0.8</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <v>144</v>
+      </c>
+      <c r="G651">
+        <v>0.4</v>
+      </c>
+      <c r="H651">
+        <v>80</v>
+      </c>
+      <c r="I651">
+        <v>0.3</v>
+      </c>
+      <c r="J651">
+        <v>1500</v>
+      </c>
+      <c r="K651">
+        <v>128</v>
+      </c>
+      <c r="L651">
+        <v>6944.73</v>
+      </c>
+      <c r="M651">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A652" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C652">
+        <v>28</v>
+      </c>
+      <c r="D652">
+        <v>0.8</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+      <c r="F652">
+        <v>144</v>
+      </c>
+      <c r="G652">
+        <v>0.4</v>
+      </c>
+      <c r="H652">
+        <v>80</v>
+      </c>
+      <c r="I652">
+        <v>0.3</v>
+      </c>
+      <c r="J652">
+        <v>1500</v>
+      </c>
+      <c r="K652">
+        <v>128</v>
+      </c>
+      <c r="L652">
+        <v>6856.47</v>
+      </c>
+      <c r="M652">
+        <v>0.13324800000000001</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A653" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C653">
+        <v>29</v>
+      </c>
+      <c r="D653">
+        <v>0.8</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+      <c r="F653">
+        <v>144</v>
+      </c>
+      <c r="G653">
+        <v>0.4</v>
+      </c>
+      <c r="H653">
+        <v>80</v>
+      </c>
+      <c r="I653">
+        <v>0.3</v>
+      </c>
+      <c r="J653">
+        <v>1500</v>
+      </c>
+      <c r="K653">
+        <v>128</v>
+      </c>
+      <c r="L653">
+        <v>7196.09</v>
+      </c>
+      <c r="M653">
+        <v>0.14677499999999999</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A654" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C654">
+        <v>30</v>
+      </c>
+      <c r="D654">
+        <v>0.8</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654">
+        <v>144</v>
+      </c>
+      <c r="G654">
+        <v>0.4</v>
+      </c>
+      <c r="H654">
+        <v>80</v>
+      </c>
+      <c r="I654">
+        <v>0.3</v>
+      </c>
+      <c r="J654">
+        <v>1500</v>
+      </c>
+      <c r="K654">
+        <v>128</v>
+      </c>
+      <c r="L654">
+        <v>6882.92</v>
+      </c>
+      <c r="M654">
+        <v>0.13427800000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A655" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C655">
+        <v>31</v>
+      </c>
+      <c r="D655">
+        <v>0.8</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655">
+        <v>144</v>
+      </c>
+      <c r="G655">
+        <v>0.4</v>
+      </c>
+      <c r="H655">
+        <v>80</v>
+      </c>
+      <c r="I655">
+        <v>0.3</v>
+      </c>
+      <c r="J655">
+        <v>1500</v>
+      </c>
+      <c r="K655">
+        <v>128</v>
+      </c>
+      <c r="L655">
+        <v>6682.37</v>
+      </c>
+      <c r="M655">
+        <v>0.12656700000000001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A656" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C656">
+        <v>32</v>
+      </c>
+      <c r="D656">
+        <v>0.8</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656">
+        <v>144</v>
+      </c>
+      <c r="G656">
+        <v>0.4</v>
+      </c>
+      <c r="H656">
+        <v>80</v>
+      </c>
+      <c r="I656">
+        <v>0.3</v>
+      </c>
+      <c r="J656">
+        <v>1500</v>
+      </c>
+      <c r="K656">
+        <v>128</v>
+      </c>
+      <c r="L656">
+        <v>7100.9</v>
+      </c>
+      <c r="M656">
+        <v>0.14291799999999999</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A657" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C657">
+        <v>33</v>
+      </c>
+      <c r="D657">
+        <v>0.8</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657">
+        <v>144</v>
+      </c>
+      <c r="G657">
+        <v>0.4</v>
+      </c>
+      <c r="H657">
+        <v>80</v>
+      </c>
+      <c r="I657">
+        <v>0.3</v>
+      </c>
+      <c r="J657">
+        <v>1500</v>
+      </c>
+      <c r="K657">
+        <v>128</v>
+      </c>
+      <c r="L657">
+        <v>6680.41</v>
+      </c>
+      <c r="M657">
+        <v>0.12649199999999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A658" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C658">
+        <v>34</v>
+      </c>
+      <c r="D658">
+        <v>0.8</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+      <c r="F658">
+        <v>144</v>
+      </c>
+      <c r="G658">
+        <v>0.4</v>
+      </c>
+      <c r="H658">
+        <v>80</v>
+      </c>
+      <c r="I658">
+        <v>0.3</v>
+      </c>
+      <c r="J658">
+        <v>1500</v>
+      </c>
+      <c r="K658">
+        <v>128</v>
+      </c>
+      <c r="L658">
+        <v>7077.94</v>
+      </c>
+      <c r="M658">
+        <v>0.14199500000000001</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A659" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C659">
+        <v>35</v>
+      </c>
+      <c r="D659">
+        <v>0.8</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
+      <c r="F659">
+        <v>144</v>
+      </c>
+      <c r="G659">
+        <v>0.4</v>
+      </c>
+      <c r="H659">
+        <v>80</v>
+      </c>
+      <c r="I659">
+        <v>0.3</v>
+      </c>
+      <c r="J659">
+        <v>1500</v>
+      </c>
+      <c r="K659">
+        <v>128</v>
+      </c>
+      <c r="L659">
+        <v>7145.15</v>
+      </c>
+      <c r="M659">
+        <v>0.144704</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A660" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C660">
+        <v>36</v>
+      </c>
+      <c r="D660">
+        <v>0.8</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660">
+        <v>144</v>
+      </c>
+      <c r="G660">
+        <v>0.4</v>
+      </c>
+      <c r="H660">
+        <v>80</v>
+      </c>
+      <c r="I660">
+        <v>0.3</v>
+      </c>
+      <c r="J660">
+        <v>1500</v>
+      </c>
+      <c r="K660">
+        <v>128</v>
+      </c>
+      <c r="L660">
+        <v>6731.05</v>
+      </c>
+      <c r="M660">
+        <v>0.128418</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A661" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C661">
+        <v>37</v>
+      </c>
+      <c r="D661">
+        <v>0.8</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661">
+        <v>144</v>
+      </c>
+      <c r="G661">
+        <v>0.4</v>
+      </c>
+      <c r="H661">
+        <v>80</v>
+      </c>
+      <c r="I661">
+        <v>0.3</v>
+      </c>
+      <c r="J661">
+        <v>1500</v>
+      </c>
+      <c r="K661">
+        <v>128</v>
+      </c>
+      <c r="L661">
+        <v>6919.51</v>
+      </c>
+      <c r="M661">
+        <v>0.135709</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A662" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C662">
+        <v>38</v>
+      </c>
+      <c r="D662">
+        <v>0.8</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662">
+        <v>144</v>
+      </c>
+      <c r="G662">
+        <v>0.4</v>
+      </c>
+      <c r="H662">
+        <v>80</v>
+      </c>
+      <c r="I662">
+        <v>0.3</v>
+      </c>
+      <c r="J662">
+        <v>1500</v>
+      </c>
+      <c r="K662">
+        <v>128</v>
+      </c>
+      <c r="L662">
+        <v>6735.74</v>
+      </c>
+      <c r="M662">
+        <v>0.12859599999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A663" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C663">
+        <v>39</v>
+      </c>
+      <c r="D663">
+        <v>0.8</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+      <c r="F663">
+        <v>144</v>
+      </c>
+      <c r="G663">
+        <v>0.4</v>
+      </c>
+      <c r="H663">
+        <v>80</v>
+      </c>
+      <c r="I663">
+        <v>0.3</v>
+      </c>
+      <c r="J663">
+        <v>1500</v>
+      </c>
+      <c r="K663">
+        <v>128</v>
+      </c>
+      <c r="L663">
+        <v>7120.19</v>
+      </c>
+      <c r="M663">
+        <v>0.14369499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O670"/>
+  <dimension ref="A1:O695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34245,6 +34245,1281 @@
       </c>
       <c r="O670" t="inlineStr"/>
     </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:16:50</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:20:15</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>0</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1</v>
+      </c>
+      <c r="G671" t="n">
+        <v>144</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I671" t="n">
+        <v>80</v>
+      </c>
+      <c r="J671" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K671" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L671" t="n">
+        <v>128</v>
+      </c>
+      <c r="M671" t="n">
+        <v>7192.32</v>
+      </c>
+      <c r="N671" t="n">
+        <v>0.146621</v>
+      </c>
+      <c r="O671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:20:19</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:23:39</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>1</v>
+      </c>
+      <c r="E672" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1</v>
+      </c>
+      <c r="G672" t="n">
+        <v>144</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I672" t="n">
+        <v>80</v>
+      </c>
+      <c r="J672" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K672" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L672" t="n">
+        <v>128</v>
+      </c>
+      <c r="M672" t="n">
+        <v>7210.79</v>
+      </c>
+      <c r="N672" t="n">
+        <v>0.147375</v>
+      </c>
+      <c r="O672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:23:42</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:26:51</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>2</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1</v>
+      </c>
+      <c r="G673" t="n">
+        <v>144</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I673" t="n">
+        <v>80</v>
+      </c>
+      <c r="J673" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K673" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L673" t="n">
+        <v>128</v>
+      </c>
+      <c r="M673" t="n">
+        <v>7042.64</v>
+      </c>
+      <c r="N673" t="n">
+        <v>0.140582</v>
+      </c>
+      <c r="O673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:26:54</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:30:05</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>3</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1</v>
+      </c>
+      <c r="G674" t="n">
+        <v>144</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I674" t="n">
+        <v>80</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K674" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L674" t="n">
+        <v>128</v>
+      </c>
+      <c r="M674" t="n">
+        <v>6803.36</v>
+      </c>
+      <c r="N674" t="n">
+        <v>0.131192</v>
+      </c>
+      <c r="O674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:30:08</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:33:17</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>4</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1</v>
+      </c>
+      <c r="G675" t="n">
+        <v>144</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I675" t="n">
+        <v>80</v>
+      </c>
+      <c r="J675" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K675" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L675" t="n">
+        <v>128</v>
+      </c>
+      <c r="M675" t="n">
+        <v>7145</v>
+      </c>
+      <c r="N675" t="n">
+        <v>0.144698</v>
+      </c>
+      <c r="O675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:33:20</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:36:32</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>5</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1</v>
+      </c>
+      <c r="G676" t="n">
+        <v>144</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I676" t="n">
+        <v>80</v>
+      </c>
+      <c r="J676" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K676" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L676" t="n">
+        <v>128</v>
+      </c>
+      <c r="M676" t="n">
+        <v>7021.49</v>
+      </c>
+      <c r="N676" t="n">
+        <v>0.139739</v>
+      </c>
+      <c r="O676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:36:35</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:39:20</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>6</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1</v>
+      </c>
+      <c r="G677" t="n">
+        <v>144</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I677" t="n">
+        <v>80</v>
+      </c>
+      <c r="J677" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K677" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L677" t="n">
+        <v>128</v>
+      </c>
+      <c r="M677" t="n">
+        <v>6493.7</v>
+      </c>
+      <c r="N677" t="n">
+        <v>0.119521</v>
+      </c>
+      <c r="O677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:39:22</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:41:59</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>7</v>
+      </c>
+      <c r="E678" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1</v>
+      </c>
+      <c r="G678" t="n">
+        <v>144</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I678" t="n">
+        <v>80</v>
+      </c>
+      <c r="J678" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K678" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L678" t="n">
+        <v>128</v>
+      </c>
+      <c r="M678" t="n">
+        <v>6958.12</v>
+      </c>
+      <c r="N678" t="n">
+        <v>0.137228</v>
+      </c>
+      <c r="O678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:42:01</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:44:36</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>8</v>
+      </c>
+      <c r="E679" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1</v>
+      </c>
+      <c r="G679" t="n">
+        <v>144</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I679" t="n">
+        <v>80</v>
+      </c>
+      <c r="J679" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K679" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L679" t="n">
+        <v>128</v>
+      </c>
+      <c r="M679" t="n">
+        <v>6947.22</v>
+      </c>
+      <c r="N679" t="n">
+        <v>0.136798</v>
+      </c>
+      <c r="O679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:44:38</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:47:13</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>9</v>
+      </c>
+      <c r="E680" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1</v>
+      </c>
+      <c r="G680" t="n">
+        <v>144</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I680" t="n">
+        <v>80</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K680" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L680" t="n">
+        <v>128</v>
+      </c>
+      <c r="M680" t="n">
+        <v>6827.87</v>
+      </c>
+      <c r="N680" t="n">
+        <v>0.132139</v>
+      </c>
+      <c r="O680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:47:16</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:49:54</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>10</v>
+      </c>
+      <c r="E681" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1</v>
+      </c>
+      <c r="G681" t="n">
+        <v>144</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I681" t="n">
+        <v>80</v>
+      </c>
+      <c r="J681" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K681" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L681" t="n">
+        <v>128</v>
+      </c>
+      <c r="M681" t="n">
+        <v>6875.47</v>
+      </c>
+      <c r="N681" t="n">
+        <v>0.133987</v>
+      </c>
+      <c r="O681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:49:56</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:52:30</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>11</v>
+      </c>
+      <c r="E682" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1</v>
+      </c>
+      <c r="G682" t="n">
+        <v>144</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I682" t="n">
+        <v>80</v>
+      </c>
+      <c r="J682" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K682" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L682" t="n">
+        <v>128</v>
+      </c>
+      <c r="M682" t="n">
+        <v>6591.88</v>
+      </c>
+      <c r="N682" t="n">
+        <v>0.123162</v>
+      </c>
+      <c r="O682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:52:32</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:55:00</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>12</v>
+      </c>
+      <c r="E683" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1</v>
+      </c>
+      <c r="G683" t="n">
+        <v>144</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I683" t="n">
+        <v>80</v>
+      </c>
+      <c r="J683" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K683" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L683" t="n">
+        <v>128</v>
+      </c>
+      <c r="M683" t="n">
+        <v>7187.72</v>
+      </c>
+      <c r="N683" t="n">
+        <v>0.146434</v>
+      </c>
+      <c r="O683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:55:02</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:57:27</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>13</v>
+      </c>
+      <c r="E684" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1</v>
+      </c>
+      <c r="G684" t="n">
+        <v>144</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I684" t="n">
+        <v>80</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K684" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L684" t="n">
+        <v>128</v>
+      </c>
+      <c r="M684" t="n">
+        <v>6788.48</v>
+      </c>
+      <c r="N684" t="n">
+        <v>0.130618</v>
+      </c>
+      <c r="O684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:57:29</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:59:54</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>14</v>
+      </c>
+      <c r="E685" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1</v>
+      </c>
+      <c r="G685" t="n">
+        <v>144</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I685" t="n">
+        <v>80</v>
+      </c>
+      <c r="J685" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K685" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L685" t="n">
+        <v>128</v>
+      </c>
+      <c r="M685" t="n">
+        <v>6762.94</v>
+      </c>
+      <c r="N685" t="n">
+        <v>0.129637</v>
+      </c>
+      <c r="O685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:59:56</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:02:29</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>15</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1</v>
+      </c>
+      <c r="G686" t="n">
+        <v>144</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I686" t="n">
+        <v>80</v>
+      </c>
+      <c r="J686" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K686" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L686" t="n">
+        <v>128</v>
+      </c>
+      <c r="M686" t="n">
+        <v>6743.27</v>
+      </c>
+      <c r="N686" t="n">
+        <v>0.128884</v>
+      </c>
+      <c r="O686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:02:31</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:05:06</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>16</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1</v>
+      </c>
+      <c r="G687" t="n">
+        <v>144</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I687" t="n">
+        <v>80</v>
+      </c>
+      <c r="J687" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K687" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L687" t="n">
+        <v>128</v>
+      </c>
+      <c r="M687" t="n">
+        <v>6902.81</v>
+      </c>
+      <c r="N687" t="n">
+        <v>0.135055</v>
+      </c>
+      <c r="O687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:05:08</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:07:36</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>17</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1</v>
+      </c>
+      <c r="G688" t="n">
+        <v>144</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I688" t="n">
+        <v>80</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K688" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L688" t="n">
+        <v>128</v>
+      </c>
+      <c r="M688" t="n">
+        <v>6703.92</v>
+      </c>
+      <c r="N688" t="n">
+        <v>0.127384</v>
+      </c>
+      <c r="O688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:07:38</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:10:05</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>18</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1</v>
+      </c>
+      <c r="G689" t="n">
+        <v>144</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I689" t="n">
+        <v>80</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K689" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L689" t="n">
+        <v>128</v>
+      </c>
+      <c r="M689" t="n">
+        <v>6922.23</v>
+      </c>
+      <c r="N689" t="n">
+        <v>0.135816</v>
+      </c>
+      <c r="O689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:10:07</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:12:36</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>19</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1</v>
+      </c>
+      <c r="G690" t="n">
+        <v>144</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I690" t="n">
+        <v>80</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K690" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L690" t="n">
+        <v>128</v>
+      </c>
+      <c r="M690" t="n">
+        <v>6847.32</v>
+      </c>
+      <c r="N690" t="n">
+        <v>0.132892</v>
+      </c>
+      <c r="O690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:42:10</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:43:36</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>0</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F691" t="n">
+        <v>3</v>
+      </c>
+      <c r="G691" t="n">
+        <v>72</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I691" t="n">
+        <v>40</v>
+      </c>
+      <c r="J691" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K691" t="n">
+        <v>800</v>
+      </c>
+      <c r="L691" t="n">
+        <v>128</v>
+      </c>
+      <c r="M691" t="n">
+        <v>8259.809999999999</v>
+      </c>
+      <c r="N691" t="n">
+        <v>0.1817</v>
+      </c>
+      <c r="O691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:44:17</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:45:51</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>0</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F692" t="n">
+        <v>7</v>
+      </c>
+      <c r="G692" t="n">
+        <v>72</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I692" t="n">
+        <v>40</v>
+      </c>
+      <c r="J692" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K692" t="n">
+        <v>800</v>
+      </c>
+      <c r="L692" t="n">
+        <v>128</v>
+      </c>
+      <c r="M692" t="n">
+        <v>7501.49</v>
+      </c>
+      <c r="N692" t="n">
+        <v>0.159498</v>
+      </c>
+      <c r="O692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:46:25</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:47:48</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>0</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2</v>
+      </c>
+      <c r="G693" t="n">
+        <v>72</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I693" t="n">
+        <v>40</v>
+      </c>
+      <c r="J693" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K693" t="n">
+        <v>800</v>
+      </c>
+      <c r="L693" t="n">
+        <v>128</v>
+      </c>
+      <c r="M693" t="n">
+        <v>6438.95</v>
+      </c>
+      <c r="N693" t="n">
+        <v>0.117514</v>
+      </c>
+      <c r="O693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:48:46</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:50:11</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>0</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2</v>
+      </c>
+      <c r="G694" t="n">
+        <v>72</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I694" t="n">
+        <v>40</v>
+      </c>
+      <c r="J694" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K694" t="n">
+        <v>800</v>
+      </c>
+      <c r="L694" t="n">
+        <v>128</v>
+      </c>
+      <c r="M694" t="n">
+        <v>7703.89</v>
+      </c>
+      <c r="N694" t="n">
+        <v>0.158065</v>
+      </c>
+      <c r="O694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-02-26 18:33:49</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2025-02-26 18:39:25</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>0</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1</v>
+      </c>
+      <c r="G695" t="n">
+        <v>64</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I695" t="n">
+        <v>32</v>
+      </c>
+      <c r="J695" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K695" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L695" t="n">
+        <v>128</v>
+      </c>
+      <c r="M695" t="n">
+        <v>109.65</v>
+      </c>
+      <c r="N695" t="n">
+        <v>0.215861</v>
+      </c>
+      <c r="O695" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O695"/>
+  <dimension ref="A1:O736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35520,6 +35520,2097 @@
       </c>
       <c r="O695" t="inlineStr"/>
     </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:22:01</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:24:16</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>0</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F696" t="n">
+        <v>2</v>
+      </c>
+      <c r="G696" t="n">
+        <v>144</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I696" t="n">
+        <v>80</v>
+      </c>
+      <c r="J696" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K696" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L696" t="n">
+        <v>128</v>
+      </c>
+      <c r="M696" t="n">
+        <v>9052.49</v>
+      </c>
+      <c r="N696" t="n">
+        <v>0.218249</v>
+      </c>
+      <c r="O696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:25:18</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:27:31</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>0</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F697" t="n">
+        <v>2</v>
+      </c>
+      <c r="G697" t="n">
+        <v>144</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I697" t="n">
+        <v>80</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K697" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L697" t="n">
+        <v>128</v>
+      </c>
+      <c r="M697" t="n">
+        <v>7532.34</v>
+      </c>
+      <c r="N697" t="n">
+        <v>0.151104</v>
+      </c>
+      <c r="O697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:28:24</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:30:32</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>0</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F698" t="n">
+        <v>2</v>
+      </c>
+      <c r="G698" t="n">
+        <v>144</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I698" t="n">
+        <v>80</v>
+      </c>
+      <c r="J698" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K698" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L698" t="n">
+        <v>128</v>
+      </c>
+      <c r="M698" t="n">
+        <v>7947.32</v>
+      </c>
+      <c r="N698" t="n">
+        <v>0.179019</v>
+      </c>
+      <c r="O698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:33:25</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:35:43</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>0</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F699" t="n">
+        <v>2</v>
+      </c>
+      <c r="G699" t="n">
+        <v>144</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I699" t="n">
+        <v>80</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K699" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L699" t="n">
+        <v>128</v>
+      </c>
+      <c r="M699" t="n">
+        <v>7994.23</v>
+      </c>
+      <c r="N699" t="n">
+        <v>0.181139</v>
+      </c>
+      <c r="O699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:37:02</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:39:12</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>0</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1</v>
+      </c>
+      <c r="G700" t="n">
+        <v>144</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I700" t="n">
+        <v>80</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K700" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L700" t="n">
+        <v>128</v>
+      </c>
+      <c r="M700" t="n">
+        <v>8516.25</v>
+      </c>
+      <c r="N700" t="n">
+        <v>0.193158</v>
+      </c>
+      <c r="O700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:39:42</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:41:50</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>0</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1</v>
+      </c>
+      <c r="G701" t="n">
+        <v>144</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I701" t="n">
+        <v>80</v>
+      </c>
+      <c r="J701" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K701" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L701" t="n">
+        <v>128</v>
+      </c>
+      <c r="M701" t="n">
+        <v>8339.969999999999</v>
+      </c>
+      <c r="N701" t="n">
+        <v>0.185244</v>
+      </c>
+      <c r="O701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:42:20</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-03-03 18:44:29</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>0</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1</v>
+      </c>
+      <c r="G702" t="n">
+        <v>144</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I702" t="n">
+        <v>80</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K702" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L702" t="n">
+        <v>128</v>
+      </c>
+      <c r="M702" t="n">
+        <v>9159.34</v>
+      </c>
+      <c r="N702" t="n">
+        <v>0.237786</v>
+      </c>
+      <c r="O702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:36:15</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:38:22</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>0</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1</v>
+      </c>
+      <c r="G703" t="n">
+        <v>144</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I703" t="n">
+        <v>80</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K703" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L703" t="n">
+        <v>128</v>
+      </c>
+      <c r="M703" t="n">
+        <v>8947.68</v>
+      </c>
+      <c r="N703" t="n">
+        <v>0.226923</v>
+      </c>
+      <c r="O703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:43:36</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:46:59</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>0</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1</v>
+      </c>
+      <c r="G704" t="n">
+        <v>144</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I704" t="n">
+        <v>80</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K704" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L704" t="n">
+        <v>128</v>
+      </c>
+      <c r="M704" t="n">
+        <v>9598.17</v>
+      </c>
+      <c r="N704" t="n">
+        <v>0.245354</v>
+      </c>
+      <c r="O704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:47:36</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:54:15</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>0</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1</v>
+      </c>
+      <c r="G705" t="n">
+        <v>144</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I705" t="n">
+        <v>80</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K705" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L705" t="n">
+        <v>128</v>
+      </c>
+      <c r="M705" t="n">
+        <v>9812.75</v>
+      </c>
+      <c r="N705" t="n">
+        <v>0.256447</v>
+      </c>
+      <c r="O705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:54:57</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:58:25</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>0</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1</v>
+      </c>
+      <c r="G706" t="n">
+        <v>144</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I706" t="n">
+        <v>80</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K706" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L706" t="n">
+        <v>128</v>
+      </c>
+      <c r="M706" t="n">
+        <v>7803.66</v>
+      </c>
+      <c r="N706" t="n">
+        <v>0.162186</v>
+      </c>
+      <c r="O706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:59:52</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:02:20</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>0</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1</v>
+      </c>
+      <c r="G707" t="n">
+        <v>144</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I707" t="n">
+        <v>80</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K707" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L707" t="n">
+        <v>128</v>
+      </c>
+      <c r="M707" t="n">
+        <v>8223.200000000001</v>
+      </c>
+      <c r="N707" t="n">
+        <v>0.180093</v>
+      </c>
+      <c r="O707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:02:23</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:04:48</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>1</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1</v>
+      </c>
+      <c r="G708" t="n">
+        <v>144</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I708" t="n">
+        <v>80</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K708" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L708" t="n">
+        <v>128</v>
+      </c>
+      <c r="M708" t="n">
+        <v>8266.93</v>
+      </c>
+      <c r="N708" t="n">
+        <v>0.182014</v>
+      </c>
+      <c r="O708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:04:50</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:07:13</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>2</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1</v>
+      </c>
+      <c r="G709" t="n">
+        <v>144</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I709" t="n">
+        <v>80</v>
+      </c>
+      <c r="J709" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K709" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L709" t="n">
+        <v>128</v>
+      </c>
+      <c r="M709" t="n">
+        <v>7854.31</v>
+      </c>
+      <c r="N709" t="n">
+        <v>0.164298</v>
+      </c>
+      <c r="O709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:07:15</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:09:48</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>3</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1</v>
+      </c>
+      <c r="G710" t="n">
+        <v>144</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I710" t="n">
+        <v>80</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K710" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L710" t="n">
+        <v>128</v>
+      </c>
+      <c r="M710" t="n">
+        <v>8345.73</v>
+      </c>
+      <c r="N710" t="n">
+        <v>0.1855</v>
+      </c>
+      <c r="O710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:09:50</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>4</v>
+      </c>
+      <c r="E711" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1</v>
+      </c>
+      <c r="G711" t="n">
+        <v>144</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I711" t="n">
+        <v>80</v>
+      </c>
+      <c r="J711" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K711" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L711" t="n">
+        <v>128</v>
+      </c>
+      <c r="M711" t="n">
+        <v>8422.98</v>
+      </c>
+      <c r="N711" t="n">
+        <v>0.18895</v>
+      </c>
+      <c r="O711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:21</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:14:50</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>5</v>
+      </c>
+      <c r="E712" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1</v>
+      </c>
+      <c r="G712" t="n">
+        <v>144</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I712" t="n">
+        <v>80</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K712" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L712" t="n">
+        <v>128</v>
+      </c>
+      <c r="M712" t="n">
+        <v>8381.51</v>
+      </c>
+      <c r="N712" t="n">
+        <v>0.187094</v>
+      </c>
+      <c r="O712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:14:52</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:17:22</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>6</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1</v>
+      </c>
+      <c r="G713" t="n">
+        <v>144</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I713" t="n">
+        <v>80</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K713" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L713" t="n">
+        <v>128</v>
+      </c>
+      <c r="M713" t="n">
+        <v>8144.83</v>
+      </c>
+      <c r="N713" t="n">
+        <v>0.176677</v>
+      </c>
+      <c r="O713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:17:24</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:19:52</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>7</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1</v>
+      </c>
+      <c r="G714" t="n">
+        <v>144</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I714" t="n">
+        <v>80</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K714" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L714" t="n">
+        <v>128</v>
+      </c>
+      <c r="M714" t="n">
+        <v>8513.209999999999</v>
+      </c>
+      <c r="N714" t="n">
+        <v>0.19302</v>
+      </c>
+      <c r="O714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:19:54</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:22:22</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>8</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1</v>
+      </c>
+      <c r="G715" t="n">
+        <v>144</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I715" t="n">
+        <v>80</v>
+      </c>
+      <c r="J715" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K715" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L715" t="n">
+        <v>128</v>
+      </c>
+      <c r="M715" t="n">
+        <v>8465.98</v>
+      </c>
+      <c r="N715" t="n">
+        <v>0.190884</v>
+      </c>
+      <c r="O715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:22:24</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:24:49</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>9</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1</v>
+      </c>
+      <c r="G716" t="n">
+        <v>144</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I716" t="n">
+        <v>80</v>
+      </c>
+      <c r="J716" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K716" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L716" t="n">
+        <v>128</v>
+      </c>
+      <c r="M716" t="n">
+        <v>8408.700000000001</v>
+      </c>
+      <c r="N716" t="n">
+        <v>0.18831</v>
+      </c>
+      <c r="O716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:37:07</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:39:39</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1</v>
+      </c>
+      <c r="G717" t="n">
+        <v>144</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I717" t="n">
+        <v>80</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K717" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L717" t="n">
+        <v>128</v>
+      </c>
+      <c r="M717" t="n">
+        <v>8054.92</v>
+      </c>
+      <c r="N717" t="n">
+        <v>0.172798</v>
+      </c>
+      <c r="O717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:39:41</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:42:06</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>1</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1</v>
+      </c>
+      <c r="G718" t="n">
+        <v>144</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I718" t="n">
+        <v>80</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K718" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L718" t="n">
+        <v>128</v>
+      </c>
+      <c r="M718" t="n">
+        <v>8384.48</v>
+      </c>
+      <c r="N718" t="n">
+        <v>0.187227</v>
+      </c>
+      <c r="O718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:42:08</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:44:30</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>2</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1</v>
+      </c>
+      <c r="G719" t="n">
+        <v>144</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I719" t="n">
+        <v>80</v>
+      </c>
+      <c r="J719" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K719" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L719" t="n">
+        <v>128</v>
+      </c>
+      <c r="M719" t="n">
+        <v>7988.45</v>
+      </c>
+      <c r="N719" t="n">
+        <v>0.169958</v>
+      </c>
+      <c r="O719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:44:32</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:47:04</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>3</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1</v>
+      </c>
+      <c r="G720" t="n">
+        <v>144</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I720" t="n">
+        <v>80</v>
+      </c>
+      <c r="J720" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K720" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L720" t="n">
+        <v>128</v>
+      </c>
+      <c r="M720" t="n">
+        <v>7922.17</v>
+      </c>
+      <c r="N720" t="n">
+        <v>0.167149</v>
+      </c>
+      <c r="O720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:47:06</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:49:51</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>4</v>
+      </c>
+      <c r="E721" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1</v>
+      </c>
+      <c r="G721" t="n">
+        <v>144</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I721" t="n">
+        <v>80</v>
+      </c>
+      <c r="J721" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K721" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L721" t="n">
+        <v>128</v>
+      </c>
+      <c r="M721" t="n">
+        <v>8005.17</v>
+      </c>
+      <c r="N721" t="n">
+        <v>0.17067</v>
+      </c>
+      <c r="O721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:49:53</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:52:31</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>5</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1</v>
+      </c>
+      <c r="G722" t="n">
+        <v>144</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I722" t="n">
+        <v>80</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K722" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L722" t="n">
+        <v>128</v>
+      </c>
+      <c r="M722" t="n">
+        <v>8061.47</v>
+      </c>
+      <c r="N722" t="n">
+        <v>0.173079</v>
+      </c>
+      <c r="O722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:52:33</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:55:14</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>6</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1</v>
+      </c>
+      <c r="G723" t="n">
+        <v>144</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I723" t="n">
+        <v>80</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K723" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L723" t="n">
+        <v>128</v>
+      </c>
+      <c r="M723" t="n">
+        <v>8733.639999999999</v>
+      </c>
+      <c r="N723" t="n">
+        <v>0.203145</v>
+      </c>
+      <c r="O723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:55:16</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:57:55</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>7</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1</v>
+      </c>
+      <c r="G724" t="n">
+        <v>144</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I724" t="n">
+        <v>80</v>
+      </c>
+      <c r="J724" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K724" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L724" t="n">
+        <v>128</v>
+      </c>
+      <c r="M724" t="n">
+        <v>8089.75</v>
+      </c>
+      <c r="N724" t="n">
+        <v>0.174295</v>
+      </c>
+      <c r="O724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:57:58</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:00:35</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>8</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1</v>
+      </c>
+      <c r="G725" t="n">
+        <v>144</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I725" t="n">
+        <v>80</v>
+      </c>
+      <c r="J725" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K725" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L725" t="n">
+        <v>128</v>
+      </c>
+      <c r="M725" t="n">
+        <v>8400.77</v>
+      </c>
+      <c r="N725" t="n">
+        <v>0.187955</v>
+      </c>
+      <c r="O725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:00:36</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:03:11</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>9</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1</v>
+      </c>
+      <c r="G726" t="n">
+        <v>144</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I726" t="n">
+        <v>80</v>
+      </c>
+      <c r="J726" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K726" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L726" t="n">
+        <v>128</v>
+      </c>
+      <c r="M726" t="n">
+        <v>8381.969999999999</v>
+      </c>
+      <c r="N726" t="n">
+        <v>0.187115</v>
+      </c>
+      <c r="O726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:04:44</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:07:25</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>0</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1</v>
+      </c>
+      <c r="G727" t="n">
+        <v>144</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I727" t="n">
+        <v>80</v>
+      </c>
+      <c r="J727" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K727" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L727" t="n">
+        <v>128</v>
+      </c>
+      <c r="M727" t="n">
+        <v>7691.68</v>
+      </c>
+      <c r="N727" t="n">
+        <v>0.157564</v>
+      </c>
+      <c r="O727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:07:27</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:10:18</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>1</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1</v>
+      </c>
+      <c r="G728" t="n">
+        <v>144</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I728" t="n">
+        <v>80</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K728" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L728" t="n">
+        <v>128</v>
+      </c>
+      <c r="M728" t="n">
+        <v>8600.84</v>
+      </c>
+      <c r="N728" t="n">
+        <v>0.197014</v>
+      </c>
+      <c r="O728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:10:20</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:13:08</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>2</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1</v>
+      </c>
+      <c r="G729" t="n">
+        <v>144</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I729" t="n">
+        <v>80</v>
+      </c>
+      <c r="J729" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K729" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L729" t="n">
+        <v>128</v>
+      </c>
+      <c r="M729" t="n">
+        <v>7567.58</v>
+      </c>
+      <c r="N729" t="n">
+        <v>0.152521</v>
+      </c>
+      <c r="O729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:13:10</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:16:06</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>3</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1</v>
+      </c>
+      <c r="G730" t="n">
+        <v>144</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I730" t="n">
+        <v>80</v>
+      </c>
+      <c r="J730" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K730" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L730" t="n">
+        <v>128</v>
+      </c>
+      <c r="M730" t="n">
+        <v>7577.75</v>
+      </c>
+      <c r="N730" t="n">
+        <v>0.152931</v>
+      </c>
+      <c r="O730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:16:08</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:19:10</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>4</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" t="n">
+        <v>144</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I731" t="n">
+        <v>80</v>
+      </c>
+      <c r="J731" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K731" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L731" t="n">
+        <v>128</v>
+      </c>
+      <c r="M731" t="n">
+        <v>8233.709999999999</v>
+      </c>
+      <c r="N731" t="n">
+        <v>0.180554</v>
+      </c>
+      <c r="O731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:19:13</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:22:00</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>5</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1</v>
+      </c>
+      <c r="G732" t="n">
+        <v>144</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I732" t="n">
+        <v>80</v>
+      </c>
+      <c r="J732" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K732" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L732" t="n">
+        <v>128</v>
+      </c>
+      <c r="M732" t="n">
+        <v>7586.76</v>
+      </c>
+      <c r="N732" t="n">
+        <v>0.153295</v>
+      </c>
+      <c r="O732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:22:02</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:24:47</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>6</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1</v>
+      </c>
+      <c r="G733" t="n">
+        <v>144</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I733" t="n">
+        <v>80</v>
+      </c>
+      <c r="J733" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K733" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L733" t="n">
+        <v>128</v>
+      </c>
+      <c r="M733" t="n">
+        <v>7879.66</v>
+      </c>
+      <c r="N733" t="n">
+        <v>0.16536</v>
+      </c>
+      <c r="O733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:24:49</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:27:22</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>7</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1</v>
+      </c>
+      <c r="G734" t="n">
+        <v>144</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I734" t="n">
+        <v>80</v>
+      </c>
+      <c r="J734" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K734" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L734" t="n">
+        <v>128</v>
+      </c>
+      <c r="M734" t="n">
+        <v>7956.4</v>
+      </c>
+      <c r="N734" t="n">
+        <v>0.168597</v>
+      </c>
+      <c r="O734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:27:24</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:30:00</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>8</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1</v>
+      </c>
+      <c r="G735" t="n">
+        <v>144</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I735" t="n">
+        <v>80</v>
+      </c>
+      <c r="J735" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K735" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L735" t="n">
+        <v>128</v>
+      </c>
+      <c r="M735" t="n">
+        <v>8448.959999999999</v>
+      </c>
+      <c r="N735" t="n">
+        <v>0.190118</v>
+      </c>
+      <c r="O735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:30:02</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:32:32</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>9</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1</v>
+      </c>
+      <c r="G736" t="n">
+        <v>144</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I736" t="n">
+        <v>80</v>
+      </c>
+      <c r="J736" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K736" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L736" t="n">
+        <v>128</v>
+      </c>
+      <c r="M736" t="n">
+        <v>8118.92</v>
+      </c>
+      <c r="N736" t="n">
+        <v>0.175555</v>
+      </c>
+      <c r="O736" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O736"/>
+  <dimension ref="A1:O745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37611,6 +37611,465 @@
       </c>
       <c r="O736" t="inlineStr"/>
     </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:11:01</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:16:12</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>0</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F737" t="n">
+        <v>7</v>
+      </c>
+      <c r="G737" t="n">
+        <v>144</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I737" t="n">
+        <v>80</v>
+      </c>
+      <c r="J737" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K737" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L737" t="n">
+        <v>128</v>
+      </c>
+      <c r="M737" t="n">
+        <v>9089.379999999999</v>
+      </c>
+      <c r="N737" t="n">
+        <v>0.220031</v>
+      </c>
+      <c r="O737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:21:51</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:27:40</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>0</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F738" t="n">
+        <v>7</v>
+      </c>
+      <c r="G738" t="n">
+        <v>144</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I738" t="n">
+        <v>80</v>
+      </c>
+      <c r="J738" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K738" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L738" t="n">
+        <v>128</v>
+      </c>
+      <c r="M738" t="n">
+        <v>8704.01</v>
+      </c>
+      <c r="N738" t="n">
+        <v>0.201769</v>
+      </c>
+      <c r="O738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:28:49</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:33:10</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>0</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1</v>
+      </c>
+      <c r="G739" t="n">
+        <v>144</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I739" t="n">
+        <v>80</v>
+      </c>
+      <c r="J739" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K739" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L739" t="n">
+        <v>128</v>
+      </c>
+      <c r="M739" t="n">
+        <v>8536.629999999999</v>
+      </c>
+      <c r="N739" t="n">
+        <v>0.206553</v>
+      </c>
+      <c r="O739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:34:08</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:38:27</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>0</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1</v>
+      </c>
+      <c r="G740" t="n">
+        <v>144</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I740" t="n">
+        <v>80</v>
+      </c>
+      <c r="J740" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K740" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L740" t="n">
+        <v>128</v>
+      </c>
+      <c r="M740" t="n">
+        <v>9046.620000000001</v>
+      </c>
+      <c r="N740" t="n">
+        <v>0.23197</v>
+      </c>
+      <c r="O740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:39:21</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:43:34</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1</v>
+      </c>
+      <c r="G741" t="n">
+        <v>144</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I741" t="n">
+        <v>80</v>
+      </c>
+      <c r="J741" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K741" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L741" t="n">
+        <v>128</v>
+      </c>
+      <c r="M741" t="n">
+        <v>7870.28</v>
+      </c>
+      <c r="N741" t="n">
+        <v>0.175565</v>
+      </c>
+      <c r="O741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:44:26</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:50:19</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F742" t="n">
+        <v>7</v>
+      </c>
+      <c r="G742" t="n">
+        <v>144</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I742" t="n">
+        <v>80</v>
+      </c>
+      <c r="J742" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K742" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L742" t="n">
+        <v>128</v>
+      </c>
+      <c r="M742" t="n">
+        <v>7911.93</v>
+      </c>
+      <c r="N742" t="n">
+        <v>0.177429</v>
+      </c>
+      <c r="O742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:51:03</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:55:21</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>0</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1</v>
+      </c>
+      <c r="G743" t="n">
+        <v>144</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I743" t="n">
+        <v>80</v>
+      </c>
+      <c r="J743" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K743" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L743" t="n">
+        <v>128</v>
+      </c>
+      <c r="M743" t="n">
+        <v>7032.16</v>
+      </c>
+      <c r="N743" t="n">
+        <v>0.140164</v>
+      </c>
+      <c r="O743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:36:32</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:39:52</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>0</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1</v>
+      </c>
+      <c r="G744" t="n">
+        <v>144</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I744" t="n">
+        <v>80</v>
+      </c>
+      <c r="J744" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K744" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L744" t="n">
+        <v>128</v>
+      </c>
+      <c r="M744" t="n">
+        <v>7635.31</v>
+      </c>
+      <c r="N744" t="n">
+        <v>0.155263</v>
+      </c>
+      <c r="O744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:40:24</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:43:53</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>0</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1</v>
+      </c>
+      <c r="G745" t="n">
+        <v>144</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I745" t="n">
+        <v>96</v>
+      </c>
+      <c r="J745" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K745" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L745" t="n">
+        <v>128</v>
+      </c>
+      <c r="M745" t="n">
+        <v>7199.34</v>
+      </c>
+      <c r="N745" t="n">
+        <v>0.138039</v>
+      </c>
+      <c r="O745" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O745"/>
+  <dimension ref="A1:O746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38070,6 +38070,57 @@
       </c>
       <c r="O745" t="inlineStr"/>
     </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:44:07</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:47:30</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+      <c r="E746" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1</v>
+      </c>
+      <c r="G746" t="n">
+        <v>144</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I746" t="n">
+        <v>96</v>
+      </c>
+      <c r="J746" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K746" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L746" t="n">
+        <v>128</v>
+      </c>
+      <c r="M746" t="n">
+        <v>7607.96</v>
+      </c>
+      <c r="N746" t="n">
+        <v>0.154153</v>
+      </c>
+      <c r="O746" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O746"/>
+  <dimension ref="A1:O747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38121,6 +38121,57 @@
       </c>
       <c r="O746" t="inlineStr"/>
     </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:55:40</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2025-03-06 18:58:59</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1</v>
+      </c>
+      <c r="G747" t="n">
+        <v>144</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I747" t="n">
+        <v>96</v>
+      </c>
+      <c r="J747" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K747" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L747" t="n">
+        <v>128</v>
+      </c>
+      <c r="M747" t="n">
+        <v>7350.05</v>
+      </c>
+      <c r="N747" t="n">
+        <v>0.143878</v>
+      </c>
+      <c r="O747" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P794"/>
+  <dimension ref="A1:P807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44539,6 +44539,734 @@
       </c>
       <c r="P794" t="inlineStr"/>
     </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:37:17</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:37:57</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>0</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G795" t="n">
+        <v>1</v>
+      </c>
+      <c r="H795" t="n">
+        <v>144</v>
+      </c>
+      <c r="I795" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J795" t="n">
+        <v>80</v>
+      </c>
+      <c r="K795" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L795" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M795" t="n">
+        <v>128</v>
+      </c>
+      <c r="N795" t="n">
+        <v>7055.13330078125</v>
+      </c>
+      <c r="O795" t="n">
+        <v>0.1325641870498657</v>
+      </c>
+      <c r="P795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:38:38</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:39:17</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>0</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1</v>
+      </c>
+      <c r="H796" t="n">
+        <v>144</v>
+      </c>
+      <c r="I796" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J796" t="n">
+        <v>80</v>
+      </c>
+      <c r="K796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L796" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M796" t="n">
+        <v>128</v>
+      </c>
+      <c r="N796" t="n">
+        <v>6578.50830078125</v>
+      </c>
+      <c r="O796" t="n">
+        <v>0.1226629614830017</v>
+      </c>
+      <c r="P796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:39:52</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:40:30</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>0</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G797" t="n">
+        <v>1</v>
+      </c>
+      <c r="H797" t="n">
+        <v>144</v>
+      </c>
+      <c r="I797" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J797" t="n">
+        <v>80</v>
+      </c>
+      <c r="K797" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L797" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M797" t="n">
+        <v>128</v>
+      </c>
+      <c r="N797" t="n">
+        <v>15736.3349609375</v>
+      </c>
+      <c r="O797" t="n">
+        <v>0.7018845081329346</v>
+      </c>
+      <c r="P797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:41:00</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:41:39</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>0</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1</v>
+      </c>
+      <c r="H798" t="n">
+        <v>144</v>
+      </c>
+      <c r="I798" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J798" t="n">
+        <v>80</v>
+      </c>
+      <c r="K798" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L798" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M798" t="n">
+        <v>128</v>
+      </c>
+      <c r="N798" t="n">
+        <v>6777.5537109375</v>
+      </c>
+      <c r="O798" t="n">
+        <v>0.1301980316638947</v>
+      </c>
+      <c r="P798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:47:21</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:48:02</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>0</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G799" t="n">
+        <v>1</v>
+      </c>
+      <c r="H799" t="n">
+        <v>144</v>
+      </c>
+      <c r="I799" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J799" t="n">
+        <v>80</v>
+      </c>
+      <c r="K799" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L799" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M799" t="n">
+        <v>128</v>
+      </c>
+      <c r="N799" t="n">
+        <v>5896.7705078125</v>
+      </c>
+      <c r="O799" t="n">
+        <v>0.1270727515220642</v>
+      </c>
+      <c r="P799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:48:45</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2025-03-13 14:49:25</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>0</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G800" t="n">
+        <v>1</v>
+      </c>
+      <c r="H800" t="n">
+        <v>144</v>
+      </c>
+      <c r="I800" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J800" t="n">
+        <v>80</v>
+      </c>
+      <c r="K800" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L800" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M800" t="n">
+        <v>128</v>
+      </c>
+      <c r="N800" t="n">
+        <v>7254.08154296875</v>
+      </c>
+      <c r="O800" t="n">
+        <v>0.1401459574699402</v>
+      </c>
+      <c r="P800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:00:05</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:00:43</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>0</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G801" t="n">
+        <v>1</v>
+      </c>
+      <c r="H801" t="n">
+        <v>144</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J801" t="n">
+        <v>80</v>
+      </c>
+      <c r="K801" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L801" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M801" t="n">
+        <v>128</v>
+      </c>
+      <c r="N801" t="n">
+        <v>7413.1826171875</v>
+      </c>
+      <c r="O801" t="n">
+        <v>0.146360918879509</v>
+      </c>
+      <c r="P801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:01:20</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:01:59</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>0</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1</v>
+      </c>
+      <c r="H802" t="n">
+        <v>144</v>
+      </c>
+      <c r="I802" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J802" t="n">
+        <v>98</v>
+      </c>
+      <c r="K802" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L802" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M802" t="n">
+        <v>128</v>
+      </c>
+      <c r="N802" t="n">
+        <v>7238.2919921875</v>
+      </c>
+      <c r="O802" t="n">
+        <v>0.1395365297794342</v>
+      </c>
+      <c r="P802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:03:32</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:04:13</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>0</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G803" t="n">
+        <v>1</v>
+      </c>
+      <c r="H803" t="n">
+        <v>144</v>
+      </c>
+      <c r="I803" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J803" t="n">
+        <v>96</v>
+      </c>
+      <c r="K803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L803" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M803" t="n">
+        <v>128</v>
+      </c>
+      <c r="N803" t="n">
+        <v>7485.06005859375</v>
+      </c>
+      <c r="O803" t="n">
+        <v>0.1492128670215607</v>
+      </c>
+      <c r="P803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:04:43</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:05:23</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>0</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G804" t="n">
+        <v>1</v>
+      </c>
+      <c r="H804" t="n">
+        <v>144</v>
+      </c>
+      <c r="I804" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J804" t="n">
+        <v>96</v>
+      </c>
+      <c r="K804" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L804" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M804" t="n">
+        <v>128</v>
+      </c>
+      <c r="N804" t="n">
+        <v>7327.8994140625</v>
+      </c>
+      <c r="O804" t="n">
+        <v>0.143012747168541</v>
+      </c>
+      <c r="P804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:05:54</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:06:57</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>0</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G805" t="n">
+        <v>1</v>
+      </c>
+      <c r="H805" t="n">
+        <v>144</v>
+      </c>
+      <c r="I805" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J805" t="n">
+        <v>96</v>
+      </c>
+      <c r="K805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L805" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M805" t="n">
+        <v>128</v>
+      </c>
+      <c r="N805" t="n">
+        <v>7475.9453125</v>
+      </c>
+      <c r="O805" t="n">
+        <v>0.1488496959209442</v>
+      </c>
+      <c r="P805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:10:21</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:11:20</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>0</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G806" t="n">
+        <v>1</v>
+      </c>
+      <c r="H806" t="n">
+        <v>144</v>
+      </c>
+      <c r="I806" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J806" t="n">
+        <v>96</v>
+      </c>
+      <c r="K806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L806" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M806" t="n">
+        <v>128</v>
+      </c>
+      <c r="N806" t="n">
+        <v>6903.22314453125</v>
+      </c>
+      <c r="O806" t="n">
+        <v>0.126916915178299</v>
+      </c>
+      <c r="P806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:23:53</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:24:33</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>0</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G807" t="n">
+        <v>1</v>
+      </c>
+      <c r="H807" t="n">
+        <v>144</v>
+      </c>
+      <c r="I807" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J807" t="n">
+        <v>96</v>
+      </c>
+      <c r="K807" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L807" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M807" t="n">
+        <v>128</v>
+      </c>
+      <c r="N807" t="n">
+        <v>6721.3701171875</v>
+      </c>
+      <c r="O807" t="n">
+        <v>0.1203182190656662</v>
+      </c>
+      <c r="P807" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P807"/>
+  <dimension ref="A1:P809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45267,6 +45267,118 @@
       </c>
       <c r="P807" t="inlineStr"/>
     </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025-03-16 15:28:09</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2025-03-16 15:28:52</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>0</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G808" t="n">
+        <v>1</v>
+      </c>
+      <c r="H808" t="n">
+        <v>144</v>
+      </c>
+      <c r="I808" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J808" t="n">
+        <v>96</v>
+      </c>
+      <c r="K808" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L808" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M808" t="n">
+        <v>128</v>
+      </c>
+      <c r="N808" t="n">
+        <v>7321.55126953125</v>
+      </c>
+      <c r="O808" t="n">
+        <v>0.1427650451660156</v>
+      </c>
+      <c r="P808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-03-16 16:04:14</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2025-03-16 16:04:57</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>0</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G809" t="n">
+        <v>1</v>
+      </c>
+      <c r="H809" t="n">
+        <v>144</v>
+      </c>
+      <c r="I809" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J809" t="n">
+        <v>96</v>
+      </c>
+      <c r="K809" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L809" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M809" t="n">
+        <v>128</v>
+      </c>
+      <c r="N809" t="n">
+        <v>7012.5400390625</v>
+      </c>
+      <c r="O809" t="n">
+        <v>0.130968376994133</v>
+      </c>
+      <c r="P809" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P809"/>
+  <dimension ref="A1:P814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45379,6 +45379,286 @@
       </c>
       <c r="P809" t="inlineStr"/>
     </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:19:26</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:20:04</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>0</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G810" t="n">
+        <v>1</v>
+      </c>
+      <c r="H810" t="n">
+        <v>144</v>
+      </c>
+      <c r="I810" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J810" t="n">
+        <v>80</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L810" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M810" t="n">
+        <v>128</v>
+      </c>
+      <c r="N810" t="n">
+        <v>7120.2451171875</v>
+      </c>
+      <c r="O810" t="n">
+        <v>0.1350223273038864</v>
+      </c>
+      <c r="P810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:20:42</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:21:19</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>0</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G811" t="n">
+        <v>1</v>
+      </c>
+      <c r="H811" t="n">
+        <v>144</v>
+      </c>
+      <c r="I811" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J811" t="n">
+        <v>80</v>
+      </c>
+      <c r="K811" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L811" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M811" t="n">
+        <v>128</v>
+      </c>
+      <c r="N811" t="n">
+        <v>7260.21630859375</v>
+      </c>
+      <c r="O811" t="n">
+        <v>0.1403831243515015</v>
+      </c>
+      <c r="P811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:21:41</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2025-03-16 20:22:22</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>0</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G812" t="n">
+        <v>1</v>
+      </c>
+      <c r="H812" t="n">
+        <v>144</v>
+      </c>
+      <c r="I812" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J812" t="n">
+        <v>96</v>
+      </c>
+      <c r="K812" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L812" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M812" t="n">
+        <v>128</v>
+      </c>
+      <c r="N812" t="n">
+        <v>7046.0029296875</v>
+      </c>
+      <c r="O812" t="n">
+        <v>0.1322212964296341</v>
+      </c>
+      <c r="P812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025-03-16 21:06:38</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2025-03-16 21:07:20</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>0</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G813" t="n">
+        <v>1</v>
+      </c>
+      <c r="H813" t="n">
+        <v>144</v>
+      </c>
+      <c r="I813" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J813" t="n">
+        <v>96</v>
+      </c>
+      <c r="K813" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L813" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M813" t="n">
+        <v>128</v>
+      </c>
+      <c r="N813" t="n">
+        <v>7009.5341796875</v>
+      </c>
+      <c r="O813" t="n">
+        <v>0.1308561116456985</v>
+      </c>
+      <c r="P813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2025-03-16 21:50:47</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2025-03-16 21:51:30</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>0</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G814" t="n">
+        <v>1</v>
+      </c>
+      <c r="H814" t="n">
+        <v>144</v>
+      </c>
+      <c r="I814" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J814" t="n">
+        <v>96</v>
+      </c>
+      <c r="K814" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L814" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M814" t="n">
+        <v>128</v>
+      </c>
+      <c r="N814" t="n">
+        <v>7220.22998046875</v>
+      </c>
+      <c r="O814" t="n">
+        <v>0.1388410180807114</v>
+      </c>
+      <c r="P814" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P814"/>
+  <dimension ref="A1:P820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45659,6 +45659,344 @@
       </c>
       <c r="P814" t="inlineStr"/>
     </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2025-03-16 22:28:50</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2025-03-16 22:31:45</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>0</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G815" t="n">
+        <v>1</v>
+      </c>
+      <c r="H815" t="n">
+        <v>144</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J815" t="n">
+        <v>96</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L815" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M815" t="n">
+        <v>128</v>
+      </c>
+      <c r="N815" t="n">
+        <v>101.2737197875977</v>
+      </c>
+      <c r="O815" t="n">
+        <v>0.1841490715742111</v>
+      </c>
+      <c r="P815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:02:29</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:03:11</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>0</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G816" t="n">
+        <v>1</v>
+      </c>
+      <c r="H816" t="n">
+        <v>144</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J816" t="n">
+        <v>96</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L816" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M816" t="n">
+        <v>128</v>
+      </c>
+      <c r="N816" t="n">
+        <v>8340.1259765625</v>
+      </c>
+      <c r="O816" t="n">
+        <v>0.1852511763572693</v>
+      </c>
+      <c r="P816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:04:02</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:04:43</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>0</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G817" t="n">
+        <v>1</v>
+      </c>
+      <c r="H817" t="n">
+        <v>144</v>
+      </c>
+      <c r="I817" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J817" t="n">
+        <v>96</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L817" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M817" t="n">
+        <v>128</v>
+      </c>
+      <c r="N817" t="n">
+        <v>7894.76220703125</v>
+      </c>
+      <c r="O817" t="n">
+        <v>0.1659945547580719</v>
+      </c>
+      <c r="P817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:06:29</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:07:10</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>0</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G818" t="n">
+        <v>1</v>
+      </c>
+      <c r="H818" t="n">
+        <v>144</v>
+      </c>
+      <c r="I818" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J818" t="n">
+        <v>96</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L818" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M818" t="n">
+        <v>128</v>
+      </c>
+      <c r="N818" t="n">
+        <v>12051.4404296875</v>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="P818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:07:59</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:08:40</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>0</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G819" t="n">
+        <v>1</v>
+      </c>
+      <c r="H819" t="n">
+        <v>144</v>
+      </c>
+      <c r="I819" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J819" t="n">
+        <v>96</v>
+      </c>
+      <c r="K819" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L819" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M819" t="n">
+        <v>128</v>
+      </c>
+      <c r="N819" t="n">
+        <v>9509.9775390625</v>
+      </c>
+      <c r="O819" t="n">
+        <v>0.2357491701841354</v>
+      </c>
+      <c r="P819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:09:09</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2025-03-16 23:09:50</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>0</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G820" t="n">
+        <v>1</v>
+      </c>
+      <c r="H820" t="n">
+        <v>144</v>
+      </c>
+      <c r="I820" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J820" t="n">
+        <v>96</v>
+      </c>
+      <c r="K820" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L820" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M820" t="n">
+        <v>128</v>
+      </c>
+      <c r="N820" t="n">
+        <v>56422.1328125</v>
+      </c>
+      <c r="O820" t="n">
+        <v>0.5080723762512207</v>
+      </c>
+      <c r="P820" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P820"/>
+  <dimension ref="A1:P827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45997,6 +45997,398 @@
       </c>
       <c r="P820" t="inlineStr"/>
     </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:08:38</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:09:18</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>0</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1</v>
+      </c>
+      <c r="H821" t="n">
+        <v>144</v>
+      </c>
+      <c r="I821" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J821" t="n">
+        <v>96</v>
+      </c>
+      <c r="K821" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L821" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M821" t="n">
+        <v>128</v>
+      </c>
+      <c r="N821" t="n">
+        <v>12489.1240234375</v>
+      </c>
+      <c r="O821" t="n">
+        <v>0.1296243220567703</v>
+      </c>
+      <c r="P821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:09:57</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:10:33</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>0</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G822" t="n">
+        <v>1</v>
+      </c>
+      <c r="H822" t="n">
+        <v>144</v>
+      </c>
+      <c r="I822" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J822" t="n">
+        <v>80</v>
+      </c>
+      <c r="K822" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L822" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M822" t="n">
+        <v>128</v>
+      </c>
+      <c r="N822" t="n">
+        <v>8102.802734375</v>
+      </c>
+      <c r="O822" t="n">
+        <v>0.1371543854475021</v>
+      </c>
+      <c r="P822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:14:14</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:14:50</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>0</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1</v>
+      </c>
+      <c r="H823" t="n">
+        <v>144</v>
+      </c>
+      <c r="I823" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J823" t="n">
+        <v>80</v>
+      </c>
+      <c r="K823" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L823" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M823" t="n">
+        <v>128</v>
+      </c>
+      <c r="N823" t="n">
+        <v>8543.1279296875</v>
+      </c>
+      <c r="O823" t="n">
+        <v>0.1344940811395645</v>
+      </c>
+      <c r="P823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:15:38</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:16:09</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>0</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1</v>
+      </c>
+      <c r="H824" t="n">
+        <v>128</v>
+      </c>
+      <c r="I824" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J824" t="n">
+        <v>80</v>
+      </c>
+      <c r="K824" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L824" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M824" t="n">
+        <v>128</v>
+      </c>
+      <c r="N824" t="n">
+        <v>10957.3896484375</v>
+      </c>
+      <c r="O824" t="n">
+        <v>0.1166862845420837</v>
+      </c>
+      <c r="P824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:17:10</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:17:42</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>0</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G825" t="n">
+        <v>1</v>
+      </c>
+      <c r="H825" t="n">
+        <v>128</v>
+      </c>
+      <c r="I825" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J825" t="n">
+        <v>80</v>
+      </c>
+      <c r="K825" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L825" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M825" t="n">
+        <v>128</v>
+      </c>
+      <c r="N825" t="n">
+        <v>7217.92724609375</v>
+      </c>
+      <c r="O825" t="n">
+        <v>0.1476670354604721</v>
+      </c>
+      <c r="P825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:18:02</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:18:34</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>0</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1</v>
+      </c>
+      <c r="H826" t="n">
+        <v>128</v>
+      </c>
+      <c r="I826" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J826" t="n">
+        <v>80</v>
+      </c>
+      <c r="K826" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L826" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M826" t="n">
+        <v>128</v>
+      </c>
+      <c r="N826" t="n">
+        <v>7365.29736328125</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0.1537584811449051</v>
+      </c>
+      <c r="P826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:19:52</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2025-03-17 13:20:24</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>0</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G827" t="n">
+        <v>1</v>
+      </c>
+      <c r="H827" t="n">
+        <v>128</v>
+      </c>
+      <c r="I827" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J827" t="n">
+        <v>80</v>
+      </c>
+      <c r="K827" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L827" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M827" t="n">
+        <v>128</v>
+      </c>
+      <c r="N827" t="n">
+        <v>6401.2919921875</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0.116143211722374</v>
+      </c>
+      <c r="P827" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P827"/>
+  <dimension ref="A1:P829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46389,6 +46389,118 @@
       </c>
       <c r="P827" t="inlineStr"/>
     </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2025-03-29 18:21:49</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2025-03-29 18:22:22</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>0</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1</v>
+      </c>
+      <c r="H828" t="n">
+        <v>128</v>
+      </c>
+      <c r="I828" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J828" t="n">
+        <v>80</v>
+      </c>
+      <c r="K828" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L828" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M828" t="n">
+        <v>128</v>
+      </c>
+      <c r="N828" t="n">
+        <v>7013.294921875</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0.1394128352403641</v>
+      </c>
+      <c r="P828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2025-03-29 19:07:31</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2025-03-29 19:08:01</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>0</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G829" t="n">
+        <v>1</v>
+      </c>
+      <c r="H829" t="n">
+        <v>128</v>
+      </c>
+      <c r="I829" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J829" t="n">
+        <v>80</v>
+      </c>
+      <c r="K829" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L829" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M829" t="n">
+        <v>128</v>
+      </c>
+      <c r="N829" t="n">
+        <v>6999.39697265625</v>
+      </c>
+      <c r="O829" t="n">
+        <v>0.1388608366250992</v>
+      </c>
+      <c r="P829" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P829"/>
+  <dimension ref="A1:P832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46501,6 +46501,174 @@
       </c>
       <c r="P829" t="inlineStr"/>
     </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:49:01</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:49:31</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>0</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G830" t="n">
+        <v>1</v>
+      </c>
+      <c r="H830" t="n">
+        <v>128</v>
+      </c>
+      <c r="I830" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J830" t="n">
+        <v>80</v>
+      </c>
+      <c r="K830" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L830" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M830" t="n">
+        <v>128</v>
+      </c>
+      <c r="N830" t="n">
+        <v>4960.5361328125</v>
+      </c>
+      <c r="O830" t="n">
+        <v>0.06414216011762619</v>
+      </c>
+      <c r="P830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:51:18</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:51:36</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>0</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G831" t="n">
+        <v>1</v>
+      </c>
+      <c r="H831" t="n">
+        <v>128</v>
+      </c>
+      <c r="I831" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J831" t="n">
+        <v>80</v>
+      </c>
+      <c r="K831" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L831" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M831" t="n">
+        <v>128</v>
+      </c>
+      <c r="N831" t="n">
+        <v>5162.86083984375</v>
+      </c>
+      <c r="O831" t="n">
+        <v>0.06948117166757584</v>
+      </c>
+      <c r="P831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:58:05</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:58:22</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>0</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1</v>
+      </c>
+      <c r="H832" t="n">
+        <v>128</v>
+      </c>
+      <c r="I832" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J832" t="n">
+        <v>80</v>
+      </c>
+      <c r="K832" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L832" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M832" t="n">
+        <v>128</v>
+      </c>
+      <c r="N832" t="n">
+        <v>5070.34033203125</v>
+      </c>
+      <c r="O832" t="n">
+        <v>0.06701322644948959</v>
+      </c>
+      <c r="P832" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P832"/>
+  <dimension ref="A1:P836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46669,6 +46669,230 @@
       </c>
       <c r="P832" t="inlineStr"/>
     </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:39:04</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:39:41</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>0</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G833" t="n">
+        <v>1</v>
+      </c>
+      <c r="H833" t="n">
+        <v>192</v>
+      </c>
+      <c r="I833" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J833" t="n">
+        <v>96</v>
+      </c>
+      <c r="K833" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L833" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M833" t="n">
+        <v>128</v>
+      </c>
+      <c r="N833" t="n">
+        <v>4807.357421875</v>
+      </c>
+      <c r="O833" t="n">
+        <v>0.06024196371436119</v>
+      </c>
+      <c r="P833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:40:52</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:41:19</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>0</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G834" t="n">
+        <v>1</v>
+      </c>
+      <c r="H834" t="n">
+        <v>256</v>
+      </c>
+      <c r="I834" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J834" t="n">
+        <v>32</v>
+      </c>
+      <c r="K834" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L834" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M834" t="n">
+        <v>128</v>
+      </c>
+      <c r="N834" t="n">
+        <v>5137.21923828125</v>
+      </c>
+      <c r="O834" t="n">
+        <v>0.06879271566867828</v>
+      </c>
+      <c r="P834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:42:05</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:42:35</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>0</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G835" t="n">
+        <v>1</v>
+      </c>
+      <c r="H835" t="n">
+        <v>160</v>
+      </c>
+      <c r="I835" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J835" t="n">
+        <v>48</v>
+      </c>
+      <c r="K835" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L835" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M835" t="n">
+        <v>128</v>
+      </c>
+      <c r="N835" t="n">
+        <v>5153.98291015625</v>
+      </c>
+      <c r="O835" t="n">
+        <v>0.06924243271350861</v>
+      </c>
+      <c r="P835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025-04-01 18:06:48</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2025-04-01 18:07:13</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>0</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G836" t="n">
+        <v>1</v>
+      </c>
+      <c r="H836" t="n">
+        <v>96</v>
+      </c>
+      <c r="I836" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J836" t="n">
+        <v>112</v>
+      </c>
+      <c r="K836" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L836" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M836" t="n">
+        <v>128</v>
+      </c>
+      <c r="N836" t="n">
+        <v>5070.61181640625</v>
+      </c>
+      <c r="O836" t="n">
+        <v>0.06702040135860443</v>
+      </c>
+      <c r="P836" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P836"/>
+  <dimension ref="A1:P845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46893,6 +46893,510 @@
       </c>
       <c r="P836" t="inlineStr"/>
     </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:52:34</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:53:10</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>0</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G837" t="n">
+        <v>7</v>
+      </c>
+      <c r="H837" t="n">
+        <v>128</v>
+      </c>
+      <c r="I837" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J837" t="n">
+        <v>32</v>
+      </c>
+      <c r="K837" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L837" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M837" t="n">
+        <v>128</v>
+      </c>
+      <c r="N837" t="n">
+        <v>5147.65185546875</v>
+      </c>
+      <c r="O837" t="n">
+        <v>0.06907243281602859</v>
+      </c>
+      <c r="P837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:53:58</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2025-04-01 20:54:44</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>0</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G838" t="n">
+        <v>14</v>
+      </c>
+      <c r="H838" t="n">
+        <v>96</v>
+      </c>
+      <c r="I838" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J838" t="n">
+        <v>112</v>
+      </c>
+      <c r="K838" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L838" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M838" t="n">
+        <v>128</v>
+      </c>
+      <c r="N838" t="n">
+        <v>5229.587890625</v>
+      </c>
+      <c r="O838" t="n">
+        <v>0.07128878682851791</v>
+      </c>
+      <c r="P838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:48:38</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:50:09</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>0</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G839" t="n">
+        <v>1</v>
+      </c>
+      <c r="H839" t="n">
+        <v>144</v>
+      </c>
+      <c r="I839" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J839" t="n">
+        <v>96</v>
+      </c>
+      <c r="K839" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L839" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M839" t="n">
+        <v>128</v>
+      </c>
+      <c r="N839" t="n">
+        <v>101.5937957763672</v>
+      </c>
+      <c r="O839" t="n">
+        <v>0.185314878821373</v>
+      </c>
+      <c r="P839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025-04-02 15:58:00</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:02:30</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>0</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G840" t="n">
+        <v>12</v>
+      </c>
+      <c r="H840" t="n">
+        <v>144</v>
+      </c>
+      <c r="I840" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J840" t="n">
+        <v>96</v>
+      </c>
+      <c r="K840" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L840" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M840" t="n">
+        <v>128</v>
+      </c>
+      <c r="N840" t="n">
+        <v>39.02865600585938</v>
+      </c>
+      <c r="O840" t="n">
+        <v>0.04807587713003159</v>
+      </c>
+      <c r="P840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:06:41</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:08:28</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>0</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G841" t="n">
+        <v>24</v>
+      </c>
+      <c r="H841" t="n">
+        <v>144</v>
+      </c>
+      <c r="I841" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J841" t="n">
+        <v>96</v>
+      </c>
+      <c r="K841" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L841" t="n">
+        <v>200</v>
+      </c>
+      <c r="M841" t="n">
+        <v>128</v>
+      </c>
+      <c r="N841" t="n">
+        <v>34.12834548950195</v>
+      </c>
+      <c r="O841" t="n">
+        <v>0.03676126152276993</v>
+      </c>
+      <c r="P841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:18:54</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:19:23</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>0</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G842" t="n">
+        <v>7</v>
+      </c>
+      <c r="H842" t="n">
+        <v>64</v>
+      </c>
+      <c r="I842" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J842" t="n">
+        <v>32</v>
+      </c>
+      <c r="K842" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L842" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M842" t="n">
+        <v>128</v>
+      </c>
+      <c r="N842" t="n">
+        <v>5291.05859375</v>
+      </c>
+      <c r="O842" t="n">
+        <v>0.0729745626449585</v>
+      </c>
+      <c r="P842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:19:58</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:21:40</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>0</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G843" t="n">
+        <v>24</v>
+      </c>
+      <c r="H843" t="n">
+        <v>144</v>
+      </c>
+      <c r="I843" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J843" t="n">
+        <v>96</v>
+      </c>
+      <c r="K843" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L843" t="n">
+        <v>200</v>
+      </c>
+      <c r="M843" t="n">
+        <v>128</v>
+      </c>
+      <c r="N843" t="n">
+        <v>36.69608306884766</v>
+      </c>
+      <c r="O843" t="n">
+        <v>0.04250102862715721</v>
+      </c>
+      <c r="P843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:36:00</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:37:03</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>0</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G844" t="n">
+        <v>7</v>
+      </c>
+      <c r="H844" t="n">
+        <v>160</v>
+      </c>
+      <c r="I844" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J844" t="n">
+        <v>80</v>
+      </c>
+      <c r="K844" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L844" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M844" t="n">
+        <v>128</v>
+      </c>
+      <c r="N844" t="n">
+        <v>5019.181640625</v>
+      </c>
+      <c r="O844" t="n">
+        <v>0.06566775590181351</v>
+      </c>
+      <c r="P844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:38:36</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2025-04-02 16:40:17</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>0</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G845" t="n">
+        <v>24</v>
+      </c>
+      <c r="H845" t="n">
+        <v>144</v>
+      </c>
+      <c r="I845" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J845" t="n">
+        <v>96</v>
+      </c>
+      <c r="K845" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L845" t="n">
+        <v>200</v>
+      </c>
+      <c r="M845" t="n">
+        <v>128</v>
+      </c>
+      <c r="N845" t="n">
+        <v>35.13266372680664</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0.03895670548081398</v>
+      </c>
+      <c r="P845" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P845"/>
+  <dimension ref="A1:P872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47397,6 +47397,1518 @@
       </c>
       <c r="P845" t="inlineStr"/>
     </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025-04-05 17:22:03</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2025-04-05 17:22:39</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>0</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G846" t="n">
+        <v>7</v>
+      </c>
+      <c r="H846" t="n">
+        <v>256</v>
+      </c>
+      <c r="I846" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J846" t="n">
+        <v>48</v>
+      </c>
+      <c r="K846" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L846" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M846" t="n">
+        <v>128</v>
+      </c>
+      <c r="N846" t="n">
+        <v>5347.45947265625</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0.07453861832618713</v>
+      </c>
+      <c r="P846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:00:44</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:01:17</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>0</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G847" t="n">
+        <v>7</v>
+      </c>
+      <c r="H847" t="n">
+        <v>64</v>
+      </c>
+      <c r="I847" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J847" t="n">
+        <v>32</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L847" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M847" t="n">
+        <v>128</v>
+      </c>
+      <c r="N847" t="n">
+        <v>10123.0849609375</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0.2687505483627319</v>
+      </c>
+      <c r="P847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:11:36</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:12:14</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>0</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G848" t="n">
+        <v>7</v>
+      </c>
+      <c r="H848" t="n">
+        <v>128</v>
+      </c>
+      <c r="I848" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J848" t="n">
+        <v>112</v>
+      </c>
+      <c r="K848" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L848" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M848" t="n">
+        <v>128</v>
+      </c>
+      <c r="N848" t="n">
+        <v>5123.7138671875</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0.06843151152133942</v>
+      </c>
+      <c r="P848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:12:59</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:13:24</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>0</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G849" t="n">
+        <v>1</v>
+      </c>
+      <c r="H849" t="n">
+        <v>64</v>
+      </c>
+      <c r="I849" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J849" t="n">
+        <v>64</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L849" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M849" t="n">
+        <v>128</v>
+      </c>
+      <c r="N849" t="n">
+        <v>5025.57177734375</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0.06583507359027863</v>
+      </c>
+      <c r="P849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:14:56</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:15:22</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>0</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1</v>
+      </c>
+      <c r="H850" t="n">
+        <v>256</v>
+      </c>
+      <c r="I850" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J850" t="n">
+        <v>64</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L850" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M850" t="n">
+        <v>128</v>
+      </c>
+      <c r="N850" t="n">
+        <v>5053.79150390625</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0.06657649576663971</v>
+      </c>
+      <c r="P850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:15:56</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:16:23</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>0</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1</v>
+      </c>
+      <c r="H851" t="n">
+        <v>256</v>
+      </c>
+      <c r="I851" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J851" t="n">
+        <v>128</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L851" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M851" t="n">
+        <v>128</v>
+      </c>
+      <c r="N851" t="n">
+        <v>5103.93115234375</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0.06790409982204437</v>
+      </c>
+      <c r="P851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:18:10</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:18:59</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>0</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G852" t="n">
+        <v>1</v>
+      </c>
+      <c r="H852" t="n">
+        <v>256</v>
+      </c>
+      <c r="I852" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J852" t="n">
+        <v>64</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L852" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M852" t="n">
+        <v>128</v>
+      </c>
+      <c r="N852" t="n">
+        <v>5098.71240234375</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0.06776529550552368</v>
+      </c>
+      <c r="P852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:20:34</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:21:21</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>0</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G853" t="n">
+        <v>1</v>
+      </c>
+      <c r="H853" t="n">
+        <v>224</v>
+      </c>
+      <c r="I853" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J853" t="n">
+        <v>80</v>
+      </c>
+      <c r="K853" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L853" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M853" t="n">
+        <v>128</v>
+      </c>
+      <c r="N853" t="n">
+        <v>4217.91796875</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0.0463748462498188</v>
+      </c>
+      <c r="P853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:21:58</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:22:49</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>0</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G854" t="n">
+        <v>1</v>
+      </c>
+      <c r="H854" t="n">
+        <v>224</v>
+      </c>
+      <c r="I854" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J854" t="n">
+        <v>96</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L854" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M854" t="n">
+        <v>128</v>
+      </c>
+      <c r="N854" t="n">
+        <v>5201.98486328125</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0.07670021802186966</v>
+      </c>
+      <c r="P854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:23:53</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:24:51</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>0</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G855" t="n">
+        <v>1</v>
+      </c>
+      <c r="H855" t="n">
+        <v>192</v>
+      </c>
+      <c r="I855" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J855" t="n">
+        <v>64</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L855" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M855" t="n">
+        <v>128</v>
+      </c>
+      <c r="N855" t="n">
+        <v>5055.85205078125</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0.06663081049919128</v>
+      </c>
+      <c r="P855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:34:13</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:34:50</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>0</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G856" t="n">
+        <v>1</v>
+      </c>
+      <c r="H856" t="n">
+        <v>192</v>
+      </c>
+      <c r="I856" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J856" t="n">
+        <v>96</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L856" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M856" t="n">
+        <v>128</v>
+      </c>
+      <c r="N856" t="n">
+        <v>9489.1884765625</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0.2347169667482376</v>
+      </c>
+      <c r="P856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:35:29</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:36:06</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>0</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1</v>
+      </c>
+      <c r="H857" t="n">
+        <v>128</v>
+      </c>
+      <c r="I857" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J857" t="n">
+        <v>48</v>
+      </c>
+      <c r="K857" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L857" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M857" t="n">
+        <v>128</v>
+      </c>
+      <c r="N857" t="n">
+        <v>5406.06396484375</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0.07618136703968048</v>
+      </c>
+      <c r="P857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:37:16</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:38:09</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>0</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G858" t="n">
+        <v>1</v>
+      </c>
+      <c r="H858" t="n">
+        <v>128</v>
+      </c>
+      <c r="I858" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J858" t="n">
+        <v>96</v>
+      </c>
+      <c r="K858" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L858" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M858" t="n">
+        <v>128</v>
+      </c>
+      <c r="N858" t="n">
+        <v>5291.77197265625</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0.07299423217773438</v>
+      </c>
+      <c r="P858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:43:05</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:43:58</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>0</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G859" t="n">
+        <v>1</v>
+      </c>
+      <c r="H859" t="n">
+        <v>128</v>
+      </c>
+      <c r="I859" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J859" t="n">
+        <v>128</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L859" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M859" t="n">
+        <v>128</v>
+      </c>
+      <c r="N859" t="n">
+        <v>5247.07470703125</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0.07176634669303894</v>
+      </c>
+      <c r="P859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:45:23</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:46:16</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>0</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1</v>
+      </c>
+      <c r="H860" t="n">
+        <v>256</v>
+      </c>
+      <c r="I860" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J860" t="n">
+        <v>112</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L860" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M860" t="n">
+        <v>128</v>
+      </c>
+      <c r="N860" t="n">
+        <v>5429.13671875</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0.07683300971984863</v>
+      </c>
+      <c r="P860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:46:55</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:47:58</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G861" t="n">
+        <v>1</v>
+      </c>
+      <c r="H861" t="n">
+        <v>192</v>
+      </c>
+      <c r="I861" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J861" t="n">
+        <v>32</v>
+      </c>
+      <c r="K861" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L861" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M861" t="n">
+        <v>128</v>
+      </c>
+      <c r="N861" t="n">
+        <v>5297.06201171875</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0.07314024120569229</v>
+      </c>
+      <c r="P861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:48:41</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:50:05</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>0</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G862" t="n">
+        <v>7</v>
+      </c>
+      <c r="H862" t="n">
+        <v>224</v>
+      </c>
+      <c r="I862" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J862" t="n">
+        <v>128</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L862" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M862" t="n">
+        <v>128</v>
+      </c>
+      <c r="N862" t="n">
+        <v>5153.61669921875</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0.06923258304595947</v>
+      </c>
+      <c r="P862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:50:31</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:52:37</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>0</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G863" t="n">
+        <v>7</v>
+      </c>
+      <c r="H863" t="n">
+        <v>192</v>
+      </c>
+      <c r="I863" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J863" t="n">
+        <v>128</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L863" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M863" t="n">
+        <v>128</v>
+      </c>
+      <c r="N863" t="n">
+        <v>8838.9951171875</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0.2036536633968353</v>
+      </c>
+      <c r="P863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:53:43</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:54:22</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>0</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G864" t="n">
+        <v>7</v>
+      </c>
+      <c r="H864" t="n">
+        <v>64</v>
+      </c>
+      <c r="I864" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J864" t="n">
+        <v>96</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L864" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M864" t="n">
+        <v>128</v>
+      </c>
+      <c r="N864" t="n">
+        <v>5149.6279296875</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0.0691254585981369</v>
+      </c>
+      <c r="P864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:55:24</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:56:18</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>0</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G865" t="n">
+        <v>7</v>
+      </c>
+      <c r="H865" t="n">
+        <v>256</v>
+      </c>
+      <c r="I865" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J865" t="n">
+        <v>128</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L865" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M865" t="n">
+        <v>128</v>
+      </c>
+      <c r="N865" t="n">
+        <v>4956.66064453125</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0.06404196470975876</v>
+      </c>
+      <c r="P865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:57:14</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2025-04-05 18:57:58</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>0</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G866" t="n">
+        <v>7</v>
+      </c>
+      <c r="H866" t="n">
+        <v>96</v>
+      </c>
+      <c r="I866" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J866" t="n">
+        <v>128</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L866" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M866" t="n">
+        <v>128</v>
+      </c>
+      <c r="N866" t="n">
+        <v>5089.92724609375</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0.06753198802471161</v>
+      </c>
+      <c r="P866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:24:01</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:24:53</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>0</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G867" t="n">
+        <v>7</v>
+      </c>
+      <c r="H867" t="n">
+        <v>64</v>
+      </c>
+      <c r="I867" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J867" t="n">
+        <v>80</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L867" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M867" t="n">
+        <v>128</v>
+      </c>
+      <c r="N867" t="n">
+        <v>5004.306640625</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0.06527909636497498</v>
+      </c>
+      <c r="P867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:26:08</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:27:02</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>0</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G868" t="n">
+        <v>7</v>
+      </c>
+      <c r="H868" t="n">
+        <v>224</v>
+      </c>
+      <c r="I868" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J868" t="n">
+        <v>48</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L868" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M868" t="n">
+        <v>128</v>
+      </c>
+      <c r="N868" t="n">
+        <v>4968.7060546875</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0.06435361504554749</v>
+      </c>
+      <c r="P868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:27:57</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:28:50</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>0</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G869" t="n">
+        <v>7</v>
+      </c>
+      <c r="H869" t="n">
+        <v>96</v>
+      </c>
+      <c r="I869" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J869" t="n">
+        <v>112</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L869" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M869" t="n">
+        <v>128</v>
+      </c>
+      <c r="N869" t="n">
+        <v>5089.966796875</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0.06753303855657578</v>
+      </c>
+      <c r="P869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:29:45</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:30:23</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>0</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G870" t="n">
+        <v>7</v>
+      </c>
+      <c r="H870" t="n">
+        <v>256</v>
+      </c>
+      <c r="I870" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J870" t="n">
+        <v>80</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L870" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M870" t="n">
+        <v>128</v>
+      </c>
+      <c r="N870" t="n">
+        <v>5171.67822265625</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0.06971871107816696</v>
+      </c>
+      <c r="P870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:31:03</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:31:40</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>0</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G871" t="n">
+        <v>7</v>
+      </c>
+      <c r="H871" t="n">
+        <v>96</v>
+      </c>
+      <c r="I871" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J871" t="n">
+        <v>128</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L871" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M871" t="n">
+        <v>128</v>
+      </c>
+      <c r="N871" t="n">
+        <v>5132.39501953125</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0.068663589656353</v>
+      </c>
+      <c r="P871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:32:11</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:32:38</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>0</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G872" t="n">
+        <v>1</v>
+      </c>
+      <c r="H872" t="n">
+        <v>96</v>
+      </c>
+      <c r="I872" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J872" t="n">
+        <v>64</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L872" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M872" t="n">
+        <v>128</v>
+      </c>
+      <c r="N872" t="n">
+        <v>5091.7744140625</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0.06758100539445877</v>
+      </c>
+      <c r="P872" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P872"/>
+  <dimension ref="A1:P874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48909,6 +48909,118 @@
       </c>
       <c r="P872" t="inlineStr"/>
     </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025-04-09 17:11:45</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2025-04-09 17:12:10</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>0</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G873" t="n">
+        <v>1</v>
+      </c>
+      <c r="H873" t="n">
+        <v>64</v>
+      </c>
+      <c r="I873" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J873" t="n">
+        <v>48</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L873" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M873" t="n">
+        <v>128</v>
+      </c>
+      <c r="N873" t="n">
+        <v>4593.0673828125</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0.05499103292822838</v>
+      </c>
+      <c r="P873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025-04-09 17:13:56</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2025-04-09 17:14:23</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>0</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G874" t="n">
+        <v>1</v>
+      </c>
+      <c r="H874" t="n">
+        <v>128</v>
+      </c>
+      <c r="I874" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J874" t="n">
+        <v>128</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L874" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M874" t="n">
+        <v>128</v>
+      </c>
+      <c r="N874" t="n">
+        <v>4985.44482421875</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0.06478793174028397</v>
+      </c>
+      <c r="P874" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P874"/>
+  <dimension ref="A1:P878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49021,6 +49021,230 @@
       </c>
       <c r="P874" t="inlineStr"/>
     </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025-04-11 16:47:53</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2025-04-11 16:48:19</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>0</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G875" t="n">
+        <v>1</v>
+      </c>
+      <c r="H875" t="n">
+        <v>96</v>
+      </c>
+      <c r="I875" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J875" t="n">
+        <v>64</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L875" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M875" t="n">
+        <v>128</v>
+      </c>
+      <c r="N875" t="n">
+        <v>5140.3251953125</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0.06887593865394592</v>
+      </c>
+      <c r="P875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:02:06</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:02:30</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>0</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G876" t="n">
+        <v>1</v>
+      </c>
+      <c r="H876" t="n">
+        <v>96</v>
+      </c>
+      <c r="I876" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J876" t="n">
+        <v>48</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L876" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M876" t="n">
+        <v>128</v>
+      </c>
+      <c r="N876" t="n">
+        <v>5087.6083984375</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0.06747046113014221</v>
+      </c>
+      <c r="P876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:44:28</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:45:03</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>0</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G877" t="n">
+        <v>1</v>
+      </c>
+      <c r="H877" t="n">
+        <v>192</v>
+      </c>
+      <c r="I877" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J877" t="n">
+        <v>80</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L877" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M877" t="n">
+        <v>128</v>
+      </c>
+      <c r="N877" t="n">
+        <v>5102.61328125</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0.06786903738975525</v>
+      </c>
+      <c r="P877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:46:19</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2025-04-11 17:46:48</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>0</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G878" t="n">
+        <v>7</v>
+      </c>
+      <c r="H878" t="n">
+        <v>96</v>
+      </c>
+      <c r="I878" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J878" t="n">
+        <v>48</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L878" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M878" t="n">
+        <v>128</v>
+      </c>
+      <c r="N878" t="n">
+        <v>5065.251953125</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0.0668787881731987</v>
+      </c>
+      <c r="P878" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P878"/>
+  <dimension ref="A1:P886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49245,6 +49245,454 @@
       </c>
       <c r="P878" t="inlineStr"/>
     </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:53:02</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:54:09</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>0</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G879" t="n">
+        <v>7</v>
+      </c>
+      <c r="H879" t="n">
+        <v>160</v>
+      </c>
+      <c r="I879" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J879" t="n">
+        <v>112</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L879" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M879" t="n">
+        <v>128</v>
+      </c>
+      <c r="N879" t="n">
+        <v>4750.97802734375</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0.05883725360035896</v>
+      </c>
+      <c r="P879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:55:10</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:55:41</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>0</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G880" t="n">
+        <v>6</v>
+      </c>
+      <c r="H880" t="n">
+        <v>64</v>
+      </c>
+      <c r="I880" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J880" t="n">
+        <v>48</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L880" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M880" t="n">
+        <v>128</v>
+      </c>
+      <c r="N880" t="n">
+        <v>5225.33447265625</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0.07117285579442978</v>
+      </c>
+      <c r="P880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:56:07</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:56:36</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>0</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G881" t="n">
+        <v>1</v>
+      </c>
+      <c r="H881" t="n">
+        <v>160</v>
+      </c>
+      <c r="I881" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J881" t="n">
+        <v>96</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L881" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M881" t="n">
+        <v>128</v>
+      </c>
+      <c r="N881" t="n">
+        <v>4939.16552734375</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0.06359067559242249</v>
+      </c>
+      <c r="P881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:57:08</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2025-04-17 15:57:37</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>0</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G882" t="n">
+        <v>7</v>
+      </c>
+      <c r="H882" t="n">
+        <v>64</v>
+      </c>
+      <c r="I882" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J882" t="n">
+        <v>32</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L882" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M882" t="n">
+        <v>128</v>
+      </c>
+      <c r="N882" t="n">
+        <v>4952.544921875</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0.06393566727638245</v>
+      </c>
+      <c r="P882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:31:15</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:31:51</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>0</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G883" t="n">
+        <v>7</v>
+      </c>
+      <c r="H883" t="n">
+        <v>96</v>
+      </c>
+      <c r="I883" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J883" t="n">
+        <v>112</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L883" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M883" t="n">
+        <v>128</v>
+      </c>
+      <c r="N883" t="n">
+        <v>5140.84423828125</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0.06888984143733978</v>
+      </c>
+      <c r="P883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:32:47</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:33:35</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>0</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G884" t="n">
+        <v>14</v>
+      </c>
+      <c r="H884" t="n">
+        <v>128</v>
+      </c>
+      <c r="I884" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J884" t="n">
+        <v>112</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L884" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M884" t="n">
+        <v>64</v>
+      </c>
+      <c r="N884" t="n">
+        <v>4829.55029296875</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0.06079946458339691</v>
+      </c>
+      <c r="P884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:35:16</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:35:56</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>0</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G885" t="n">
+        <v>14</v>
+      </c>
+      <c r="H885" t="n">
+        <v>64</v>
+      </c>
+      <c r="I885" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J885" t="n">
+        <v>64</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L885" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M885" t="n">
+        <v>64</v>
+      </c>
+      <c r="N885" t="n">
+        <v>4953.77392578125</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0.06396739929914474</v>
+      </c>
+      <c r="P885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:36:40</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2025-04-18 14:37:18</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>0</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G886" t="n">
+        <v>14</v>
+      </c>
+      <c r="H886" t="n">
+        <v>96</v>
+      </c>
+      <c r="I886" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J886" t="n">
+        <v>48</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L886" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M886" t="n">
+        <v>64</v>
+      </c>
+      <c r="N886" t="n">
+        <v>4354.2109375</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0.04942028596997261</v>
+      </c>
+      <c r="P886" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P886"/>
+  <dimension ref="A1:P888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49693,6 +49693,118 @@
       </c>
       <c r="P886" t="inlineStr"/>
     </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025-04-18 18:01:55</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2025-04-18 18:03:46</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>0</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G887" t="n">
+        <v>24</v>
+      </c>
+      <c r="H887" t="n">
+        <v>144</v>
+      </c>
+      <c r="I887" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J887" t="n">
+        <v>96</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L887" t="n">
+        <v>200</v>
+      </c>
+      <c r="M887" t="n">
+        <v>128</v>
+      </c>
+      <c r="N887" t="n">
+        <v>38.7719612121582</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0.04744555428624153</v>
+      </c>
+      <c r="P887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025-04-18 18:05:20</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2025-04-18 18:08:58</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>0</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G888" t="n">
+        <v>24</v>
+      </c>
+      <c r="H888" t="n">
+        <v>144</v>
+      </c>
+      <c r="I888" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J888" t="n">
+        <v>96</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L888" t="n">
+        <v>400</v>
+      </c>
+      <c r="M888" t="n">
+        <v>128</v>
+      </c>
+      <c r="N888" t="n">
+        <v>37.48247146606445</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0.04434211552143097</v>
+      </c>
+      <c r="P888" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P888"/>
+  <dimension ref="A1:P895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49805,6 +49805,398 @@
       </c>
       <c r="P888" t="inlineStr"/>
     </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025-04-22 18:56:57</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2025-04-22 18:57:44</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>0</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G889" t="n">
+        <v>14</v>
+      </c>
+      <c r="H889" t="n">
+        <v>64</v>
+      </c>
+      <c r="I889" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J889" t="n">
+        <v>128</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L889" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M889" t="n">
+        <v>64</v>
+      </c>
+      <c r="N889" t="n">
+        <v>4750.6494140625</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0.05882912129163742</v>
+      </c>
+      <c r="P889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025-04-22 18:58:12</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2025-04-22 18:58:53</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>0</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G890" t="n">
+        <v>7</v>
+      </c>
+      <c r="H890" t="n">
+        <v>128</v>
+      </c>
+      <c r="I890" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J890" t="n">
+        <v>128</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L890" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M890" t="n">
+        <v>64</v>
+      </c>
+      <c r="N890" t="n">
+        <v>4861.31103515625</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0.06160176917910576</v>
+      </c>
+      <c r="P890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:46:08</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:46:42</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>0</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G891" t="n">
+        <v>7</v>
+      </c>
+      <c r="H891" t="n">
+        <v>256</v>
+      </c>
+      <c r="I891" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J891" t="n">
+        <v>48</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L891" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M891" t="n">
+        <v>64</v>
+      </c>
+      <c r="N891" t="n">
+        <v>4852.70654296875</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0.06138388440012932</v>
+      </c>
+      <c r="P891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:51:04</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:51:40</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>0</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G892" t="n">
+        <v>7</v>
+      </c>
+      <c r="H892" t="n">
+        <v>256</v>
+      </c>
+      <c r="I892" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J892" t="n">
+        <v>48</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L892" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M892" t="n">
+        <v>64</v>
+      </c>
+      <c r="N892" t="n">
+        <v>4253.5595703125</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0.04716191068291664</v>
+      </c>
+      <c r="P892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:57:00</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:57:26</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>0</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1</v>
+      </c>
+      <c r="H893" t="n">
+        <v>128</v>
+      </c>
+      <c r="I893" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J893" t="n">
+        <v>80</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L893" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M893" t="n">
+        <v>64</v>
+      </c>
+      <c r="N893" t="n">
+        <v>4470.43701171875</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0.05209381878376007</v>
+      </c>
+      <c r="P893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:58:14</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2025-04-22 20:59:41</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>0</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G894" t="n">
+        <v>7</v>
+      </c>
+      <c r="H894" t="n">
+        <v>192</v>
+      </c>
+      <c r="I894" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J894" t="n">
+        <v>128</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L894" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M894" t="n">
+        <v>64</v>
+      </c>
+      <c r="N894" t="n">
+        <v>4380.287109375</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0.05001398548483849</v>
+      </c>
+      <c r="P894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:01:37</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:02:14</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>0</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G895" t="n">
+        <v>7</v>
+      </c>
+      <c r="H895" t="n">
+        <v>96</v>
+      </c>
+      <c r="I895" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J895" t="n">
+        <v>112</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L895" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M895" t="n">
+        <v>64</v>
+      </c>
+      <c r="N895" t="n">
+        <v>4920.89990234375</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0.06312122195959091</v>
+      </c>
+      <c r="P895" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P895"/>
+  <dimension ref="A1:P923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50197,6 +50197,1574 @@
       </c>
       <c r="P895" t="inlineStr"/>
     </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:16:07</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:16:45</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>0</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G896" t="n">
+        <v>7</v>
+      </c>
+      <c r="H896" t="n">
+        <v>64</v>
+      </c>
+      <c r="I896" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J896" t="n">
+        <v>32</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L896" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M896" t="n">
+        <v>64</v>
+      </c>
+      <c r="N896" t="n">
+        <v>6313.75244140625</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0.06417010724544525</v>
+      </c>
+      <c r="P896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:24:10</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:25:31</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>0</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G897" t="n">
+        <v>7</v>
+      </c>
+      <c r="H897" t="n">
+        <v>192</v>
+      </c>
+      <c r="I897" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J897" t="n">
+        <v>96</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L897" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M897" t="n">
+        <v>64</v>
+      </c>
+      <c r="N897" t="n">
+        <v>5603.24365234375</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0.05978035554289818</v>
+      </c>
+      <c r="P897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:28:09</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:28:42</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>0</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G898" t="n">
+        <v>7</v>
+      </c>
+      <c r="H898" t="n">
+        <v>64</v>
+      </c>
+      <c r="I898" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J898" t="n">
+        <v>128</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L898" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M898" t="n">
+        <v>64</v>
+      </c>
+      <c r="N898" t="n">
+        <v>13680.0673828125</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0.06006151437759399</v>
+      </c>
+      <c r="P898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:30:07</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:30:45</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>0</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G899" t="n">
+        <v>7</v>
+      </c>
+      <c r="H899" t="n">
+        <v>256</v>
+      </c>
+      <c r="I899" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J899" t="n">
+        <v>32</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L899" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M899" t="n">
+        <v>64</v>
+      </c>
+      <c r="N899" t="n">
+        <v>4980.05224609375</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0.0646478533744812</v>
+      </c>
+      <c r="P899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:45:07</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:46:21</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>0</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G900" t="n">
+        <v>7</v>
+      </c>
+      <c r="H900" t="n">
+        <v>192</v>
+      </c>
+      <c r="I900" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J900" t="n">
+        <v>112</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L900" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M900" t="n">
+        <v>64</v>
+      </c>
+      <c r="N900" t="n">
+        <v>4204.9326171875</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0.06461629271507263</v>
+      </c>
+      <c r="P900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:49:09</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:50:20</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>0</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G901" t="n">
+        <v>7</v>
+      </c>
+      <c r="H901" t="n">
+        <v>192</v>
+      </c>
+      <c r="I901" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J901" t="n">
+        <v>96</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L901" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M901" t="n">
+        <v>64</v>
+      </c>
+      <c r="N901" t="n">
+        <v>18303.73828125</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0.05250218883156776</v>
+      </c>
+      <c r="P901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:50:50</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:51:25</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>0</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G902" t="n">
+        <v>7</v>
+      </c>
+      <c r="H902" t="n">
+        <v>256</v>
+      </c>
+      <c r="I902" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J902" t="n">
+        <v>48</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L902" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M902" t="n">
+        <v>64</v>
+      </c>
+      <c r="N902" t="n">
+        <v>8459.9267578125</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0.05731299892067909</v>
+      </c>
+      <c r="P902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:55:52</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:56:49</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>0</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G903" t="n">
+        <v>7</v>
+      </c>
+      <c r="H903" t="n">
+        <v>160</v>
+      </c>
+      <c r="I903" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J903" t="n">
+        <v>32</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L903" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M903" t="n">
+        <v>64</v>
+      </c>
+      <c r="N903" t="n">
+        <v>5998.2138671875</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0.0626048743724823</v>
+      </c>
+      <c r="P903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:57:20</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:57:56</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>0</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G904" t="n">
+        <v>7</v>
+      </c>
+      <c r="H904" t="n">
+        <v>224</v>
+      </c>
+      <c r="I904" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J904" t="n">
+        <v>112</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L904" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M904" t="n">
+        <v>64</v>
+      </c>
+      <c r="N904" t="n">
+        <v>24798.439453125</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0.2692061066627502</v>
+      </c>
+      <c r="P904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025-04-26 17:59:47</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:00:43</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>0</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G905" t="n">
+        <v>7</v>
+      </c>
+      <c r="H905" t="n">
+        <v>160</v>
+      </c>
+      <c r="I905" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J905" t="n">
+        <v>64</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L905" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M905" t="n">
+        <v>64</v>
+      </c>
+      <c r="N905" t="n">
+        <v>12849.4541015625</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0.1760127544403076</v>
+      </c>
+      <c r="P905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:02:28</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:03:23</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G906" t="n">
+        <v>7</v>
+      </c>
+      <c r="H906" t="n">
+        <v>160</v>
+      </c>
+      <c r="I906" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>80</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L906" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M906" t="n">
+        <v>64</v>
+      </c>
+      <c r="N906" t="n">
+        <v>8427.6787109375</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0.05077797919511795</v>
+      </c>
+      <c r="P906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:06:16</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:07:27</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G907" t="n">
+        <v>7</v>
+      </c>
+      <c r="H907" t="n">
+        <v>192</v>
+      </c>
+      <c r="I907" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J907" t="n">
+        <v>80</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L907" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M907" t="n">
+        <v>64</v>
+      </c>
+      <c r="N907" t="n">
+        <v>8420.6591796875</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0.3419801294803619</v>
+      </c>
+      <c r="P907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:08:06</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:09:22</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>0</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G908" t="n">
+        <v>7</v>
+      </c>
+      <c r="H908" t="n">
+        <v>192</v>
+      </c>
+      <c r="I908" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J908" t="n">
+        <v>112</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L908" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M908" t="n">
+        <v>64</v>
+      </c>
+      <c r="N908" t="n">
+        <v>6399.40576171875</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0.04318515583872795</v>
+      </c>
+      <c r="P908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:10:26</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:11:01</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>0</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G909" t="n">
+        <v>7</v>
+      </c>
+      <c r="H909" t="n">
+        <v>256</v>
+      </c>
+      <c r="I909" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J909" t="n">
+        <v>48</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L909" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M909" t="n">
+        <v>64</v>
+      </c>
+      <c r="N909" t="n">
+        <v>8488.17578125</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0.1629422605037689</v>
+      </c>
+      <c r="P909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:11:34</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:12:05</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>0</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G910" t="n">
+        <v>7</v>
+      </c>
+      <c r="H910" t="n">
+        <v>128</v>
+      </c>
+      <c r="I910" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J910" t="n">
+        <v>48</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L910" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M910" t="n">
+        <v>64</v>
+      </c>
+      <c r="N910" t="n">
+        <v>9739.39453125</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0.1492796689271927</v>
+      </c>
+      <c r="P910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:12:26</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:12:58</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>0</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G911" t="n">
+        <v>7</v>
+      </c>
+      <c r="H911" t="n">
+        <v>96</v>
+      </c>
+      <c r="I911" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J911" t="n">
+        <v>96</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L911" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M911" t="n">
+        <v>64</v>
+      </c>
+      <c r="N911" t="n">
+        <v>10409.9951171875</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0.1413110196590424</v>
+      </c>
+      <c r="P911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:13:53</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:14:31</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>0</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G912" t="n">
+        <v>7</v>
+      </c>
+      <c r="H912" t="n">
+        <v>224</v>
+      </c>
+      <c r="I912" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J912" t="n">
+        <v>80</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L912" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M912" t="n">
+        <v>64</v>
+      </c>
+      <c r="N912" t="n">
+        <v>9266.6787109375</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0.05128725245594978</v>
+      </c>
+      <c r="P912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:17:47</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:18:27</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>0</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G913" t="n">
+        <v>7</v>
+      </c>
+      <c r="H913" t="n">
+        <v>96</v>
+      </c>
+      <c r="I913" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J913" t="n">
+        <v>112</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L913" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M913" t="n">
+        <v>64</v>
+      </c>
+      <c r="N913" t="n">
+        <v>5422.14306640625</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0.06014000251889229</v>
+      </c>
+      <c r="P913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:31:12</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2025-04-26 18:36:38</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G914" t="n">
+        <v>24</v>
+      </c>
+      <c r="H914" t="n">
+        <v>144</v>
+      </c>
+      <c r="I914" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J914" t="n">
+        <v>96</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L914" t="n">
+        <v>400</v>
+      </c>
+      <c r="M914" t="n">
+        <v>128</v>
+      </c>
+      <c r="N914" t="n">
+        <v>68.36682891845703</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0.03879792988300323</v>
+      </c>
+      <c r="P914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:26:18</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:30:26</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G915" t="n">
+        <v>24</v>
+      </c>
+      <c r="H915" t="n">
+        <v>144</v>
+      </c>
+      <c r="I915" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J915" t="n">
+        <v>96</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L915" t="n">
+        <v>400</v>
+      </c>
+      <c r="M915" t="n">
+        <v>128</v>
+      </c>
+      <c r="N915" t="n">
+        <v>68.12531280517578</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0.04176021739840508</v>
+      </c>
+      <c r="P915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:49:57</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:50:56</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>0</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G916" t="n">
+        <v>7</v>
+      </c>
+      <c r="H916" t="n">
+        <v>160</v>
+      </c>
+      <c r="I916" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J916" t="n">
+        <v>64</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L916" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M916" t="n">
+        <v>64</v>
+      </c>
+      <c r="N916" t="n">
+        <v>4823.8505859375</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0.0670832097530365</v>
+      </c>
+      <c r="P916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:51:29</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:52:05</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>0</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G917" t="n">
+        <v>7</v>
+      </c>
+      <c r="H917" t="n">
+        <v>256</v>
+      </c>
+      <c r="I917" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J917" t="n">
+        <v>112</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L917" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M917" t="n">
+        <v>64</v>
+      </c>
+      <c r="N917" t="n">
+        <v>6544.47607421875</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0.03893599286675453</v>
+      </c>
+      <c r="P917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:52:41</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:53:16</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>0</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G918" t="n">
+        <v>7</v>
+      </c>
+      <c r="H918" t="n">
+        <v>256</v>
+      </c>
+      <c r="I918" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J918" t="n">
+        <v>32</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L918" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M918" t="n">
+        <v>64</v>
+      </c>
+      <c r="N918" t="n">
+        <v>8427.396484375</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0.8456282019615173</v>
+      </c>
+      <c r="P918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:55:27</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:55:46</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>0</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G919" t="n">
+        <v>7</v>
+      </c>
+      <c r="H919" t="n">
+        <v>128</v>
+      </c>
+      <c r="I919" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J919" t="n">
+        <v>80</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L919" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M919" t="n">
+        <v>64</v>
+      </c>
+      <c r="N919" t="n">
+        <v>5619.35791015625</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0.03662880137562752</v>
+      </c>
+      <c r="P919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:56:32</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:56:54</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>0</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G920" t="n">
+        <v>7</v>
+      </c>
+      <c r="H920" t="n">
+        <v>128</v>
+      </c>
+      <c r="I920" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J920" t="n">
+        <v>80</v>
+      </c>
+      <c r="K920" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L920" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M920" t="n">
+        <v>64</v>
+      </c>
+      <c r="N920" t="n">
+        <v>5841.70361328125</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0.06909099221229553</v>
+      </c>
+      <c r="P920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:58:11</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2025-04-26 20:58:40</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>0</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G921" t="n">
+        <v>7</v>
+      </c>
+      <c r="H921" t="n">
+        <v>128</v>
+      </c>
+      <c r="I921" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J921" t="n">
+        <v>80</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L921" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M921" t="n">
+        <v>64</v>
+      </c>
+      <c r="N921" t="n">
+        <v>5024.8095703125</v>
+      </c>
+      <c r="O921" t="n">
+        <v>0.06198975071310997</v>
+      </c>
+      <c r="P921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:00:09</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:00:48</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>0</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G922" t="n">
+        <v>7</v>
+      </c>
+      <c r="H922" t="n">
+        <v>128</v>
+      </c>
+      <c r="I922" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J922" t="n">
+        <v>80</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L922" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M922" t="n">
+        <v>64</v>
+      </c>
+      <c r="N922" t="n">
+        <v>5080.79736328125</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0.06235341727733612</v>
+      </c>
+      <c r="P922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:01:25</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:01:59</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>0</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1</v>
+      </c>
+      <c r="H923" t="n">
+        <v>128</v>
+      </c>
+      <c r="I923" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J923" t="n">
+        <v>80</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L923" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M923" t="n">
+        <v>64</v>
+      </c>
+      <c r="N923" t="n">
+        <v>4676.197265625</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0.06210010871291161</v>
+      </c>
+      <c r="P923" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P923"/>
+  <dimension ref="A1:P930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51765,6 +51765,398 @@
       </c>
       <c r="P923" t="inlineStr"/>
     </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:12:59</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:13:55</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G924" t="n">
+        <v>7</v>
+      </c>
+      <c r="H924" t="n">
+        <v>128</v>
+      </c>
+      <c r="I924" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J924" t="n">
+        <v>80</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L924" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M924" t="n">
+        <v>64</v>
+      </c>
+      <c r="N924" t="n">
+        <v>4849.109375</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0.06299348920583725</v>
+      </c>
+      <c r="P924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:14:40</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:15:43</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>0</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G925" t="n">
+        <v>7</v>
+      </c>
+      <c r="H925" t="n">
+        <v>128</v>
+      </c>
+      <c r="I925" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J925" t="n">
+        <v>80</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L925" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M925" t="n">
+        <v>64</v>
+      </c>
+      <c r="N925" t="n">
+        <v>4996.39306640625</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0.06381422281265259</v>
+      </c>
+      <c r="P925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:16:42</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:17:24</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>0</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G926" t="n">
+        <v>7</v>
+      </c>
+      <c r="H926" t="n">
+        <v>128</v>
+      </c>
+      <c r="I926" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J926" t="n">
+        <v>80</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L926" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M926" t="n">
+        <v>64</v>
+      </c>
+      <c r="N926" t="n">
+        <v>5362.58056640625</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0.06280490756034851</v>
+      </c>
+      <c r="P926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:17:59</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2025-04-26 21:18:35</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G927" t="n">
+        <v>1</v>
+      </c>
+      <c r="H927" t="n">
+        <v>128</v>
+      </c>
+      <c r="I927" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J927" t="n">
+        <v>80</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L927" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M927" t="n">
+        <v>64</v>
+      </c>
+      <c r="N927" t="n">
+        <v>6123.02392578125</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0.06536310166120529</v>
+      </c>
+      <c r="P927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2025-04-27 17:16:59</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2025-04-27 17:17:32</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>0</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1</v>
+      </c>
+      <c r="H928" t="n">
+        <v>128</v>
+      </c>
+      <c r="I928" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J928" t="n">
+        <v>80</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L928" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M928" t="n">
+        <v>64</v>
+      </c>
+      <c r="N928" t="n">
+        <v>5088.0693359375</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0.03127607330679893</v>
+      </c>
+      <c r="P928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2025-04-27 17:18:27</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2025-04-27 17:22:39</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>0</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G929" t="n">
+        <v>24</v>
+      </c>
+      <c r="H929" t="n">
+        <v>144</v>
+      </c>
+      <c r="I929" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J929" t="n">
+        <v>96</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L929" t="n">
+        <v>400</v>
+      </c>
+      <c r="M929" t="n">
+        <v>128</v>
+      </c>
+      <c r="N929" t="n">
+        <v>65.22360229492188</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0.02025886625051498</v>
+      </c>
+      <c r="P929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2025-05-01 15:31:51</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2025-05-01 15:32:26</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>0</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G930" t="n">
+        <v>1</v>
+      </c>
+      <c r="H930" t="n">
+        <v>128</v>
+      </c>
+      <c r="I930" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J930" t="n">
+        <v>80</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L930" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M930" t="n">
+        <v>64</v>
+      </c>
+      <c r="N930" t="n">
+        <v>4427.3525390625</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0.0314062237739563</v>
+      </c>
+      <c r="P930" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P930"/>
+  <dimension ref="A1:P950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52157,6 +52157,1126 @@
       </c>
       <c r="P930" t="inlineStr"/>
     </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:20:00</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:20:32</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>0</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1</v>
+      </c>
+      <c r="H931" t="n">
+        <v>128</v>
+      </c>
+      <c r="I931" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J931" t="n">
+        <v>80</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L931" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M931" t="n">
+        <v>64</v>
+      </c>
+      <c r="N931" t="n">
+        <v>6322.04052734375</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0.03303268179297447</v>
+      </c>
+      <c r="P931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:21:28</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:22:01</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>0</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G932" t="n">
+        <v>1</v>
+      </c>
+      <c r="H932" t="n">
+        <v>128</v>
+      </c>
+      <c r="I932" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J932" t="n">
+        <v>80</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L932" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M932" t="n">
+        <v>64</v>
+      </c>
+      <c r="N932" t="n">
+        <v>4922.25</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0.03168637678027153</v>
+      </c>
+      <c r="P932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:22:35</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:23:13</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>0</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G933" t="n">
+        <v>7</v>
+      </c>
+      <c r="H933" t="n">
+        <v>128</v>
+      </c>
+      <c r="I933" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J933" t="n">
+        <v>80</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L933" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M933" t="n">
+        <v>64</v>
+      </c>
+      <c r="N933" t="n">
+        <v>4968.9091796875</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0.03330503404140472</v>
+      </c>
+      <c r="P933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:27:13</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:27:47</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>0</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G934" t="n">
+        <v>3</v>
+      </c>
+      <c r="H934" t="n">
+        <v>128</v>
+      </c>
+      <c r="I934" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J934" t="n">
+        <v>80</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L934" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M934" t="n">
+        <v>64</v>
+      </c>
+      <c r="N934" t="n">
+        <v>5036.84765625</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0.03329918906092644</v>
+      </c>
+      <c r="P934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:28:33</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:29:06</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>0</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G935" t="n">
+        <v>1</v>
+      </c>
+      <c r="H935" t="n">
+        <v>128</v>
+      </c>
+      <c r="I935" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J935" t="n">
+        <v>80</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L935" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M935" t="n">
+        <v>64</v>
+      </c>
+      <c r="N935" t="n">
+        <v>9009.91015625</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0.03281736001372337</v>
+      </c>
+      <c r="P935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:29:45</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:30:18</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>0</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G936" t="n">
+        <v>1</v>
+      </c>
+      <c r="H936" t="n">
+        <v>128</v>
+      </c>
+      <c r="I936" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J936" t="n">
+        <v>80</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L936" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M936" t="n">
+        <v>64</v>
+      </c>
+      <c r="N936" t="n">
+        <v>4775.26953125</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0.03044756874442101</v>
+      </c>
+      <c r="P936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:47:07</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:48:20</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>0</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G937" t="n">
+        <v>1</v>
+      </c>
+      <c r="H937" t="n">
+        <v>192</v>
+      </c>
+      <c r="I937" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J937" t="n">
+        <v>112</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L937" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M937" t="n">
+        <v>64</v>
+      </c>
+      <c r="N937" t="n">
+        <v>8072.6083984375</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0.03121889010071754</v>
+      </c>
+      <c r="P937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:49:03</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:51:01</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>0</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G938" t="n">
+        <v>1</v>
+      </c>
+      <c r="H938" t="n">
+        <v>128</v>
+      </c>
+      <c r="I938" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J938" t="n">
+        <v>96</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L938" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M938" t="n">
+        <v>64</v>
+      </c>
+      <c r="N938" t="n">
+        <v>13086.1142578125</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0.03026998974382877</v>
+      </c>
+      <c r="P938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:52:19</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:56:54</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>0</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1</v>
+      </c>
+      <c r="H939" t="n">
+        <v>64</v>
+      </c>
+      <c r="I939" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J939" t="n">
+        <v>80</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L939" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M939" t="n">
+        <v>64</v>
+      </c>
+      <c r="N939" t="n">
+        <v>14893.7783203125</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0.09809478372335434</v>
+      </c>
+      <c r="P939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025-05-01 16:58:15</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:01:55</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>0</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1</v>
+      </c>
+      <c r="H940" t="n">
+        <v>192</v>
+      </c>
+      <c r="I940" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J940" t="n">
+        <v>96</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L940" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M940" t="n">
+        <v>64</v>
+      </c>
+      <c r="N940" t="n">
+        <v>9538.8916015625</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0.03166939318180084</v>
+      </c>
+      <c r="P940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:02:54</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:09:35</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>0</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1</v>
+      </c>
+      <c r="H941" t="n">
+        <v>176</v>
+      </c>
+      <c r="I941" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J941" t="n">
+        <v>128</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L941" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M941" t="n">
+        <v>64</v>
+      </c>
+      <c r="N941" t="n">
+        <v>7697.71142578125</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0.03101438470184803</v>
+      </c>
+      <c r="P941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:17:04</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:17:38</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>0</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G942" t="n">
+        <v>1</v>
+      </c>
+      <c r="H942" t="n">
+        <v>128</v>
+      </c>
+      <c r="I942" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J942" t="n">
+        <v>80</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L942" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>64</v>
+      </c>
+      <c r="N942" t="n">
+        <v>6394.923828125</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0.03300891071557999</v>
+      </c>
+      <c r="P942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:21:27</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:27:40</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>0</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G943" t="n">
+        <v>1</v>
+      </c>
+      <c r="H943" t="n">
+        <v>224</v>
+      </c>
+      <c r="I943" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J943" t="n">
+        <v>48</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="L943" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M943" t="n">
+        <v>64</v>
+      </c>
+      <c r="N943" t="n">
+        <v>16172.076171875</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0.03170528262853622</v>
+      </c>
+      <c r="P943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:28:34</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:34:35</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>0</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G944" t="n">
+        <v>1</v>
+      </c>
+      <c r="H944" t="n">
+        <v>192</v>
+      </c>
+      <c r="I944" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J944" t="n">
+        <v>64</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L944" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M944" t="n">
+        <v>64</v>
+      </c>
+      <c r="N944" t="n">
+        <v>9328.3701171875</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0.03164354711771011</v>
+      </c>
+      <c r="P944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:36:42</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:37:15</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>0</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G945" t="n">
+        <v>1</v>
+      </c>
+      <c r="H945" t="n">
+        <v>128</v>
+      </c>
+      <c r="I945" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J945" t="n">
+        <v>80</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L945" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M945" t="n">
+        <v>64</v>
+      </c>
+      <c r="N945" t="n">
+        <v>7437.16357421875</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0.03155176714062691</v>
+      </c>
+      <c r="P945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:39:48</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:51:35</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>0</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G946" t="n">
+        <v>24</v>
+      </c>
+      <c r="H946" t="n">
+        <v>128</v>
+      </c>
+      <c r="I946" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J946" t="n">
+        <v>80</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L946" t="n">
+        <v>400</v>
+      </c>
+      <c r="M946" t="n">
+        <v>128</v>
+      </c>
+      <c r="N946" t="n">
+        <v>64.79648590087891</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0.02232667803764343</v>
+      </c>
+      <c r="P946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:53:12</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:57:04</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>0</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G947" t="n">
+        <v>24</v>
+      </c>
+      <c r="H947" t="n">
+        <v>128</v>
+      </c>
+      <c r="I947" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J947" t="n">
+        <v>80</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L947" t="n">
+        <v>400</v>
+      </c>
+      <c r="M947" t="n">
+        <v>128</v>
+      </c>
+      <c r="N947" t="n">
+        <v>73.25675201416016</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0.0251509603112936</v>
+      </c>
+      <c r="P947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:57:53</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:58:26</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>0</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1</v>
+      </c>
+      <c r="H948" t="n">
+        <v>128</v>
+      </c>
+      <c r="I948" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J948" t="n">
+        <v>80</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L948" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M948" t="n">
+        <v>64</v>
+      </c>
+      <c r="N948" t="n">
+        <v>5289.05615234375</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0.02965145744383335</v>
+      </c>
+      <c r="P948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:58:49</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2025-05-01 17:59:44</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>0</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G949" t="n">
+        <v>24</v>
+      </c>
+      <c r="H949" t="n">
+        <v>128</v>
+      </c>
+      <c r="I949" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J949" t="n">
+        <v>80</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L949" t="n">
+        <v>400</v>
+      </c>
+      <c r="M949" t="n">
+        <v>128</v>
+      </c>
+      <c r="N949" t="n">
+        <v>72.15276336669922</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0.02626933343708515</v>
+      </c>
+      <c r="P949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:34:48</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:38:57</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>0</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G950" t="n">
+        <v>24</v>
+      </c>
+      <c r="H950" t="n">
+        <v>128</v>
+      </c>
+      <c r="I950" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J950" t="n">
+        <v>80</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L950" t="n">
+        <v>400</v>
+      </c>
+      <c r="M950" t="n">
+        <v>64</v>
+      </c>
+      <c r="N950" t="n">
+        <v>63.83328247070312</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0.01873021852225065</v>
+      </c>
+      <c r="P950" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P950"/>
+  <dimension ref="A1:P964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53277,6 +53277,790 @@
       </c>
       <c r="P950" t="inlineStr"/>
     </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:51:17</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:55:53</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>0</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G951" t="n">
+        <v>1</v>
+      </c>
+      <c r="H951" t="n">
+        <v>128</v>
+      </c>
+      <c r="I951" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J951" t="n">
+        <v>80</v>
+      </c>
+      <c r="K951" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L951" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M951" t="n">
+        <v>64</v>
+      </c>
+      <c r="N951" t="n">
+        <v>9937.8359375</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0.03659733943641186</v>
+      </c>
+      <c r="P951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:56:28</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:57:39</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>0</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1</v>
+      </c>
+      <c r="H952" t="n">
+        <v>128</v>
+      </c>
+      <c r="I952" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J952" t="n">
+        <v>80</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L952" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M952" t="n">
+        <v>64</v>
+      </c>
+      <c r="N952" t="n">
+        <v>12501.4013671875</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0.03691236022859812</v>
+      </c>
+      <c r="P952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:58:07</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2025-05-01 18:59:21</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>0</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G953" t="n">
+        <v>7</v>
+      </c>
+      <c r="H953" t="n">
+        <v>128</v>
+      </c>
+      <c r="I953" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J953" t="n">
+        <v>80</v>
+      </c>
+      <c r="K953" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L953" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M953" t="n">
+        <v>64</v>
+      </c>
+      <c r="N953" t="n">
+        <v>5525.83251953125</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0.04290065541863441</v>
+      </c>
+      <c r="P953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:02:16</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:03:11</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>0</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G954" t="n">
+        <v>7</v>
+      </c>
+      <c r="H954" t="n">
+        <v>128</v>
+      </c>
+      <c r="I954" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J954" t="n">
+        <v>80</v>
+      </c>
+      <c r="K954" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L954" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M954" t="n">
+        <v>32</v>
+      </c>
+      <c r="N954" t="n">
+        <v>15018.576171875</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0.04288474284112453</v>
+      </c>
+      <c r="P954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:06:06</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:08:21</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G955" t="n">
+        <v>1</v>
+      </c>
+      <c r="H955" t="n">
+        <v>128</v>
+      </c>
+      <c r="I955" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J955" t="n">
+        <v>80</v>
+      </c>
+      <c r="K955" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L955" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M955" t="n">
+        <v>64</v>
+      </c>
+      <c r="N955" t="n">
+        <v>7491.16455078125</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0.03672545775771141</v>
+      </c>
+      <c r="P955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:10:12</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:12:26</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>0</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G956" t="n">
+        <v>1</v>
+      </c>
+      <c r="H956" t="n">
+        <v>128</v>
+      </c>
+      <c r="I956" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J956" t="n">
+        <v>80</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L956" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M956" t="n">
+        <v>64</v>
+      </c>
+      <c r="N956" t="n">
+        <v>6960.99755859375</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0.05462590791285038</v>
+      </c>
+      <c r="P956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:15:31</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2025-05-01 19:19:38</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>0</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G957" t="n">
+        <v>1</v>
+      </c>
+      <c r="H957" t="n">
+        <v>128</v>
+      </c>
+      <c r="I957" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J957" t="n">
+        <v>80</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L957" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M957" t="n">
+        <v>32</v>
+      </c>
+      <c r="N957" t="n">
+        <v>7067.6708984375</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0.05253858119249344</v>
+      </c>
+      <c r="P957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:41:03</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:45:10</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G958" t="n">
+        <v>1</v>
+      </c>
+      <c r="H958" t="n">
+        <v>128</v>
+      </c>
+      <c r="I958" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J958" t="n">
+        <v>80</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L958" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M958" t="n">
+        <v>32</v>
+      </c>
+      <c r="N958" t="n">
+        <v>7699.37841796875</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0.03355104165772597</v>
+      </c>
+      <c r="P958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:46:04</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:50:12</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>0</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G959" t="n">
+        <v>1</v>
+      </c>
+      <c r="H959" t="n">
+        <v>128</v>
+      </c>
+      <c r="I959" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J959" t="n">
+        <v>80</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L959" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M959" t="n">
+        <v>32</v>
+      </c>
+      <c r="N959" t="n">
+        <v>13109.669921875</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0.03277087087432543</v>
+      </c>
+      <c r="P959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:52:09</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2025-05-02 15:56:28</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>0</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G960" t="n">
+        <v>1</v>
+      </c>
+      <c r="H960" t="n">
+        <v>128</v>
+      </c>
+      <c r="I960" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J960" t="n">
+        <v>80</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L960" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M960" t="n">
+        <v>32</v>
+      </c>
+      <c r="N960" t="n">
+        <v>5061.83642578125</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0.03335722163319588</v>
+      </c>
+      <c r="P960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2025-05-02 16:27:38</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2025-05-02 16:29:54</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>0</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G961" t="n">
+        <v>1</v>
+      </c>
+      <c r="H961" t="n">
+        <v>128</v>
+      </c>
+      <c r="I961" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J961" t="n">
+        <v>80</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L961" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M961" t="n">
+        <v>64</v>
+      </c>
+      <c r="N961" t="n">
+        <v>5379.916015625</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0.03668342065066099</v>
+      </c>
+      <c r="P961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2025-05-04 14:41:39</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2025-05-04 14:42:43</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>0</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G962" t="n">
+        <v>24</v>
+      </c>
+      <c r="H962" t="n">
+        <v>128</v>
+      </c>
+      <c r="I962" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J962" t="n">
+        <v>80</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L962" t="n">
+        <v>100</v>
+      </c>
+      <c r="M962" t="n">
+        <v>64</v>
+      </c>
+      <c r="N962" t="n">
+        <v>60.71717071533203</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0.0172450440004468</v>
+      </c>
+      <c r="P962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2025-05-04 14:44:16</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2025-05-04 14:45:19</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>0</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G963" t="n">
+        <v>24</v>
+      </c>
+      <c r="H963" t="n">
+        <v>128</v>
+      </c>
+      <c r="I963" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J963" t="n">
+        <v>80</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L963" t="n">
+        <v>100</v>
+      </c>
+      <c r="M963" t="n">
+        <v>64</v>
+      </c>
+      <c r="N963" t="n">
+        <v>73.16239929199219</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0.02345964904217159</v>
+      </c>
+      <c r="P963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2025-05-04 15:06:23</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2025-05-04 15:08:41</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>daily_citi_bike_trip_counts_and_weather</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>0</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G964" t="n">
+        <v>1</v>
+      </c>
+      <c r="H964" t="n">
+        <v>128</v>
+      </c>
+      <c r="I964" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J964" t="n">
+        <v>80</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L964" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M964" t="n">
+        <v>64</v>
+      </c>
+      <c r="N964" t="n">
+        <v>5121.42431640625</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0.03685378283262253</v>
+      </c>
+      <c r="P964" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P964"/>
+  <dimension ref="A1:P965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54061,6 +54061,62 @@
       </c>
       <c r="P964" t="inlineStr"/>
     </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2025-05-04 18:52:49</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2025-05-04 18:53:52</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>0</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G965" t="n">
+        <v>24</v>
+      </c>
+      <c r="H965" t="n">
+        <v>128</v>
+      </c>
+      <c r="I965" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J965" t="n">
+        <v>80</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L965" t="n">
+        <v>100</v>
+      </c>
+      <c r="M965" t="n">
+        <v>64</v>
+      </c>
+      <c r="N965" t="n">
+        <v>65.81817626953125</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0.0255651523852173</v>
+      </c>
+      <c r="P965" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P965"/>
+  <dimension ref="A1:P966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54117,6 +54117,62 @@
       </c>
       <c r="P965" t="inlineStr"/>
     </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:40:15</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:41:17</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>china_bike_data_2022</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>pytorch</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>0</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G966" t="n">
+        <v>24</v>
+      </c>
+      <c r="H966" t="n">
+        <v>128</v>
+      </c>
+      <c r="I966" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J966" t="n">
+        <v>80</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L966" t="n">
+        <v>100</v>
+      </c>
+      <c r="M966" t="n">
+        <v>64</v>
+      </c>
+      <c r="N966" t="n">
+        <v>70.35466766357422</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0.02079555529224522</v>
+      </c>
+      <c r="P966" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
